--- a/changemyview.xlsx
+++ b/changemyview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
   <si>
     <t>changeview</t>
   </si>
@@ -392,6 +392,608 @@
 This is a big enough headache when it comes to sex that results in pregnancy. Both side may legitimately think they are telling the truth when in reality the birth control simply failed (none are 100%). But add in cases where it didn't result in pregnancy and there's no proof of anything. It's just a system when one emotionally hurt ex-lover can attempt to criminal punish the other. It's more likely to be used for extortion than anything positive.
 Then there's the problem of why should we stop there? Why not criminalize all lies that lead to sex, and given that two people in romantic buildup are rarely completely honest about their bad sides we can damn near make all intercourse criminal. We could have the government's blunt force applied to every hook up.
 The idea of government intervening heavily in interpersonal relationships sounds like a gigantic nightmare if you ask me. Single people looking for relationships or even one night stands have to make their own judgment calls. There's no amount of law that's going to change that. You need to be good at determine who is honest and who is a liar, or alternatively accept the consequences if you don't really care. Absolutely make sure you personally take care of birth control and don't leave that to the word of someone you do not absolutely trust. Your solution is worse than your problem.</t>
+  </si>
+  <si>
+    <t>We are still looking for a cure though. There's quite a lot being done in the field of developmental biology, because it's really very interesting. Gender dysphoria is feeling like your experience of gender disagrees with your physical sex. There are two potential ways to fix this: Change one's experience of gender, or change one's physical sex. So far, we have absolutely no idea how to do the first thing, and to even try would be extremely unethical because it would literally be rewriting people's personalities (and if we can do that, what's to stop us viewing say, christianity as a mental illness and rewriting all christians to be normal?). But we do know how to change a body's physical sex, at least to a point where it's a pretty good analogue of the target sex. We have one real treatment for gender dysphoria, which is to help them transition. That is the cure. The point is to bring them to a point where the brain can feel confident in the body that contains it, and the only method we have right now is to make the body into one that the brain doesn't feel like an alien in. Now, whether or not that is the ideal treatment is still up for debate, but for the moment it's the only treatment we have, and I see absolutely no reason we should force them to live in a body that doesn't feel like their own just in case we manage to find a non-transitioning cure and somehow come to the conclusion that rewriting personality is morally fine.
+Also, autism and adhd are both incurable, whilst Lana's depression is most likely a result of her experiences in the world (depression is very common for people with autism and for people with gender dysphoria, but it tends to decrease when these people figure out how to fit in and find the people with whom they will fit). Even if those things had been diagnosed, it would not have had any effect on her gender dysphoria.
+Further, most of Lana's suffering at this point is going to be due to lack of support networks - transgender people are often abandoned by their peers and family when they transition (as you have done). This is why they have such a high suicide rate, even after transitioning. Autism is only going to make that worse because it provides difficulty socialising and forming close connections. If you really want to reduce her suffering, you should offer her support, not avoid her or criticise her for transitioning. If you can't get over this though and just treat her like a person, then distancing yourself is probably the right decision.</t>
+  </si>
+  <si>
+    <t>what you're trying to do when you support trans people in transitioning is not a temporary fix for other mental illnesses. while there's no definite proof, like anything else in science or nature, that correlation is causation, and that being trans may have been the root cause of the other issues, perhaps there are other issues, or the other issues lead to a feeling of gender dysphoria.
+so there's no definite cause and effect. but i will say that for one trans person in particular, contrapoints, a youtuber named natalie wynn, it was kind of the other way around. she was diagnosed with a lot of different mental illnesses throughout her life, and never gender dysphoria, so she took different medications to treat her for depression or anxiety or bipolar disorder or what have you. but eventually, she figured out that she was trans, she transitioned, and a lot of her issues were resolved or at least really alleviated. she says that transition saved her life.
+gender dysphoria is a very very specific feeling, and feeling as if you should have breasts when you don't, or feeling as if you should look less muscular when you don't, is intensely troubling. and suicidal ideations are common in trans people. but these issues are alleviated through transition.
+so, yeah, they could get therapy for ever and ever and ever, but gender dysphoria just does not seem to be an issue that goes away with therapy or medication except in a very small minority of detransitioners.
+and there is evidence that supports the idea that gender is intrinsic and therefore self dictated. for example, the brain similarities between cis and trans women, cis and trans men. cis men and trans men have more in common with in terms of brain structure, the size of certain areas, than they do with trans women.
+so the issue is alleviating pain and alleviating suffering. transition helps people, it saves lives. i'm sorry if you don't believe that but suicidal ideations and attempts are lessened after transition. if you think the same things could be achieved through therapy, you are entitled to your opinion, but it's not as if trans people do not get extensive therapy beforehand.
+it is a drastic decision, and there are a lot of steps they need to take, doctors need to diagnose them, they need hormone levels checked, they need to see a psychologist for an evaluation to confirm they have gender dysphoria. there are lots of checkpoints, you could say, before a trans person can actually begin transition.
+my point is that they do get therapy beforehand. and i do understand why your view was shaped by your friend Lana, but she is one person. one trans person out of hundreds of thousands.</t>
+  </si>
+  <si>
+    <t>Some neuroendrocrinology (brain and hormones interactions) study and case show that a brain can be masculine in a body otherwise feminine (physically, genetically and hormonaly) and the opposite too.
+It can happen because the processes structurally differentiating the brain are different than those differentiating the genital organs (both are hormones dependant but the brain ones are trickier and so more prone to alteration)
+The brain (or behavioural) sex is actually composite and consists of sexual (gender) identity and attraction to female or male.
+Biologically speaking there isn't homosexual vs heterosexual but instead gynosexual (attraction to female) and androsexual (attraction to men). Less is known about bisexuality.
+The brain sex can't be changed once the individual is born because this sexual differentiation (like genital differentiation) happens and is decided before birth. And after that any hormone treatment only has a behavior activating activity on the brain/behaviours and not a structuring one.
+My source is a book published in french named "Quand le cerveau devient masculin" (when the brain becomes masculine) written by a Belgian Neuroendocrinologist (actually specialised in birds) named Jacques Balthazart and actually still researching in this subject. He is the director of a university research team on the subject. His studies are in english
+His book is a review of the subject wich starts with animals findings and ends with humans one. With fewer about humans because knowledge can't come from experimentation because of ethical issues. But he is very careful to only conclude what is possible from this small data.
+Mental illness are actually just neurological ones.
+In conclusion I'd like to show a double standard/ absurd version of your statement:
+"Diabetes is an auto-immune disease. We stopped looking for an actually cure because society is forcing us to accept people needing insulin shot"</t>
+  </si>
+  <si>
+    <t>It's not, though. Not a cure, just a treatment. Post-op suicide rates wouldn't be so drastic if it worked. Yes, sometimes it helps. Shit, might even help in the majority of cases. Not a cure though, not any more than chemo is a cure for cancer.</t>
+  </si>
+  <si>
+    <t>I’m a little confused as to what view you want specifically changed. Are you talking about therapy currently or therapy in the future? If the latter then I think you need to realize most of the studies we have right now do not show psychological therapy to be particularly effective on its own, especially non gender-affirming therapies. We can’t really be asked to change your mind on something that’s completely hypothetical because you are talking about what you believe as an ideal as opposed to what if provable fact.</t>
+  </si>
+  <si>
+    <t>There is something known as the social model of disability that applies here. Being deaf for instance is generally considered a disability, but if society were set up such that we didn’t use sound as our primary means of communication than being deaf would not have any negative impacts on a person’s life and it would no longer be classified as a disability. This applies with mental illness as well, something is only a mental illness if it causes significant distress in a person’s life by definition. What is and isn’t a mental illness is a rather arbitrary line to draw and some of it is dependent on what society is willing to accept and accommodate. This means that one could eradicate a mental illness by changing society, that is entirely possible.
+Mental illness treatment is a rather tricky thing in general. It usually involves a lifetime of medication and a various forms of therapy that can only ever lessen the problems while only occasionally producing anything resembling a cure in a minority of people. That is the current level that mental illness treatment is at. If you consider gender dysphoria a mental illness though, compare that to what happens when people transition. It cuts suicide attempts by an order of magnitude. Post-op trans people still have a higher suicide rate than the general population by a couple percent, but that’s still an order of magnitude better than the nearly 50% pre-op suicide rate. As mental illness treatments go, transitioning has insanely good almost perfect results. People would kill to have something even half that effective for anxiety and depression. The higher post-op suicide rate than the general population is fully explainable as a result of people not accepting them including often their own family.
+Transitioning saves lives, that’s just an objective fact. Trans acceptance is suicide prevention. The only reason to not do it would be if it also has consequences that are somehow worse than the thing it prevents. I can’t even think of a single negative consequence though, let alone one worse than avoiding a proven suicide prevention measure. Calling sex reassignment surgery “mutilation” is misleading at best. It’s a cosmetic operation done in a starile hospital room under anesthetic by a trained surgeon, not a schizophrenic castrating himself with a rusty knife. If that’s the standard for calling something “mutilation” than a hip replacement is “bone mutilation” and open heart surgery is “chest mutilation”. If you are worried about children transitioning, people have thought of that. Although transphobes will often call it “chemical castration” in their usual fear mongering way, puberty blockers only postpone puberty for as long as a person is on them and the moment they stop taking them things resume as normal. Nobody is seriously suggesting doing anything irreversible to anyone under 18.
+Homosexuality was once considered a mental illness too. However, people realized that they were freaking out about nothing and that everyone is better off when nobody goes out of their way to cause active harm in order to prevent a harmless action. That is happening again with trans people, though that movement has been consistently a few years behind gay and lesbian acceptance.
+I should probably clarify where I’m coming from here. I’m the son of a trans women, and I dated a trans man once who I’m still close friends with to this day. My trans-parent was sent to conversion therapy, in a move that lead to multiple suicide attempts she blamed herself for it not working and that sort of thing can put people in a really dark place. She has since decided to embrace who she is and transition. My trans-man friend and I have shared things with each other that nobody else on Earth knows about us. I have known him for every step of the transition process, and I have seen his mental health improve quite a lot as a result. He was in a really bad place when I first met him, and now he’s doing much better.
+I would also like to add that I am diagnosed with mild autism myself, and I have problems with the way you seem to think of that sort of thing. I don’t know if this is intentional or if you’ve just spent too long around transphobic rhetoric (I’m going to assume the latter), but the tactic of comparing gender dysphoria to mental illness only serves to pin the existing stigma associated with mental illness to being transgender. It’s an appeal to ableism, basically. Calling it a mental illness changes nothing though. Mentally ill people still deserve a basic level of decency, the right to express themselves, and freedom from bullying. The word “delusional” is often carelessly thrown around in relation to transgender people, but that is factually inaccurate based on what is known about gender dysphoria and it only serves to bring to mind stereotypes of mental illness. I have to deal with enough ableism shit on my own, and I hate seeing it used against people I care about too. They don’t deserve that.
+Edit: I have created a sources document in a reply to this comment in response to about 200 people asking for my sources. Here is the link:</t>
+  </si>
+  <si>
+    <t>Yeah gender dysphoria is a mental illness. I'm a trans person and I understand this. It's a mental illness caused by internal biological factors though. It's not caused by trauma or by other mental illnesses getting out of control. It's caused by a misalignment between the brain sex and genetic sex. Genetic sex is determined by, genetics obviously. It's your chromosomes. Brain sex is your gender. It's determined by the hormones that you're exposed to while developing in the womb. It's a common misconception that trans people choose their gender. Gender is something that you're born with that just doesn't change. You can't choose it, or I'd have chosen my gender to be the same as my genetic sex and avoid all this bs. At this point the only "cure" is physical transition. Maybe one day we'll be able to change the brain which would be awesome</t>
+  </si>
+  <si>
+    <t>Great. First, understand that gender reassignment isn’t like getting a haircut. You don’t just make an appointment and go. People with dysphoria undergoing gender reassignment surgically are all doing so with and at the medical direction of a psychiatric professional. Therapy always precedes transition and transition is always done in stages.
+Here is a fairly recent UK research paper studying over 1,000 individuals with dysphoria entitled, Suicide risk in the UK trans population and the role of gender transition in decreasing suicidal ideation and suicide attempt
+This is a pretty strong indication that suicide risk is greatest before transition.
+Further, let’s look at a comparative study of therapy and progressive stages of transition and psychological results: Effects of different steps in gender reassignment therapy on psychopathology: a prospective study of persons with a gender identity disorder
+Conclusions
+A marked reduction in psychopathology occurs during the process of sex reassignment therapy, especially after the initiation of hormone therapy.
+It’s clear from the literature that transitioning is an effective treatment for the psychological effects of dysphoria and that removing transitioning as an option socially would increase the harm done to people suffering from dysphoria.
+But moreover, the real problem here is a misunderstanding of disorder as a blueprint style diagnostic. People aren’t cars that go into the shop to get fixed. Society just has certain expectations about how people are “supposed” to be and it causes all kinds of problems when people aren’t that way. Either can adjust and there’s no reason to try to make people fit some mold other than appealing to pure conformity. Consider lift-handed people. Was that a disorder just because society used to punish (quite severely) people who used the hand society didn’t expect? We do this blueprint style diagnostic all the time.</t>
+  </si>
+  <si>
+    <t>The (historical) objection is “taxation without representation”, and the US territories do not pay federal income tax.
+So for Puerto Rico &amp; Guam, there are trade-offs about statehood - and PR doesn’t have an overwhelming consensus for statehood.
+Where it’s most unfair is Washington, DC - whose residents are subject to taxation, and where congress controls parts of its administration. DC residents are overwhelmingly in favor of statehood.</t>
+  </si>
+  <si>
+    <t>The 13 colonies wanted representation or to be free. By your logic, the US colonies should have the choice to be free or accept that they have no representation. My guess is that the colonies want to continue to be a US colony, and therefore accept that they do not have representation.</t>
+  </si>
+  <si>
+    <t>The slogan was "no taxation without representation." PR and Guam dont pay federal taxes (and actually receive a lot in aid every year), so it's apples and oranges. There are many advantages to not being a state, but being part of the US, take DC for example (IDK why any people in DC would want to be a state). You could make the argument for Guam or PR to vote in US genral elections and that would bring up slme good questions.</t>
+  </si>
+  <si>
+    <t>I agree BUT the key difference is that the colonies wanted representation and were denied. When PR votes on whether or not to become a state, they tend to be split down the middle with a slight boom toward "no"</t>
+  </si>
+  <si>
+    <t>There are pros &amp; cons to it.
+The biggest difference is that US territories don’t pay federal taxes, they just pay taxes to their local governments.
+So they have less direct influence over national policy, but they also don’t have to adhere to it in the same ways that states do . So they can make laws that are uniquely specific to being a territory.
+For example, though English is mandatory, they still primarily use Spanish. This would put them at a significant disadvantage when it comes to following national policy, which will dramatically affect their unique culture.
+So being a territory means you have the full protection of the US without necessarily needing to be a part of the process.
+I mean one prime example of this is Hawaii. While they still maintain a lot of their unique Hawaiian heritage, it’s been completely Americanized. A place like Puerto Rico would effectively experience gentrification.</t>
+  </si>
+  <si>
+    <t>You are correct that people of the territories pay taxes, although they don’t pay the federal income tax that people in the states do. They do all have one nonvoting representative in Congress. DC is unique in that its citizens pay federal income tax but also get to help select the president.
+On paper, the “taxation without representation” situation is correct. However, aside from DC, most territorial citizens are happy, or at least satisfied, with the current situation. If any of them decided to pursue statehood or independence, and there was a clear democratic majority, then the US government would likely comply.
+The biggest difference between the 13 colonies and current US territories is that the territories are not second-class states. Each territory operates largely as any other US states does; the 13 colonies, however, were treated as subservient regions with fewer rights than the mainland of Britain.</t>
+  </si>
+  <si>
+    <t>My understanding at least for Puerto Rico is that they have voted to reject statehood themselves. Which is why they do not have representation.
+They do not want representation at this time.
+I cant say the same for Guam because i do not know their situation</t>
+  </si>
+  <si>
+    <t>Addiction is a response to untreated mental illness, with a genetic component thrown in, which is why it’s so much more prevalent in populations that lack access to mental healthcare. It’s self-medication gone awry.
+So, shaming addicts, or ostracizing them for their addiction gives them yet another painful thing to self-medicate about.
+Acceptance isn’t the same as enabling them- but treating them as “less than” just makes the problems worse, and recovery harder.
+You could say the same with obesity. It’s well established that people eat as a stress response- and what’s more stressful than being shamed for your body? It becomes a vicious cycle.
+So, not “accepting” fat people makes their problems worse, and makes it harder for them to overcome them.
+It’s not about saying obesity is physically healthy- it’s about recognizing two very basic, simple truths:
+1: People can’t be shamed into psychological health
+2: People with diseases like addiction or obesity are still People, and deserve to be treated with dignity and respect, because that’s what people deserve.
+There’s a third one in there:
+3. It’s not your job to ‘help’ anyone get healthy, so commenting on their weight, unless you’re their doctor or personal trainer, is not appropriate, and what you should do is mind your own business and not give advice, as you would with any other physical ailment, because you don’t know the whole story.
+So, “fat acceptance” isn’t about enabling bad behavior, it’s about not being an asshole to people who are already struggling.
+EDIT:
+For the people who are posting things along the lines of "but I shame people because shame WORKS!" I'd refer you to this peer-reviewed medical study saying that it doesn't with obesity, and in fact makes the problem worse. This isn't the only one- a cursory google search will confirm this. So, now you have actual data that refutes your firmly held belief, and like a rational human being, you should change your view and behavior, right?</t>
+  </si>
+  <si>
+    <t>So for me, what changed my mind was clarifying two things:
+How prevalent anti-fat bias is in medicine and popular culture, and
+How things like fat acceptance and Health At Every Size (HAES) have a meaning beyond the fringe internet stuff
+To the first point, like all social movements, fat acceptance and the body positivity movement arose in response to external pressures - namely, that fat people are generally treated worse by the medical establishment (1, 2) and are portrayed very poorly in media (1, 2), for no other reason than their weight. There is a strong perception that obesity is primarily a result of personal choices or lifestyle (1, 2) when that is not really supported by medical evidence (1, 2). As a result, there is a lot of implicit and explicit bias, in medical professionals and otherwise, that fat people have to contend with (1, 2, 3, 4, 5).
+To the second point, while you typically see Health At Every Size portrayed in a very fringe way on sites like Reddit, it does have a professional meaning. This article does a pretty good job of explaining the movement from a medical standpoint, but essentially it's a movement among professionals to promote a more nuanced and patient-centric approach to weight management and physical intake. There are a growing number of studies that suggest that this approach is more effective in reducing physiological measures like blood pressure/lipid levels long term, improving psychological health outcomes, and, somewhat ironically, in sustained weight loss (1, 2, 3, 4, 5), when compared with traditional dieting and behavioral strategies. It's already become standard for dealing with disordered eating: as of 2009, The Academy for Eating Disorders, Binge Eating Disorder Association, Eating Disorder Coalition, International Association for Eating Disorder Professionals, and National Eating Disorder Association all explicitly support an approach that focuses on health measures rather than weight (Source). It's a pretty new approach, and there is definitely more research that needs to be done before it becomes mainstream, but even if the HAES movement isn't perfect, it's clear that our current conversation about weight in relation to health is too narrow. To put it in context, imagine if, in treating alcoholism, the only number your doctors cared about was your BAC - if you're legal to drive at your checkup, congrats, you're healthy! I'm sure you know that alcoholism is much more complicated than that, and while yes, if your BAC is high all the time it's probably bad, focusing on just that number does a disservice to a lot of patients. The same could be said for our focus on weight.
+Honestly, I get it, there's some really extreme stuff that gets posted on the internet, and it can be frustrating as someone who's seen the harm that grossly disordered eating can do to patients. But what all these doctors in the studies above and the fringe Twitter people have in common is they're both trying to address a problem in the way we discuss, diagnose, and treat weight-related issues in this country. While I would never try to convince you that everyone on the internet who advocates for body positivity is 100% right, I hope you can agree that there is a problem with how things are currently done</t>
+  </si>
+  <si>
+    <t>I'm not sure why people equate fat acceptance with shoving burgers down peoples throats. Fat acceptance is simply the the idea fat people should not be ridiculed or discriminated against.
+People with food addictions are still going to be treated.</t>
+  </si>
+  <si>
+    <t>I think the premise that a person can only be overweight due to a debilitating addiction similar to alcoholism is flawed from the start.
+Yes it's possible for someone to be overweight due to a food addiction but it's also just as likely that they can't afford healthy food, their metabolism makes losing weight difficult, they don't have time in their lives to exercise, etc.
+Alcoholism or other drug addictions are 100% a direct result of an abuse of an unnecessary drug. Someone overweight might have the exact same relationship with food as a thin person, not to mention that everyone has to eat. You can't avoid food.
+The other major difference is that due to the very visible nature of being overweight (as compared to some other addictions), overweight people are often subjected to cultural and interpersonal ridicule in ways that, lets say, an alcoholic will rarely be.
+A functional alcoholic can go through life without anybody suspecting they have an addiction, while an overweight person is often reminded of their difference in large and small ways daily. And even if their alcoholism were public, the response is often compassion as opposed to either ridicule or shaming that an overweight person often receives.
+That's what the fat acceptance movement is in response to. It's telling overweight people that their value as a person is not dependent on their weight.</t>
+  </si>
+  <si>
+    <t>I do largely get the sentiment OP that the government doesn't properly represent the country. I wholeheartedly agree with your assessment that the US government is entrenched with radical reactionary politicians from the right.
+My only slight contention is:
+I would point out that three million more people voted for Hillary Clinton in 2016. Democrats got 10 million more votes than Republicans in the House of Representatives in 2018. In the same year, 18 million more votes were cast for Democratic Senators, even though Fuckface McConnell picked up 2 seats. So even just looking at the last two big election cycles, Dems flat out are more numerous, we just don't spread out over nothing-land and demand it gets representation too.
+You're right that we're underrepresented, but it's not because its the will of the majority of Americans. Just the scumbags who think their vote should count more than yours.</t>
+  </si>
+  <si>
+    <t>1.) We just had 8 years of a politically progressive president who had enough control to finally mandate a version of universal health insurance. This was a huge left ideological carrot attained after years of promises, so not really a radical conservative thing. We generally swing back and forth after 8 years of any president :)
+2.) 2008: Obama vs. McCain was 69M vs. 60M votes. 2012: Obama vs. Mittens was 66M vs 61M votes. 2016: Clinton vs. Trump was 66M vs 63M. Early Obama brought hope of something new so he pulled off 3M swing voters (and 10M more than the 2004 election). 2012 Obama (post health care bill and no end to the wars as promised) we see a pull back in some of the hope for change. 2016 you see that the democratic base still likes Hillary, but the swing voters are turned off by her and looking for something different. Overall, I'd say that the majority of American's just want to be left alone (as shown by their lack of desire to vote). If team D can find a positive message and a more palatable candidate then it would be easy to beat Trump.
+3.) Not arguing that you have a wrong version of the country. People on either end of the spectrum have felt that way at one time or another. The best thing you could look to change is see what the country is and or can be. I encourage everyone to read the Federalist Papers and see why the constitution was built the way it was. The historical perspective is that the states were more like small countries, and they wouldn't want to be a joint country unless that Federal system was weak and unlikely to influence the way their states were run. This was the only way the South would join the North. We fought an entire war last time the urban half of the country forced it's opinion on the rural half of the country. I agree with fighting over that particular issue. That said, it does show how fragile the system is and partially why the system is designed to leave more decisions up to the states.
+4.) The point of a weaker federal system was that you didn't have to move to a new country. Instead you should be able to move to a new state and get the kind of government you want. With 50 to choose from you should be able to find one you like. We should all be in favor of less federal involvement so that we can each find a state that suits our interests better. Arkansas shouldn't tell California what to do, and Washington state shouldn't tell Texas what to do.
+Best of luck whatever you decide.</t>
+  </si>
+  <si>
+    <t>Local and federal legislatures are gerrymandered, mostly in favor of the GOP. The Constitution has a flaw where Senators who grossly overrepresent conservative rural voters have too much legislative power and control of judicial appointments. Mitch McConnell effectively runs the country even though Kamala Harris received millions more votes than he did in their last elections. Four out of eight Supreme Court Justices were appointed by Presidents who lost the popular vote, and one of those was appointed to a stolen seat. The Republican held Senate held up years of judicial hearings to hand them all to the next Republican President. And even when the people vote out the GOP, they use the lameduck sessions to reduce the power of the incoming administration and ram in appointments to better control the outcome of the next election.
+I think saying that the American people "want" this is a specious claim.</t>
+  </si>
+  <si>
+    <t>If Trump wins with the support of a majority or plurality of the electorate, that might be a reasonable conclusion.
+However, the Republican strategy is openly based around gaming the system, from an electoral college that weighs individuals in sparely populated rural states multiple times over dense ones, all the way down to voter suppression and literally sabotaging the postal service.
+I’m not worried that the country will choose demogogic authoritarianism, I’m worried that it might not have the tools to stop it.</t>
+  </si>
+  <si>
+    <t>As someone who is very, very anti-Trump, let me make a few counterpoints. None of it will be defending Trump because he is a dumpster fire.
+(1) People are divided. Trump lost the popular vote last time. This time, there is a lot of fear of shenanigans regarding the post office and counting votes. So even if he wins, let’s see how that happens before we judge where the US population is. But, either way, there is almost no way Trump will win a significant majority of votes.
+2. Politics is a pendulum. In post-WWII America, there was only one time (IIRC) where the same party won 3 elections in a row. The vast majority of the time, one party wins twice and the other then wins twice. So don’t consider the down times to be a permanent state of affairs. I remember after Kerry lost (I’m older than most redditors) feeling similar to how you describe. I couldn’t understand how people could see 4 years of George W Bush and then sign on for four more, and I felt completely detached from the nation as a whole. Four years later, Democrats controlled the White House, Senate, and House. Don’t get too caught up in the present.
+3. Democracy necessarily means accepting that you aren’t going to win all the time and that’s OK.
+4. You should talk to some Trump supporters about why they support him. You list a bunch of stereotyped, finger-tenting evil explanations for why people support him, conflating all of them together, but that may not be any more of an accurate representation than when conservatives says Biden supports are America-hating socialists. That’s not to dispute at all that they are wrong or he is terrible. But I wouldn’t just assume that they support a theocratic oligarchy.
+5. There are some contradictions in what you said. If you think a Trump win speaks for the will of voters, then it’s not indicative of an oligarchy, it’s just indicative of people disagreeing with you.</t>
+  </si>
+  <si>
+    <t>There is enough money in the world to easily feed and house every single person on Earth. With all of the wealth currently being hoarded, the haves could very easily provide for the have-nots.
+So why don't they? The most common answer I see is something along the lines of "handouts will make people lazy and the no one will want to work." I wholeheartedly believe that anyone who says this has never experienced poverty a day in their life. To believe that the majority of poor people would be content to scrape by on the bare minimum for the rest of their lives is absurd. The underlying message to this argument is essentially saying that the answer to poverty is for poor people to just "stop being poor."
+It's as if some people think being poor is a choice. They absolve themselves of guilt by saying that poor people can stop being poor whenever they want if they just stop being lazy. Yes, they can just manifest mental health, a support system of friends and family, clean clothes, access to proper hygiene, a balanced diet, and reliable transportation--they just have to want it bad enough! Absolutely asinine.
+The truth is we HAVE the money. We just collectively choose not to help because most of us have decided that it's not our problem.
+"It doesn't affect me personally so who cares."
+"Those people made their choice."
+"They're probably criminals/addicts anyway."
+Sentiments like this go against the very point of society: to collectively benefit from co-existence. Ten people living together in a community will thrive exponentially better than if they lived individually. This is because each person has something they can contribute to the overall good of the collective. So it is worth it for the other 9 to occasionally help out the 1 who is facing temporary adversity. The problem is that, at some point, we all decided that homeless people were worthless and that it wasn't worth it to help them. We decided that society would go on just fine without the poorest among us, so why bother wasting resources on helping them?
+We've dehumanized poor people to the point that we are no more concerned about their well-being than we are about wild animals. In fact, I'd say most people are more likely to care about abandoned cats &amp; dogs than they are about the homeless. Because those people "chose" to be homeless, but stray animals are merely innocent victims.
+Edit: u/ChangeMyViewExpert made a good point that sometimes people remain homeless for non-malicious reasons (due to mental health or other factors) despite resources being freely offered. I did not consider that these problems could persist for even when help was readily available.
+Edit 2: Thank you to everyone highlighting mental health. These comments have absolutely changed my view on this subject. I'm realizing that I need to do more self-examination. I have a very negative viewpoint of people in general, and this clouded my perspective. I completely forgot that sometimes there just is no easy way to help people. You can't force assistance on someone who either doesn't want or isn't capable of receiving it.
+Edit 3: I have to edit this again because I'm still getting hate mail. NO I did not change my view to blaming homeless people for being homeless. I changed my view to not place 100% of the blame on people being apathetic and closing their fists to the poor. I still believe homelessness and starvation are symptoms of societal failures. I have been made aware that it's not as simple as merely throwing money at a problem and instantly fixing it. If the world was a village with 15 people, sure--money would fix everything. But with a few hundred million homeless across the globe, money is just one piece of the solution. There's also the issue of ensuring the people actually get the resources. There's distributing the information so that these people know when, where, and how they can receive help. In addition to mental health, there's also drug addiction. NO, I AM NOT BLAMING SOME HOMELESS PEOPLE FOR DOING DRUGS. Yes I'm aware billionaires exist and are corrupt. Seriously people, read some of the replies. I did not get "brainwashed" by the people in this sub.</t>
+  </si>
+  <si>
+    <t>Here's my attempt to CYV, as you requested. I'm only going to take issue with this part of your comment. I would like to just deal with facts here as far as the math goes, but the conclusion is my own.
+The cumulative wealth of the world's millionaires and billionaires is ~$74 trillion.
+There are 7.67 billion people on this earth.
+74 Trillion / 7.67 billion =
+$9,642.95
+This is a one-time action, and can never be done again. Personally, I believe that the next thing that would happen is that all business would disappear, because there would be no incentive to create or run a business or endure the sacrifices necessary to become capable of doing so to begin with. Entrepreneurism would die. Jobs would disappear. The money would dry up. We'd all end up broke. Progress would halt pretty much completely. We would all suffer.</t>
+  </si>
+  <si>
+    <t>Funny how the sacrifices people want to make to help the environment never seem to be ones they have to make. No, they're sacrifices that others have to make.</t>
+  </si>
+  <si>
+    <t>On your pollution argument, I had an anecdote to share.
+I once took a cruise to Glacier Bay in Alaska aboard the now-doomed Grand Princess (haha). Being a national park, they had all sorts of restrictions on what the boat could do (like no dumping ballast water, no straws or paper outside, etc).
+These restrictions, while valuable, seemed to not be enough to solve the problem of pollution coming from the big boat. I asked a ranger on board what he thought about this, and he basically said that one big boat is a heck of a lot better than having even half of the people come in their own individual boat or plane because they're more likely to leech stuff into the water or bring some invasive species in (individual boats are harder to control), plus the collective pollutants are about the same. So it's better to let people see the Bay on a cruise than for them all to come individually.
+Just a thought. The pollution needs to be put in context for how many people are on the boat, where it's going, and how far it's travelling.</t>
+  </si>
+  <si>
+    <t>Cruise ships do create a lot of pollution but not when you consider they are all inclusive. When you take a cruise, the ship is your hotel, transportation, entertainment, and restaurant all in one. If you take the combined carbon generated by a tourist having to drive between locations, stop and eat 3 times a day at a restaurant, go to multiple hotels, then the carbon offset kind of equals being on a ship.
+As for the other half of your opinion, a lot of people like cruises because it's an easy and fun way to get away and see parts of the world that would otherwise need extensive planning, car rentals, navigation, passport control, and so on. When you arrive via cruise ship, you jump off for the day to explore, and then hop back on again for more fun the next day.
+Not all cruise ships are miserable floating cages like you make them out to be. If you travel on the nice cruise lines, the food is actually very good, the entertainment is great, and the ship is full of classier people that tend to dress nicely and act civilized. I've been on some awesome cruises with my friends where we had just as much fun off ship as we did on ship, because we sailed with a middle-upper class cruise line.</t>
+  </si>
+  <si>
+    <t>I wanna address the air pollution aspect of your argument. Large ships in general are actually very fuel efficient when compared to smaller vehicles. Sure, they may burn tons and tons of fuel, but if you do the math, they actually burn less fuel than would be required by other vehicles to move the same amount of cargo &amp; people over the same distance. There is some room for improvement though, most cruise liners use relatively poor quality diesel fuel because it's cheaper. Imposing the same emissions standards we have on cars, or allowing civilian liners to use nuclear propulsion would go a long way towards fixing this.
+I also want to address the sewage waste argument. Sewage waste only harms the environment when it includes man made items like wipes, chemicals, tampons, etc. Or when it's heavily concentrated into one area. Sewage waste can actually be good for the environment if it's spread out, that's because it puts nutrients back into the ecosystem.
+Finally about the disease bit. This is why ships aren't allowed to make port if they have infected people on board, this has been settled maritime practice for a long time. In fact ships like that actually make it easier to enforce a quarantine because they can remain at sea indefinately given a steady stream of supplies and the crew physically can't leave the ship without extreme risk to themselves.</t>
+  </si>
+  <si>
+    <t>This is a problem of choice and coercion. Yes insurance companies operate in a similar way but people and employers have a choice what company to use. The market isn’t perfect currently and there are issues, but less issues then if it was a single top down coercive model.
+A mix of private and public markets could work in theory I think but the danger of allowing the State to endorse services, companies, set prices, costs is that you give it an undue amount of influence and power. If you thought lobbying was a problem now just wait until the State has even more control over the market. You will simply eliminate the distinction between the State pharma/insurance companies leading to regulatory capture by large entities. Also with its power over the market the State can than throttle the private market all but eliminating private insurance and the reasons for it.
+The argument of “people need x service to live” so the State should pay for it is a bit of a fallacy. I could see a system where each State within the Union can make decisions like cost and availability depending on their individual circumstances. I would argue more that the local community should be the most involved when dealing with life saving drugs. If you nationalize the issue you just give large pharma companies even more access to the public purse and make it harder to change now that it’s been nationalized.
+Yes their are hidden costs everywhere and I can agree. However it still isn’t a good argument for full State control of the market. There are better more elegant solutions.
+When the State and its office control the markets like costs, pricing, availability, etc separate from market fundamentals you need a way to quantify and apply scarcity. This comes in the form of rationing which people mean when they complain about long queue times for services and effects the availability of drugs.</t>
+  </si>
+  <si>
+    <t>While I support universal healthcare because I think poor people deserve healthcare as well, universal healthcare will 100% effect me negatively. Right now I have no monthly costs, minimal waitlists, and quality care because I have a good job which provides the best healthcare available. I have been able to swap medication 3 times in the past 2 months (trying to find what works best) costing me less than $100 total. My health insurance is fine with this because they want to keep me as a customer. Once universal healthcare is available very few if any companies will continue offering these deals.
+If you look at how the government has handled literally every issue they have ever touched it's basically guaranteed that the quality of care will go down. There's no incentive to find me the best solution, instead it will be a case of here's this pill, it's the cheapest who cares if it's not that effective, take it or leave it I have 3k other patients waiting.
+There is also an issue of what the government recognizes as issues, for example I'm trans, until very recently there were no protections or legal recognitions on a federal level. Let's say 4 years from now a conservative gets elected and blocks transgender care. Right now I get my care from a private company for whom losing me as a client will cost them money. They would have no reason to kick me out. For a public healthcare perspective dropping my care would save them time and money.
+There's a reason many rich people fly to the US to get treatment, the US has the best healthcare in the world, it's just not affordable to 80% of it's people. And this is a problem that needs to be fixed, but public healthcare will cause the quality of care to go down. To me getting healthcare to millions is worth my life becoming worse, but the arguments against universal care absolutely have a valid basis. It's just a case of what matters most to that person, their own care or the care of people they will never meet.
+Edit: I've gotten a lot of responses, I certainly won't be able to respond to everyone. This was not supposed to be a be all end all argument against public healthcare. This is just my anecdotal experience with the system. For a long time I wanted to move to europe. Jag studerar svenska för två år. In the end I decided to stay in america mostly because of how dissatisfied I was with the anecdotes of transgender care in europe, particularly Sweden. There I would still be on the waitlist to start the extensive referral process, here I got care in a matter of weeks. The system here has worked for me better than anything I've heard from any trans individual in places with public healthcare. I could be wrong and as I said I still support public healthcare because I don't matter as much as millions of people. I am just providing my point of view.</t>
+  </si>
+  <si>
+    <t>I live Canada so I do support Universal Healthcare in general. However I heard a fairly good reason as to why it might not work as well in the US.
+In order for universal Healthcare to work, each the average person would basically have to pay an amount proportional to what the "average" person's cost of Healthcare is (after government funding). However the health of the average American is worse than in other countries (mostly due to obesity rates) and so the average tax/cost would be high for an average person.
+Edit: The above point is kind of contentious and comes off kind of wrong. I wouldn't say that America as a whole is "unhealthy", but compared to other nations with single payer systems I think they are behind a bit. See https://www.ncbi.nlm.nih.gov/books/NBK154469/. The more people that rely on the healthcare system the more it would drive costs up for people.
+That being said that isn't the reason most politicians down there seem to cite and I've seen various reasonable proposals to fund universal Healthcare so I honestly don't know at this point.
+Edit: to be clear I firmly believe the US should adopt universal Healthcare. The tax imposed on the average citizen may or may not be higher compared to other countries with universal Healthcare but the average citizen would still pay far less than what they pay for Healthcare now. Everytime I see a gofundme for someone's medical bills I die inside.
+Edit 2: As several people have pointed out the current healthcare system runs a lot of overhead to maintain https://www.latimes.com/science/story/2020-01-07/u-s-health-system-costs-four-times-more-than-canadas-single-payer-system
+All the insurance nonsense and middlemen greatly complicate matters and adds overhead that simply isnt necessary in other systems. So by switching systems the US would be cutting out a lot of expenses as well.</t>
+  </si>
+  <si>
+    <t>hi, i’m a high school debater who debated whether the us should implement medicare for all (specific to us)
+the arguments i found that said no were these:
+private insurance industry collapse
+innovation suffers
+quality is worse (higher wait times, doctor shortage in the future)
+rural hospitals are reimbursed less since they currently rely on urban hospitals to make up their losses
+brain drain (best doctors leave for more money)
+obviously this is just some general research i did and it could be wrong but i think it may provide for meaningful discussion. thanks!</t>
+  </si>
+  <si>
+    <t>I would argue against it because I think individual liberty and freedom is important, and that this will inevitably cause a reduction in that.
+Why? I’m glad you asked!
+When the government “pays” for something, it’s really the people who are paying for it in the form of taxes. As such, since we are all contributing towards the healthcare of everyone else, I ask how long before you start to feel some kind of way about your obese neighbor who has had two heart attacks but continues to drink, smoke, and slam Big Macs!? I mean if he just exercised a little, and ate well, and drank water, all of our healthcare bills would go down, and you and I would pay less in taxes. It has now become a common interest for us to be healthy (obviously not a bad thing in principle).
+There is one failing point, at what point can we start legally restricting the diet, exercise, health, and lifestyle of our people?
+Let me know what you think!</t>
+  </si>
+  <si>
+    <t>I lived in Norway for almost 6 years (am American). While living there, I had to wait over a year for a sleep study appointment that, ultimately, diagnosed me with narcolepsy. That was after probably almost a year of smaller diagnostic tests ordered by my GP before I was even referred to the sleep study in the first place (blood tests, MRI of my head, etc). It took so long because whenever I would make an appointment the earliest one would be more than a month out. Once I was there they would order some more tests which I would have to wait for, then I would have to make an appointment to go back to my GP and the soonest appointment would be more than a month out, and so on. Then when I was finally referred for my sleep study the waiting time was over a year.
+I spent countless hours trying to find a private option. There was none. I would have HAPPILY paid money to have this done sooner, but there was simply NO private option. So for two years my life was basically on hold. I was a student but school was a constant struggle. I couldn’t stay awake, I couldn’t concentrate, it was miserable. For the record, being an unmedicated person with narcolepsy feels like constantly having gone 48-72 hours without sleep. I was trying to study on that level of sleep deprivation, trying to find a job, hell - even DRIVING. It was awful. I honestly don’t even remember most of that time of my life and it was only like 5 years ago.
+The point is - with the insurance I had when I was in the US (and have now again that I live here again) this wouldn’t have happened. I would not have had to wait that long for a diagnosis. And if the waiting time was longer than I liked (even though there’s no way it would have been OVER A YEAR), I would have private options to choose from that I could have paid for.
+I recognize that this is a selfish way of thinking and I do feel conflicted about it. I think that everyone deserves healthcare. I think it’s a basic human right, and the American system - while it IS wonderful and has always been wonderful FOR ME - is terrible for a lot of people. But I have also seen the downside to universal healthcare, and that sucks too.</t>
+  </si>
+  <si>
+    <t>It's not. I don't know where you live that tipping on pick-up is expected, but definitely not around me in NY.
+Sure, they may put a tip jar on the counter, and sure sometimes I may even drop a dollar or two into it. But if you're picking up your own order, tips are not expected. And if they are expected, then that person had better learn to lower their expectations.
+You tip the delivery guy, because he is delivering your food to you. You're not simultaneously tipping the cook.</t>
+  </si>
+  <si>
+    <t>For the steady stream of Americans saying that people should tip delivery drivers - that's fine. I'm not arguing that people shouldn't, given the way in which those jobs are rewarded in the US currently. That is not the point I'm making here. Thanks!
+In what way does a delivery driver 'go out of their way' in driving to deliver something to you? The act they are undertaking is literally the core of their job description. Similar a waiter
+I suggest your distinction is not whether someone goes 'out of their way' but your perception of the way in which they are paid, and the social expectation of tipping. There is no ambiguity that delivery drivers should be tipped, it's a core part of their pay. For takeaway, it is more ambiguous and the pay for the staff in question isn't as transparent.
+So, let me ask you a hypothetical:
+There are two companies from whom you order delicious food. In Place A, they make a big deal of how they pay their delivery drivers a proper wage and ask you not to tip, as the cost of the drivers is built into the cost of the food.
+In place B, they make an equally big splash about how they *don't pay* their restaurant staff, who deal with take away orders, a proper wage because they want to incentivise good service. They say their prices are deliberately a little lower and they ask you to tip to show your appreciation for their staff.
+What do you do when you order, as in this hypothetical you do, from Place A and Place B?</t>
+  </si>
+  <si>
+    <t>I very much understand. I started college around 2 months before 9/11 and it was quite an induction into adult life. These times are unprecedented and no doubt difficult, but they are not unique. It's just been a very long time since America has been this fucked up and we as a society grew very comfortable in the meantime. We will get through this and you'll be in your thirties and perfectly poised to live well when the inevitable boom period that always follows a period like this one. It won't be like this forever, America is going through growing pains right now.</t>
+  </si>
+  <si>
+    <t>The press freedom index is nonsense. Suriname ranks well ahead of the US, and has this description:
+https://rsf.org/en/suriname
+So you have a country where it’s literally illegal to harshly criticize the government ranked ahead of the US. Seems a bit odd.
+Also, the US is more liberal on abortion than most European countries. In Germany it’s a crime to have an abortion after 90 days, which would be unconstitutional in the US.</t>
+  </si>
+  <si>
+    <t>I mean anecdotally it sounds like he’s living a bit of a pipe dream... I don’t buy the “lived here so long it’s my home” idea, if he really wanted to move back that bad he would.
+Obviously it’s not going to be that simple because family, career friends etc... I just think it’s a case of the grass always being greener.
+I felt similarly when I moved here and I moved from Mexico... and it wasn’t that I didn’t like America, I just severely missed Mexico because it was my home.
+Over time it eventually went away and if I went back now I really don’t think I’d enjoy it as much. But I also have 0 friends or family there anymore so who knows.
+I think overall life is what you make of it. People are sufferring everywhere, but in that same place you can find generally happy, proud people.
+I just think the US gets so much unwarranted heat. Like the people that think the US is racist is just absurd... it’s literally the melting pot of thr world, just about the least racist place I’ve ever been.
+Go to Europe if you want to experience racism against Americans, or Asia if you want to experience racism against anyone who isn’t Asian... Mexico is very racist, as are probably most places.
+If you turn off the news and social media and just focus on your neighbors and community, America is great. The picture they portray in the media is fake as hell.</t>
+  </si>
+  <si>
+    <t>I’ll just say this: all countries have their issues, and no developed country is perfect.
+Having said that, my family has lived in multiple developed countries, including the USA, UK, New Zealand, South Africa, and Australia. Where have we felt the most secure and had the best overall standard of living? Yup, you guessed it. The USA.
+Sure, each of these countries has individual merits that are better than the US. We loved not paying for healthcare in New Zealand. We loved the diversity of South Africa. You know what we hated? Months of waiting for non-emergency issues in New Zealand and Australia. Still having to do a co-pay in Australia. Constantly fearing for our safety in South Africa. Exorbitant taxation in the UK that made it unaffordable.
+So yes, the US has issues. But overall? It’s the best place we’ve ever lived, and the only other place I’d even remotely consider living in again is New Zealand.
+And before anyone accuses me of being from a rich family, that’s not the case. My father was in the import-export business, and moved around because of the company he worked for. The first time in his life that he made over US$100k was after I started college, when he was into his 50’s.</t>
+  </si>
+  <si>
+    <t>You cite a lot of great statistics. One thing I’d mention that probably won’t change your mind.
+the United States is a lot larger than your competitive countries. It is probably better to compare it to Europe rather than any one country in Europe. For instance Norway might be a good proxy for Boston metro area but a less good proxy for say west Texas. If you include all of Europe, you start to find the United States is better in some areas and worse at other because Europe includes high gini and low gini areas just like the US, the US just smooths it more due to the federal government.
+Edit: Got the feedback I didn’t try to change your mind so here goes my reasoning. Moderators please don’t take me down!
+If you read op’s thesis it is incredibly well laid out. I won’t try to fight him that Denmark has a higher quality of living than the US at large. Smaller more urbanized countries generally have higher social safety nets and greater economic mobility.
+He uses this forum to recognize that his view might be flawed. I think it is flawed to compare a country 50x the size of another. I think that when you try to compare the US to a more similar proxy it fair largely equally or better.
+I’m hoping that changes his mind and since I believe OP is American I hope it helps out piece of mind that his home is not a shit hole when using an appropriate litmus test</t>
+  </si>
+  <si>
+    <t>Unskilled blue collar worker (which is the lowest rank on the pyramid) can make the greatest living in America compared to any other country in the world barring Qatar oil rich like countries.
+A great house can be had for around $100,000 (excluding outliers like SF) for someone unskilled who makes $30,000 a year without bonuses.
+https://www.zillow.com/homedetails/427-E-Fifth-St-Lexington-KY-40508/2117370858_zpid/
+https://www.zillow.com/homedetails/3476-Sutherland-Dr-Lexington-KY-40517/77509350_zpid/
+Houses in Europe cost 300,000-500,000 euroes, low skilled workers could only dream in owning one.
+To add on top of this, every hobby is cheaper in the us, gasoline is cheaper, electricity is cheaper, food is cheaper, clothes, PC parts, etc and etc.</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>The value provided by Trigonometry, along with the rest of mathematics education, is a hard journey in learning how to reason deductively and objectively utilizing abstract concepts.
+Statistics is similar in this regard - but with one important distinction - it is inductive.
+Through this lense, I would argue that we have an immense importance in producing an education system that trains people to effectively use deduction and induction in concert with each other. Therefore, I kinda reject this comparison of Trig and Stats, as they are kind of like Apples and Oranges.
+Nevermind the fact that Statistics education, generally, sucks. But that's neither here nor there.
+I've heard some valid arguments for replacing things like Trig with other, more relevant abstract-deduction type subjects like computer programming and software design. I like the kind of thinking your CMV presents, just if we replace Trig with something, it should be something that stretches the same kind of mental muscle.</t>
+  </si>
+  <si>
+    <t>Statistics is not really math. More like general science. Maybe you mean stochastic or probability theory.</t>
+  </si>
+  <si>
+    <t>Statistics are*</t>
+  </si>
+  <si>
+    <t>The closest thing I can think of to a national standard would be AP courses which include both statistics and calculus. Calculus is probably more common so you could make an argument for pushing statistics for students instead of calculus.
+However, I don’t think you can really compare something like trigonometry or geometry to statistics since the concepts in statistics are more advanced. It would make more sense to compare the number of students learning statistics to those learning calculus</t>
+  </si>
+  <si>
+    <t>Applied Stats is more easier to teach and requires less time than the standard A-G-T line of education. Its why a lot of Colleges in the United States are pushing to use that instead of A-G-T. There is such a backlog of students who struggle with Algebra or Trig and fail to progress to graduating with their BA degree. But that is due to Math departments sticking to their guns and not reducing requirements. You can take some english class and bang out a B paper in maybe an hour. So Maybe 2 hours a week tops of not really trying. Versus taking a decent Trig class and having to do an hour or so of work a day and be able to remember what you learned during week 1 in week 15.
+Now think about the average student's time. I worked at a Community College for a few years. Majority of Students work 40+ hours a week. Then they come to class. They want social lives or to play video games or pick their nose. Oh become an &lt;insert Stem Major here&gt; because it pays better, and they just want to get done. So they cram in a bunch of courses and a math class. They have math phobia, so the last thing they do is the math class. And by the time they get to that, they are mentally done. So some people are pushing for an easier track for people to take that doesn't require any time commitment.
+The content of A-G-T-C and beyond is awesome and hugely foundational to many good careers. Got my Masters in Math, so can attest to that. But applied stats (where the computer does the work and you enter the numbers and interpret) is such a small animal and seriously don't see any value in that other than a participation medal for non Stem degrees. There is a somewhat valid argument in saying it will give people confidence to do more work in a Stem degree, but Stem degrees are time hogs. And students need to make choices to enable themselves to be successful in a degree like that. Some of those choices are not popular. But its only for 4 to 6 years, and changes to your personal identity. But its worth it to get to the other side</t>
+  </si>
+  <si>
+    <t>I first learned SOHCAHTOA in 4th grade so I was 10ish. Could you explain to me what a pareto distribution is in words a 10 year old can understand? Heck just try explaining CDFs.</t>
+  </si>
+  <si>
+    <t>People miss the point of math. It’s not always about learning skills you’ll use it’s about exercising your mind to solve problems. I’ll never have to push 200+ pounds off my chest but I do it to exercise my body for the health benefits.</t>
+  </si>
+  <si>
+    <t>So I'd classify myself as someone with views very close to yours - but I am actually thinking about sitting it out if Bernie is cheated out of the nom. I say cheated because if he just loses in votes - then fine, I'll vote for Biden; however, if he loses on a technicality that is decided upon by the DNC, it will be confirmation of the idea that the dnc/establishment just doesn't respect the progressive wing of the party, and is incapable of even the most basic levels of compromise.
+At that point, while it may seem like it's in my interest to get Biden elected - my own process will shift to "This party is never going to respect or even shift toward my ideals - and the only way they might ever do so is if they start losing votes because of it." as seen by the 2016 election, and continued in 2020.</t>
+  </si>
+  <si>
+    <t>As a Bernie Supporter, I will vote for Biden in the general election IF AND ONLY IF he wins the most votes/delegates by the time of the convention and is given the nomination. I feel most Bernie Supporters agree with this statement. (Although I can see why Bernie Supporters may not, since the DNC has actively acted against Bernie from the start of his campaign in 2016)
+If Bernie has the most votes/delegates, but not enough to secure the nomination with a 50.01% majority and it is taken from him and given to Biden by superdelegates, I will simply not vote in the general.
+It is not being a brat to not reward a party who actively ignores the will of its voters and give the nomination to someone who has not earned the most votes/delegates from the voters. The party is acting like a brat to think that they are entitled to our vote because “we need to defeat Trump”. Using the threat of Trump being reelected is a horrible threat, considering it was their enthusiastic backing of a horrible and unlikeable candidate in 2016 that gave us Trump in the first place.
+Of course we need to beat Trump, but this is like if you and me need to do something important as a team but you keep punching me in the face every chance you get expecting me to just be ok with it and then get mad that I do not want to help you anymore.</t>
+  </si>
+  <si>
+    <t>Atheist or religious, people just need to mind their own fucking business. I’m tired of ignorant religious people and condescending atheists. Seriously worry about yourself and be respectful of other people’s beliefs.</t>
+  </si>
+  <si>
+    <t>You make it seem like non-religious people do not commit egregious evil on a daily basis like everyone else does? Let's be honest here. You can't just say religious people are the blame for everything wrong, can you?
+As it was once penned by a famous writer.... All religions are basically the same, the only differ on matters of heaven, hell, salvation, redemption, and [100 other things].
+The fact is anyone can say "I'm a Buddhist, or I'm a Christian", and do something horrible. It does not mean the religions are horrible, nor does it mean that individual followed the tenants of the faith.
+As Malcom Muggeridge said, the depravity of man is the single most empirically verifiable yet intellectually resisted fact.
+Do you believe in good and evil? This is a very important question. If you do that that implies a moral law. If there is a moral law, there is a moral law giver. There cannot be an absolute moral law without a moral law giver.
+If you believe in absolute morality and yet say that morality is subjective to the flavor of the day, you have a self defeating argument and your logic is false.
+There is a mature form of Christianity that is not a "God of the gaps". It teaches love to ALL your neighbors. It teaches equality. It teaches peace.
+There have been many of the world's best scientists and most brilliant people who are Christians. You can't just use the God of the gaps talk and be taken seriously when you are talking to Christian professors who have 3 doctorates and understand science better than you do.
+I hope for mercy for you. You seem really angry and probably for good reason. I plead with you, have doubts... Ask questions... Have an opinion... But don't become cynical in spite of evidence if you really want to know the truth.</t>
+  </si>
+  <si>
+    <t>I am a convinced atheist but on a local level what I see in religion is the opportunity for social cohesion and support. All around me are small congregations who worship together, might be a bit confused by modern social changes but wouldn’t ever want to upset anyone or be rude to them. They raise money for local and international charities and form a little of the glue that holds a community together though looking at the age of the people whether that lasts is another thing. There is I know a famous quote about religion allowing good people to bad things but I haven’t seen nonreligious grass roots community orientated supportive organisations appearing in an extent that replaces these little congregations. I hold myself to blame , I know I am too busy with Murphy own life to dedicate the time perhaps I should to other people - but many of these sorts of congregations are the life blood of community care and all the other local jobs like participating in parish affairs , staffing libraries and village fetes, without them rural areas at any rate might lose something that would never return. Of course you don’t have to be religious to do these things and many people who are nit religious do also take part but the basic institutional local church or chapel can in practice provide a lot to the community.</t>
+  </si>
+  <si>
+    <t>Look at North Korea. All evidence shows that sanctions push dictatorial governments to be more extreme while also causing more harm to the most vulnerable population. Cutting ties won’t stop the problem but strengthen it. Maintaining ties also keeps the chance of knowing the full extent of the situation.</t>
+  </si>
+  <si>
+    <t>The consequence of halting all trade with China is much more severe than losing out on next year's iPhone. It's the worlds largest exporter. They're leaders in exporting computers, electronics, machine parts and highly specialized equipment, clothing, vehicle parts, shoes, plastics. And with more than 2 billion people, China is also one of the world's leading importers.
+To cease all trade would cost the world $2.6 trillion dollars a year in exports alone. All the businesses that use Chinese equipment in their production lines and technology assets would need to find another supplier, assuming there even is one. Trillions of dollars would be lost, the world would be plunged in a global recession, people would be laid off en masse.
+Trade isn't charity, its a two-way economic benefit. You cut off trade and you hurt not only the other country, you also hurt yourself.</t>
+  </si>
+  <si>
+    <t>Unfortunately, not all countries have problem with genocide - there are so many countries that don't mind killing minor tribes in their own land. In reality, only portion of countries would mind such noble concept.
+For other countries, the attempt would be seen as another power seize. To make matter worse, quite the number of countries which will advocate this method have past with imperialism - meaning the motive could be seen as more sinister. This make even countries oppose genocide mildly would oppose such drastic method since they would fear the next target being themselves.
+Edit : Some people said this isn't an excuse for why countries shouldn't cut tie with China. However, from the view of theirs, making precedent that world can shut one country down is considered as more dangerous than allowing one country to commit a genocide. Sure, there was and will be sanctions, but the proposal here will be whole different level since it assumes the whole world(not just the west) will unite against one.</t>
+  </si>
+  <si>
+    <t>They won't because they're cowardly morons who only take pretentious stands so they can be seen as being on the so called right side of history without actually being there</t>
+  </si>
+  <si>
+    <t>Evidence fabricated with a clear agenda you refuse to even acknowledge pushed by the most biased of sources you claim to be neutral
+https://thegrayzone.com/2019/12/21/china-detaining-millions-uyghurs-problems-claims-us-ngo-researcher/
+There you go, a western source, cant wait for you to disregard it with a "chinese propaganda lol"</t>
+  </si>
+  <si>
+    <t>This is a complicated topic, but my main argument is to think critically and not accept characterizations like "genocide" without taking a hard look at actual evidence.
+You describe the PRC policies in Xinyiang as " the worst mass genocide since the Holocaust," and seem to believe this without question, as many in the US and Europe do.
+There is very little evidence of anything coming close to "genocide" in Xinyiang. Indeed, the methodology behind the whole "1 million Uyghurs" detained is based on very little actual evidence.
+The PRC has repeatedly invited foreigners to visit Xinyiang to judge for themselves. These invitations have been regularly turned down by news organizations that condemn the PRC.
+There is pretty good evidence that this uptick in anti-PRC rhetoric is part of a deliberate plan to fuel a new cold war (and thus justify massive defense spending). Source: https://www.reddit.com/r/TrueAnon/comments/l9i8f6/uyghur_unrest_was_a_cia_narrative_planned_to/
+To be clear, the PRC's policies in Xinyiang are brutal and extensive, and the PRC has made concerted attempts to repress Uyghur culture and Islam through policies of forced mainstreaming of Uyghurs. It is also clear that there are many Uyghurs held in some sort of camps. BUT 1) most of the PRC officials in charge are Uyghur themselves, 2) there is scant if any evidence of mass killings, and 3) the "anti-terrorism" rationale used by the PRC to justify these camps is not dissimilar to US policies justifying Guantanamo Bay and dark sites around the world. Indeed, there were several terrorist incidents by Uyghurs before this policy.https://www.foreignaffairs.com/articles/asia/2002-07-01/chinas-war-terror-september-11-and-uighur-separatism
+In short, the term "genocide" is used both too often and without much intellectual rigor. And to come back to your earlier argument that this is the worst "genocide" since WW2, consider some ACTUAL historical death estimates:Rwanda, 1994: ~800,000 TutsiEast Timor, 70s-90s: 80-200k Timorese by Indonesian troopsCambodia' killing fields, mid-70s: 1.5-3 million Cambodians, by CambodiansBangladesh, 1971: 200k-3m bangladeshisDarfur, Sudan, 2003 till now: 100-500kBosnia, 92-95: 8k-40kYemen, 2014-now: tens of thousands of HouthisIndonesia, 1965-66: 500k-1m suspected communists
+Oddly, there are no death estimates in Xinyiang, because, frankly, there is very little evidence of actual murders. Rather, there is increasing use of the term "cultural genocide" to brush over this, as if it's 1) the same thing, and 2) somehow unique. In fact, the eradication of Uyghur identity is incredibly common, including policies in both Canada and Australia as late as then 1970s, with awful consequences through today:https://www.un.org/en/chronicle/article/discrimination-aboriginals-native-lands-canada
+China is not some enlightened utopian state; it is an Orwellian empire, and empires tend to be brutal. It is also seen as a huge economic threat to the US, and hence anti-PRC propaganda is plentiful. You will note that alongside claims of PRC "genocide" are claims of increasing international "aggression" despite the fact that China has FOUR overseas military bases while the US has ABOUT EIGHT HUNDRED. Yeah, you read that right.https://en.wikipedia.org/wiki/List_of_United_States_military_bases
+There's no easy way to compare the brutality in Xinyiang with, for example, camps of mainly latinos along the US border with Mexico, or the Rohingya in Myanmar, etc. But it's fair to say that there are plentiful human rights abuses all over "the international community," many in our own back yards.
+As Voltaire said, "one must cultivate ones own garden."
+EDIT/Follow-up. Thanks to the many kind words I've received, including some anonymous reddit rewards I didn't know existed! I've also been called a tanky, which is funny and reminds me of this story of actual tankies:
+In June, 1989 I was doing study abroad at a graduate economics institute in India. One day I came down to the canteen for breakfast and saw the Indian Express story about the Tiananmen Square massacre the day before. I hadn't paid much attention till then to the Beijing protests, and was utterly shocked. But even more shocking, many of the grad students there were solidly behind the PRC's use of force. When pressed, one of my buddies said that the protests were really about material goods, not free speech (as if that was the issue in condemning the murder of thousands of people).
+I later read that the two governments in the world that backed the PRC's actions that day were North Korea and the state government of the state in India I was in. It's actually pretty terrifying to see actual tankies devaluation of human life, arguing, essentially, that this was an example of not being able to make an omelet without breaking a few eggs. I'm not sure just what I am politically, but I know I'm against anything that dehumanizes people like that.
+EDIT 2: Someone rightly pointed out that I didn't source my statements about methodology for claims that 1 million Uyghurs have been jailed, and that the PRC has invited foreigners to come to Xinjiang to judge for themselves. I got this information first from Carl Zha, in a youtube debate with Elizabeth Cockerell. While I don't agree with everything Zha says, this is a good start to judging for yourself what's going on. Particularly interesting is that Cockerell accuses Zha of being a PRC shill, which he adamantly denies, but deflects when Zha asks about whether she has gotten funding from US government sources like the CIA.
+https://www.youtube.com/watch?v=X2qSFIWrGRQ
+There's a related (and less contentious) debate, between Zha and Lyman Stone, about whether China is a threat to world peace.</t>
+  </si>
+  <si>
+    <t>You have to actually prove a genocide is happening first. However, the facts do not align with the premise of your position here.
+Several international organizations have dismissed accusations of genocide against the Uyghur population in China due to lack of evidence. This includes, but is not limited to, the International Criminal Court, the World Bank, and the Organization of Islamic Cooperation (the largest international coalition of Muslim countries in the world), as well as nearly 70 countries in the United Nations.
+If the worst mass genocide since the Holocaust was happening in China, why haven’t any of these organizations, nor the representatives who actually visited Xinjiang, confirmed these accusations? Why should we cut ties with a country based on these unproved and poorly substantiated allegations?
+Update: OP refused to provide any evidence for his claims and stopped responding to me altogether.
+Here are some additional resources and information:
+Xinjiang: A Report and Resource Compilation
+State Department Lawyers Concluded Insufficient Evidence to Prove Genocide in China
+US State Department accusation of China ‘genocide’ relied on data abuse and baseless claims by far-right ideologue, Adrian Zenz.
+Notes on China-Uighur Controversy
+Video of Uyghurs in Xinjiang condemning Mike Pompeo for accusing China of genocide (subtitles available)
+U.S. Admits to Using Uyghurs in Xinjiang to Destabilize China</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>Speculating about how exactly she would have performed in an alternate world is very hypothetical, but basically yes.
+You seem to be aware that the difference between male and female performances is "a matter of different hormonal compositions", but then you weirdly stated that "even after suppression therapies, no biological female could ever hope to compete".
+But the hormones are EXACTLY what transitioning suppresses.
+Someone who has been blocking testosterone since puberty, and then taking estrogen, would grow up with an average female height, facial structure, body hair, skeleton structure, not to mention muscle mass buildup.</t>
+  </si>
+  <si>
+    <t>There was just a CMV about this like a couple days ago. Here is a fantastic comment that explains why it isn't so simple as "trans women will dominate".
+I really suggest you give it a read. Its super well researched and uses many different peer reviewed studies.</t>
+  </si>
+  <si>
+    <t>So if through more research, couldn’t we come up with a set of requirements where it wouldn’t be a problem for Tran gender athletes to compete? It’s not that it’s inherently unfair for trans gender athletes to compete, we just haven’t put in the effort to find out how, and the only way to find out is to allow them and make adjustments</t>
+  </si>
+  <si>
+    <t>I'll approach this from an unusual angle.
+It's not a transgender issue. It's a categorization issue. We play sports. Why do we play sports? To compete. What are we competing for? Points, times, goals, you name it. We're all aiming for those numbers.
+It apparently is well established in this thread that men have a distinct advantage over women in sport. This has been in the general common conscious for a long time, which is the main reason why we historically divided sports into women's and men's. Well, we're now seeing that the 2-gender split doesn't fit every situation (it never did, but it was more than good enough for the time).
+What if we adopted a frame &amp; weight-based system like boxing* [see my first edit for clarification], that way people who don't fit a particular gender definition don't get their athletic categorization conflated with their expressed gender? It would make it less confusing when we talk about individuals who don't fit a typical mold - this could pave the way for making it easier to classify surgically or prosthetically-enhanced, drug-enhanced, and even genetically enhanced athletes going forward. We just need to establish a more stats-focused classification system first, then we can make any necessary corrections and additions to it as we go. Just gotta change to categorizing for performance potential in general, not merely gender sex (edit 2: I mean sex here, not gender).
+ Edit: Clearly I need to explain more. It appears that a majority of replies have been concerns about ranking based on frame &amp; weight. Despite it being a "what if", some have said that it is unfair to pit a woman against a man of equal frame/size &amp; weight in any sport. Setting aside the fact that I disagree with this (how about in non-contact sports?), I think people are focusing on the example and not on my actual goal, which is to achieve a non-sex-based division (my words: "need to establish a more stats-focused classification"), through whatever alternative method works best. Just because I can't tell you what the best criteria is for each and every sport under the sun, does not mean the idea of establishing a different system that can include people who don't want to be on the "men's team" or the "women's team" - and they should have no problems being placed on their own ability, because sex, gender, what have you style of sorting is only useful when the players are actually similar in ability, including endurance &amp; resilience to broken bones, that sort of thing, so if you merely measured those instead of strictly X or Y chromosome you'd be sorting people more accurately. An extremely obvious example: A Female-to-male transsexual will not have the bone strength of a man, plain and simple, they should never get matched up with men in full contact sports like football, unless they are able to achieve stronger bones, and this boils down to safety, not personal choice.
+Furthermore, I am not trying to say every single athlete needs to undergo a rigorous series of examinations and expensive scans in order to qualify. Visual and physical criteria could be determined for each sport independently (you know, just like how it is now). I was merely using boxing as an example, not a sweeping generalization that should apply to all sports.
+I didn't imagine so many people were going to latch onto one example and assume that's what I was suggesting.
+ Edit 2: That's it folks, I'm done. I've spent more than 15 hours of my life responding to people whose primary goal is to prove me wrong in any possible way they can, to poke every possible hole resulting from every possible misinterpretation of the several sentences I have written. I'm sorry but I can no longer respond to posts, my brain is melting from the unfounded arguments and moving goalposts people continue to repeatedly batter me with, and I am not in a state to reply to even a well crafted argument. If you have any questions or big concerns about my SUGGESTION, then please read some of the 30+ 110+ comments I have made and see if you can find an answer. I will be replying to any further replies with a link to this comment.
+Edit 3: Relevant
+Edit 4: my god. I have made around 115 comments in this thread. That is what happens if you spend an entire day addressing hecklers.</t>
+  </si>
+  <si>
+    <t>I'm certain most people agree with you. Maybe not on reddit, but in general. I'm a 21yo male into body building, and go to the gym as often as I can with my sister. We do a lot of the same excercises, but my progress soars above hers. And you also have to take into account that males build muscle much faster than females, and having a wider skeletal frame is more ideal for sports and heavy lifting. In your case, the trans girl has not only a larger heart due to being male, but larger lungs and a higher number of red blood cells which absorb oxygen. This would without a doubt give her an edge in competitive swimming. I think its ridiculous that people can say this is fair. Why else do people think sports been sex-seperated?</t>
+  </si>
+  <si>
+    <t>As a biotechnician and Sex Ed teacher I must say that biological sex isn’t all black and white, there’s a lot of overlap. Especially with intersex people but also with people who are categorised as biologically male or biologically female. Though most men are stronger and fitter than most women, due mostly to testosterone levels, there is overlap. Take for example Caster Semenya, she’s biologically a woman but she has higher testosterone levels than most women. So if you think of two normal distributions, of male and female attributes, sitting next to each other but with a bit of an overlap, Semenya would probably be in the overlap but is still considered a biological woman and not intersex. A lot of trans people who are taking hormones and/or blockers are also in the overlap region of the two normal distributions. The people in the overlap region will always have some advantages and some disadvantages in one of the two categories and other advantages and other disadvantages in the other category. If we were to say that people with these or those testosterone levels have to participate in this or that category it will be incredibly hard to choose where the line should go, because of this overlap. So we either have to let people in the overlap region not participate in competition sports at all or we have to accept that some people will have biological advantages or disadvantages in some sports due to where we draw the line.</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>9/11 is the event that killed the 90s and marked the true beginning of a new Millenium marked by fear. I've never cared for to comparison of "two 9/11s died in this event" because the death toll of 9/11 is still rising. Tragedies don't negate other tragedies.
+You made the point of many more dying in the Middle East than those who died in 9/11 and that's exactly my point of why the September 11th attacks were so devastating to our course in modern history. 9/11 isn't just 102 bad minutes in New York, it's all of the hate-senseless loss of life-and destruction of freedoms that followed. That's why it's important to remember, that's why it is important to understand. When I hear "never forget 9/11", I'm also thinking about never forgetting how we got into the world we're in now.
+That video I shared above has an exercept from Howard Stern's 9/12 broadcast which is most shocking piece of 9/11 media I've come across. I was not prepared for it. Videos of the attacks are horrific to watch of course, but I'm able to mentally prepare myself knowing I'm going to head the sounds of bodies hitting the ground before I go in. Stern's broadcast had my mouth open in shock for almost its entire run.
+Stern laughs when a caller says "We have to kill all the dune coons and sand n**gers." and then says "This guy said a bad word, but you have to understand where he is coming from."
+If you're wondering how the fuck the Iraq War happened when they had nothing to do with 9/11, go listen to that entire broadcast. Howard's solution is that we tell the Middle East to hand us over Bin Laden or we'll nuke them, and then when they hand him over we nuke them anyway. His cohost Robin says "But Howard, which countries would we nuke? We don't know who knew."
+Howard says "They all knew, nuke them all. Look at the Japanese, they behave so beautifully now."
+Teaching about 9/11 history is obviously a passionate subject for me. I collect "Where were you on 9/11" memories from all 50 states and all around the world for a project called American September. The reason it resonated across the world, was because it was an unprecedented attack on the West and it could have been you. Anyone who has flown on a plane imagined themselves on board one of those flights and that was the point of what the terrorists were trying to do - They were showing the West that anyone can be killed and no matter how much they change security and alter freedoms that thought has now been implanted in the American subconscious.</t>
+  </si>
+  <si>
+    <t>Hypocrisy implies people are being dishonest in some way. I think 9/11 had a genuine impact on most Americans alive today that was probably bigger than any other single event. It isn't just the number of people killed, it was the fact that the Twin Towers were destroyed and that it all happened on television. The level of anxiety because nobody knew what would happen next was palpable everywhere. Maybe the Cuban Missile Crisis was worse, but it was not as visceral because of the lack of constant media.
+Now, is 9/11 the worst thing that happened to anyone anywhere? Obviously not even close. It's true that the wars afterwards devastated countries, including Iraq, and unleashed dangerous forces such as Al Quaeda. And of course in countries across the world poverty, conflict, and disease rage on. Yemen is constantly being ripped apart and some of that fault certainly comes back to the U.S.
+So, to split your argument into two parts: Is it hypocritical for Americans to believe 9/11 was the worst thing to happen to America? Or at least the single event that had the most impact? I'd say no. Sure, more people die from gun violence every year, but impact is subjective and the way most people processed 9/11 was more intense.
+Second, do Americans believe that it was worse than what happens to other people in other countries? I think there may be people who believe that, but in my experience most Americans are aware that it pales in comparison to genocides and atrocities and conflicts that happen around the world.</t>
+  </si>
+  <si>
+    <t>I read though your post, and then your comments. I have got to say, you seem pretty biased based on your responses.
+I will attempt this from my point of view and see what you think:
+Your assertion is that Americans view 9/11 as if it was one of the worst or most devastating events in history, it shows both how hypocritical American's are as in regards to international affair as well as how narrow-minded some American's are.
+I am not sure that is an accurate statement. One of the worst in American history, sure. Even if it were true, I would give credence to the thought of worst in history simply because of some of the other stated reasons. Further, your number of impact only lists the people killed, but not affected by the attack, yet you use that logic to inflate the impact of military operations in Afghanistan including indirectly attributing the civilians deaths to the U.S.
+It is not hypocritical to point out and feel that this attack was a tragedy. You also state that you feel the responses are overly dramatic, but we were supposed to be the safest place on the planet, not susceptible to terrorist attack. An attack on the idea of freedom and safety.
+You allege that it is hypocritical to think about the terrorist attack because of the resulting fallout. But I would argue that makes it even more devastating. The American people wanted justice. The free world watched in shock and contemplated if they would be next. The military was already hunting Al Qaeda in Afghanistan and Pakistan. Afghanistan barely had a government and Pakistan and Saudi Arabi were regional powers. It was a logical step to commit ground forces after the attack. You can hold the U.S. to account for the death and destruction associated with the operation, but to suggest that the resulting carnage devalues the attack in pure revisionist. It is not hypocritical to suggest that Pearl Harbor sucked almost as bad as 9/11, and was possibly the worst day in the lives of an entire generation, but agree that the event did not justify the dropping of 2 nuclear bombs. Think about how many civilian lives that ruined.
+I think you are focusing on the morality of war, and using the costs associated with Afghanistan campaign to evaluate at the events of 9/11 and compare the cost of each to each other. I would argue that is letting your bias show. Especially since you reference the Afghanistan campaign as an invasion in a response to another commenter. Was the cost of WWII worth liberating the Jews, the dead at Pearl Harbor, the dead in Japan? If the U.S. had merely shrugged off the attack, as some isolationists wanted at the time, there would be no EU, no Jews, and Germany would have spread from ocean to ocean and may have cost far less in terms of lives and infrastructure.
+I would say that you would have a better position taking the view that it is hypocritical to value American lives lost during the attack, yet refer to civilian deaths as a footnote in the war on terror.</t>
+  </si>
+  <si>
+    <t>The war in Afghanistan is not exactly popular. Most Americans are against it, and have been for over a decade.
+Thinking that 9/11 was bad, and that the war in Afghanistan is also bad - isn't hypocrisy.</t>
+  </si>
+  <si>
+    <t>The world was amidst a recession.
+In the 2000s the dotcom bubble burst. And the whole economy was down.
+People were losing their jobs, moral was low. And then, tragedy struck as those planes flew into the world trade center. Giant towers that were a beckon to prosperity. Seeing the world trade center crumble down a midst a global recession. For most americans, its probably the most hopeless and helpless they ever felt in their lives.</t>
+  </si>
+  <si>
+    <t>My country keeps bringing up our own tragedies and don't give a shit about others. Every nation has it's own history and problems. For Americans, it was one of the biggest attacks in its history. Don't see what's the issue. 9/11 is also a simbol for how big terrorist attacks can get. All nations took big measures afterwards, just look at airline companies afterwards.</t>
+  </si>
+  <si>
+    <t>I would say taxes play a big role in this. While I agree with most of your points, such as pulling over on the free way while tired. I think for major cities you gotta follow the money.
+If you are living out of your car you are not paying property taxes to the city you are living in. You then become a drain on resources while not contributing through taxes.
+Another point is that the general public that pay taxes do not want it to be legal in their city or town. I for one don't think I would be thrilled walking out of my home to a bunch of people sleeping in their car regardless of their reasons or intentions. That being said I wouldn't object to designated areas for such people living out of their cars.</t>
+  </si>
+  <si>
+    <t>So I mostly agree with your stance on this, but there's a couple issues we'd have to cover in order to implement this.
+(Extremely) low income beneficiaries have to purchase vehicle insurance, or will not use it.
+Low income beneficiaries will also likely neglect paying for vehicle maintenance increasing the risk of road accidents.
+Homeless are unlikely to pass driving test (b/c if you are destitute you probably couldn't afford a car and therefore license, or have been out of practice for a while), and therefore cannot get a valid license.
+Factors 1/2 will likely mean that if one of these individuals were to have a serious collision, this would either drive up insurance rates, or cost normal drivers inordinate amounts out of pockets.
+Assuming we could get around factor 3, this would also make reckless driving more likely due to lack of consequences as well as increasing the # of vehicles unfit for public roads endangering the safety of the general public.
+Edit:
+"Homeless people can't pass driving tests and therefore can't own a car safely based on absolutely nothing but a weird assumption I'm making because I've never met a homeless person before".
+The above paragraph covering safety includes factors 1-3. Not having insurance and and a maintained vehicle increases liability to other drivers. Not passing basic driver's test means you have no way to ensure the driver can operate the vehicle safely. If you sleep in the vehicle, this implies you can or will drive the vehicle at some point. I am assuming we are not talking about motor homes that cannot move.</t>
+  </si>
+  <si>
+    <t>In my experience as a person in Los Angeles, people living in their vehicles tend to either empty their refuse tanks / just go right out and do their business on the street outside their car because they don’t have access to proper facilities. They also tend to leave trash all over the place around their cars for the same reason. They don’t have sanitation services.
+For people who have been able to afford to live in housing in a neighborhood, whether they rent or own, having cars constantly filling up all the street parking with people living in them who leave trash and human waste, this is really an unfair situation for the residents of the neighborhood.
+The problem isn’t really going to be solved by allowing folks to live in their cars. A car is not a size for reasonable human occupation. It’s not humane for anyone to have to live in a car for any sustained period of time. It could be solved by regulating the housing market and rental markets so people can actually afford to live in a space where sanitation and standard amenities like clean running water are available to them and they don’t have to live in a car in the first place.</t>
+  </si>
+  <si>
+    <t>The idea that churches have no benefits for society is a... difficult one to argue. Churches provide massive benefits in community cohesion and create support structures where there are none. There is a reason most societies evolved with either temples or churches as one of the pillars of their systems.
+Even as an atheist, I have to admit that it is very hard to argue that churches are a net negative for a society considering the history and facts behind them. Replacing their benefits is extremely hard through secular organizations.
+A good opinion piece in the NYT was written about this. https://www.nytimes.com/2013/04/21/opinion/sunday/luhrmann-why-going-to-church-is-good-for-you.html
+Not at all, it is treating them the same as any other charitable organization. Churches do not pay dividends, and they are therefore by definition non-profit.
+That is an issue of enforcement, not of law. You don't change the law just because some groups fail to follow it. Do you remove the tax exempt status of all charities because a few commit fraud or don't follow the regulation?
+There are many instances where ministers or pastors are using "church land" as their private homes, and not paying property tax on it. Kenneth and Gloria Copeland, leaders of Kenneth Copeland Ministries in Fort Worth, TX, live in a church-owned, tax-free $6.2 million lakefront parsonage. [1]
+Using company property for personal use is taxed as income, and again is an issue of enforcement on individuals, not organizations. Individual cases of abuse should not dictate policy, only enforcement.</t>
+  </si>
+  <si>
+    <t>The populace needs to be kept poor otherwise it can’t be controlled.
+Ever wondered why all governments removed all fruit trees and vegetable plants, and added green grass and trees with no fruit? The public spaces and parks are there already, and the pants keep growing by themselves for free. Yet if they remove all source of free food from the land, you have to buy it.</t>
+  </si>
+  <si>
+    <t>OP, I think you have fallen for some silly arguments in this thread.
+Sleeping in your car should obviously be legal if your car is suitable for sleeping in, like a camper van. Regulated, but legal.
+Living in a Toyota corolla with a tiny blanket all year round while pooping on the streets should not be legal, but not because of the visibility of it, or taxes, insurance, drugs, the car looking messy, or whatever.
+It's because of the poop/litter in the streets (which is a health hazard and environmental issue), and the fact that you will freeze to death (edited, this is a stupid point). The same applies for sleeping in a cardboard box in the street. However, it should not be illegal to sleep like this, it should be decriminalised. Like with hard addictive drugs, enabling it by making it fully legal is not super good, but punishing people who have ended up in those circumstances by fining and jailing them helps no one.
+(Edited in: maybe it should just be completely legal, to be honest. I don't see any legitimate harmful effects of allowing people to sleep in cars as long as they follow other laws.)
+Living in the rough for a semester to save while you sort things out financially, and shower/poop in a gym or a shelter? This should not give you a criminal record. If you do get caught you should be met with a friendly, helpful attitude by the authorities, not get arrested or fined.
+If you do indeed commit actual crimes like pooping in public, invading people's property, parking illegally, not meeting car safety standards, etc. You should be fined for the crimes you do commit. Not for the "crime" of being homeless. There are many typical externalities that people point to when they argue against homelessness, many of which are legitimate grievanced, but none of which should legitimise persecuting people who are in a rough financial situation, or choose to live in a mobile home.</t>
+  </si>
+  <si>
+    <t>I agree with you that there should be no ban on temporary "pull off the road and sleep" for safety scenarios.
+However, there are some legitimate reasons to ban long term living in vehicles in specific areas.
+Living out of vehicles that are not meant for dwelling in can be hazardous to those occupying the vehicle and people nearby. As you mentioned a motorhome or equipped van is different, but even then, in my city there was a hepatitus outbreak that changed rules on motorhome living in the city as well. People were too poor or unwilling to pay to properly dispose of sewage. In addition they had issues with lack of vehicle maintenance, and theft and break-ins of vehicles (since people knew valuables were likely inside).
+Assuming they're not wealthy enough to have a properly equiped vehicle or motorhome. What happens if the person needs to relieve themselves in the middle of the night? What about cooking meals, cleaning supplies and garbage? What about kids living in the vehicles? How can neighbors know if a car is stolen-abandoned or simply being lived in since windows are often covered for privacy? What if they're parked by a school or park and how do we know who is living in them is not a registered offender since they're not officially housing? Who has a right if the home owner needs the vehicle moved for access to their own home or construction equipment?
+I think bans for safety are appropriate IF alternative space and services are made available. I prefer the safe parking spaces being made available in some cities that have lighting, bathroom access, security, and other services nearby.</t>
+  </si>
+  <si>
+    <t>There is an upside to swing states, and personally this is the only justification for the Electoral College I find to have any merit. Swing states reduce the role of money in presidential elections.
+In a truly national competition, both campaigns have to buy TV time, hire staff, etc. in every state in the country. This would be extraordinarily expensive, and candidates would be even more dependent on big donors. By instead concentrating the campaign in a few states, candidates don't need nearly as much money and don't incur as large a debt to big money interests. This, at least, is a good faith argument.
+The other argument about swing states, which may be less persuasive, is that voters in swing states tend to take their responsibility more seriously and be better informed. A general critique of American voters is that they are poorly informed and vote impulsively or just on party labels. Voters in swing states know they might decide the election and may take a more responsible attitude to learning about the candidates. It also helps that the campaign is concentrated in their states, so they have more opportunities to learn.
+I agree with you here, but it's worth pointing out that the real offender here is the Senate. The EC is somewhat disproportionate, but the Senate is extremely disproportionate. Sure, Wyoming gets a little more representation in the EC but it gets 80 times the representation in the Senate.</t>
+  </si>
+  <si>
+    <t>I largely agree with you, but I do want to counter one point.
+4) The "elector" system is very dumb and bad. Do we really want 538 people that we've never heard of to get the ability to overturn an election? This isn't a group of able statesmen, the electors are largely partisan figures. In most states, you don't even see that you are voting for an elector instead of for a candidate for president. These are elected officials only in the most vague sense of the term. The idea that this ceremonial body is some kind of safe-guard is laughable.
+While your assessment is correct in what the original intent of the EC was, this is not reflective of how it has ever been used in practice. Never in US history has faithless electors, that is, electors who vote counter to the will of their state, changed the results of the election. In fact, in a recent Supreme Court ruling from this year, faithless electors have been ruled unconstitutional. They aren't even allowed to vote counter to the will of their state anymore.</t>
+  </si>
+  <si>
+    <t>One factor you didn't mention is vote allocation. Currently, there are only two states (Maine &amp; Nebraska) that choose to allocate their EC votes proportionally to their populations, as opposed to the winner-take-all system the other 48 states have implemented. Do you believe the EC would function more in the interest of democracy if this system were implemented nationwide?</t>
+  </si>
+  <si>
+    <t>It doesn't take much to find a multitude of instances where Police are the ones escalating the situation rather than the protestors. I'm not saying there aren't violent protestors, that always happens with things of this scale, but it seems like a lot of police are not allowing peaceful protest.</t>
+  </si>
+  <si>
+    <t>I am not convinced there has been no change in decades. Do you really feel race relations are no better then they were in 1975?</t>
+  </si>
+  <si>
+    <t>This probably won’t change your view and it may be a CMV of my own but your premise is that they haven’t heard been heard in decades. I would wager that much of that fault lies within the same enraged community that continues to elect officials which promise the moon only to deliver dog shit. And they do it. Over. And over. And over again. I’m not even taking a partisan stand with that comment. I think that the internet these last ten years has done wonders to ensure people from all walks of life can be sympathetic to each others’ view but unfortunately that also comes with a highly divisive media presence and an instantaneous reaction to news headlines and click bait articles swaying public opinion without even offering substantial and verifiable information.
+I think it’s for THOSE reasons that people aren’t being heard and it’s THOSE reasons why it takes something drastic to unify the screams into chants.</t>
+  </si>
+  <si>
+    <t>People aren't "violently protesting " the protesters are non violent. You have a bunch of jerks taking advantage of the protests to act violently to steal, and destroy. They care not about the protest and more about either lining pockets, causing chaos, and basically destroying what the protests are all about.
+Do not confuse the two, they aren't connected. Just some jerks being destructive.
+That being said, social change is SLOW and painful process. It usually takes something like George Flynn to begin that process. Hopefully most are listening and can see how brutally he was murdered. Maybe more people can sympathize and understand I hope this is true.</t>
+  </si>
+  <si>
+    <t>I'm all for more attention and productive change related to these issues.
+In your post though, it seems like you're assuming that the people doing the rioting / looting are the same people as those protesting the issues.
+As you can see from the coverage of anarchists and white supremacists starting fires and smashing windows, these groups don't necessarily overlap.
+And indeed, many protesters who are there because they care about the political issues at hand are confronting looters / rioters, stopping people from entering stores to steal, and stopping people from breaking windows. If those acts of vandalism helped the cause, activists wouldn't be stopping those actions, right?
+People have a right to destroy chain buildings (not supporting people who hit small businesses or harm innocent people) because that is a part of the establishment which has oppressed them without respite.
+As far as I know, Target is not oppressing people, and actions they take that are discriminatory are punishable under the law.
+And indeed, in Minneapolis, Target gives to many charities and community organizations:
+"In 2018, we donated millions in cash grants and in-kind product donations in the Twin Cities, including corporate giving grants to support local arts and cultural organizations. In addition, we donated more than 5 million pounds of food and team members volunteered more than 176,000 hours in the community." [source]
+It doesn't help communities to lose the stores where they buy their groceries and the things they need for their lives.</t>
+  </si>
+  <si>
+    <t>I agree in principal: Fines should sting no matter who you are.
+Practically speaking though, it's hard to execute in the US. As it stands the IRS/state treasury are the only government agencies that actually have access to your tax returns, which is likely the best approach to determining your income. Local police don't have that information, so laws would need to be completely reworked to allow hundreds of separate police forces to access a given person's income to calc a fine. Further, tax returns don't really explain a person's net worth. If a millionaire takes a year off and has little income should they pay a smaller fine or pay one based on their overall wealth? I'm not aware of any government mechanism that formally tracks people's net worth right now, so that would need to be created which many many would resist and it would never get into law.</t>
+  </si>
+  <si>
+    <t>The wealthiest of the wealthy don't have an income. They get all of their money from things they own as capital gains.
+You would basically be making this type of crime legal for these people, and punish the people who can't afford it more harshly.
+The only way you would be able to punish someone like this under your system is if penalties scaled off wealth but wealth is an abstraction, and very hard to define quantitatively for the purposes of issuing a fine. People would find a way to skirt any definition of wealth you could devise.</t>
+  </si>
+  <si>
+    <t>If you have a billion dollars, a 99% penalty for any given crime leaves you with 10 million dollars where as someone with a million dollars would be left with only 10 thousand by the same punishment. This is an issue with proportionality, even if you're paying the same percentage of what you have, the amount your left with in real terms is significantly different.
+I don't know how you could set something like that where it's equally punishing to people with orders of magnitude differences in wealth. It's closer to the same punishment than flat fines but direct proportionality doesn't go far enough.</t>
+  </si>
+  <si>
+    <t>A lot of people have pointed how difficulty with executing this plan, which I more or less agree with, but I think that's inherent to trying to penalize everyone equally through money.
+Instead, we should do away with the fines where possible, and replace it with points against your license when driving (most places already have some form of this, but make it more restrictive if needed). I'm not sure what the best way to implement this for non-driving fines is, but driving fines seem to be the most prevalent form of fine.
+Not only is this equal for everyone, but you also remove the incentive for police departments to use tickets as a form of revenue (which leads to ticketing quotas).</t>
+  </si>
+  <si>
+    <t>I know the point is to change your view but I think it’s important to mention that most crimes in the US have a max penalty but no minimum penalty so that a judge can find someone guilty of a crime - say burglary - but give them no monetary penalty if their burglary was related to being destitute. Mandatory minimums are sadly a modern twist on an otherwise fair system. So in effect the law already is built this way but judges are increasingly not remembering why the law is written that way.</t>
+  </si>
+  <si>
+    <t>I've never seen this. Have you actually seen a rich person do this?
+Probably the best approach is ascending fines for every additional offense. First time you do it, it's $50. Next time $100. Next time $200 etc. Going back down if you don't violate for a whole year. That way nobody gets screwed for a rare violation but nobody can afford to do it often.'</t>
+  </si>
+  <si>
+    <t>This kind of conflicts that other the idea that the punishment for a crime should be proportional to the perceived harm to society. Like, should someone convicted of murder when they are older get less time because they have less time to live? There is nothing inherently worse about a billionaire driving 15 mph over the speed limit than there is on anyone else driving 15 mph over the speed limit.
+I think it sets a bad precedent to start setting subjective standards in law, it opens up a lot of ugly doors.</t>
+  </si>
+  <si>
+    <t>The issue is that income is notoriously difficult to define, especially when you get to the large numbers. The richest people in the world have officially relatively low income.</t>
   </si>
 </sst>
 </file>
@@ -690,7 +1292,7 @@
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -734,7 +1336,7 @@
       <c r="A8" s="1">
         <v>1.0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -745,7 +1347,7 @@
       <c r="A9" s="1">
         <v>1.0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -844,7 +1446,7 @@
       <c r="A18" s="1">
         <v>1.0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1193,10 +1795,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1212,6 +1814,1106 @@
       </c>
       <c r="C51" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/changemyview.xlsx
+++ b/changemyview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="487">
   <si>
     <t>changeview</t>
   </si>
@@ -995,6 +995,1825 @@
   <si>
     <t>The issue is that income is notoriously difficult to define, especially when you get to the large numbers. The richest people in the world have officially relatively low income.</t>
   </si>
+  <si>
+    <t>If I create something and decide to sell it your position is that I do not have the authority or ability to say "i do not want to offer this anymore". That seems problematic for people who create things.
+You seem to think that because someone doesn't want to make money selling something, that this means they don't have interests in control of the thing anymore, as if the only thing that matters and that you're "violating" is money-making.
+So...when you pirate in your scenario you're simply NOT supporting the artist - you're doing exactly the opposite of what they said they wanted with their creation.</t>
+  </si>
+  <si>
+    <t>I would argue that rather than being moral (something you should do) or immoral (something you shouldn't do) this action is not in the moral dimension (ie. it is not subject to should vs shouldn't claims).</t>
+  </si>
+  <si>
+    <t>What if the original creator isn’t selling it because they don’t want it to be sold anymore. For example if someone created the dukes of hazard but now believes their creation to be racist and so no longer wishes for it to be be sold. Or if someone created a very violent video game and now feels that selling violent games is against their wishes. In either case pirating said media would be unethical.</t>
+  </si>
+  <si>
+    <t>Are you aware what abandonware is?
+Because of its existence and practice, I believe the majority of people side with your view.
+I find this hard to believe. Sold new directly from a business or buying used? You can find their games still being sold on eBay. The issue here is that Nintendo was able to renew many of their IPs. They did this through selling virtual consoles.
+You can still buy a JPN GBA system and cartridge on eBay.
+EDIT: To everyone pointing out the aspect about the original creator, I purposefully ignored but I also asked above for OP to clarify and they did not. Additionally, with regard to out of region console games, you can backup carts\discs you own, modify them, and then play your own modified backups. That's technically the moral way where you're not obtaining something you don't own; aka stealing.</t>
+  </si>
+  <si>
+    <t>I think there needs to be a clarification here according to the language used.
+There are three scenarios i envisage from your description.
+You have no ability to purchase the product any longer however due to its digital nature you can acquire it from someone who owns it. This product was once for sale to you but you didn’t get it at the time.
+Same as (1) but you never had the ability to buy it. An example of this could be region locked games.
+The rights to the media in question has been bought by someone else so you are no longer supporting the original developer and publisher, an example of this would be the Bethesda acquisition i guess.
+In the case of (1) i think the morality question lies with whether or not you waited for this moment so that you would have an excuse not to buy it. There is also an argument that you could purchase the item second hand that indirectly supports the industry because the person you pay is the type of person that would use their money to buy these things new and so supported the developers originally.
+In the case of (2) I think from a morality standpoint it is fine to pirate the software.
+In the case of (3) I think it is nor morally ok to pirate. The money you would spend is going towards the development or new media products and many of the developers from that game have been brought along with the purchase in many cases. Whilst game franchises do often get ruined when the game makers are bought they don’t always get ruined and if you like the older games more than the new ones what better way to send that message than with your money.</t>
+  </si>
+  <si>
+    <t>I'm with you up until point number 6 and beyond. I think it's also worth noting that both people involved are STILL really young and will inevitably keep evolving. Our current environment encourages young people to seek restorative justice. We don't know that this young man doesn't have other reasons to expose this person, whether they are valid or not. I think the tragedy here is that she's going to go down in history as being made an example of rather than being held accountable. If you are of the right mind, being held accountable feels kinda good. Being made an example does not.
+I don't think that this thing with his father really invalidates his actions is my big contention though. That's between them and my interpretation is that if you calmly confront your white father and school him, that takes a lot of strength, pragmatism, and foresight. If anything that makes me want to know more about his thinking/feelings on why he chose to expose this young woman. I think there is more to the story.</t>
+  </si>
+  <si>
+    <t>At least twice, as the tweet is from June and the university referenced it in their public statement. I don't know the date of the screencap itself, but if it's more recent, that at least partly invalidates your point 1.
+Edit: correction, the NYT article did mention it:
+As the university declined to comment, it's unclear whether they (a) confirmed that Groves wrote it herself and/or uncovered other non-public evidence of inappropriate behavior, (b) didn't investigate the validity of the photo or weren't able to determine its validity to their satisfaction, or (c) confirmed that Groves did not write it but still decided to withdraw her admission based on the video and reaction to it. My guess is (b), given the speed with which the decision was made.
+Of course, if someone did forge the photo to hurt Groves, that's reprehensible, and if it affected the university's decision, that's a shame.
+Edit Subsequent Commentpost: In case anyone is concerned that my post is an attempt to support cancel culture ... no. Just no. This entire situation was a shitshow and everyone involved (Groves, Galligan, UT, pitchfork-wielding Twitterites) sucks a bit.</t>
+  </si>
+  <si>
+    <t>That's an awful lot of excuses for some white girl going around spewing hate.
+There is no doubt in my mind there is no where near this level of rationalizing when a black person does something wrong.
+What youre upset about is that a "child" made a mistake and had her life affected negatively all while glossing over the fact that thousands of men and women of color are judged even harsher on a constant daily basis.
+This same type of benign mistake gets you killed as a person of color.
+And before you start im exaggerating, Tamir Rice would like a word... He literally would want one more fucking word.</t>
+  </si>
+  <si>
+    <t>I don't think one needs to be young, just younger than we have now. Someone with experience is still something we need and political experience and older age tend to go hand in hand. Obama was a good age. Old enough to have experience but young enough to connect with the majority of population. I'd say somewhere around late 40's sounds like a sweet spot in balancing them.
+Not saying younger people can't have experience or that older people can't connect, I just feel like someone around that age would be able to have the best balance.</t>
+  </si>
+  <si>
+    <t>What about other non Dem or Rep candidates? I've read somewhere that there are at least 3 or 4 independent candidates running for the election? I'm not from USA.</t>
+  </si>
+  <si>
+    <t>I’m ok with that if you could also offer your time instead of paying the fine, that way everyone has an equal payment method(their time). Instead of a parking fine being 1000s and 1000s of dollar, they could do an hour of community service etc</t>
+  </si>
+  <si>
+    <t>I hear what you're saying. That being said, we shouldn't be determining a person's punishment based on their wealth. Imagine if we handled prison sentences like that: should someone who is wealthy get a longer sentence just because they're wealthy? Linking fines to wealth makes plenty of sense until you realize that you're then directly linking a crime's punishment to something that has nothing to do with the crime itself.</t>
+  </si>
+  <si>
+    <t>This would not really work because most of the liquid income for the millionaires are pretty small. Their net worths are in form of stock or their company value. This would mostly hurt the middle class.</t>
+  </si>
+  <si>
+    <t>Is it worse when a rich person litters than when a poor person litters? Does a gum wrapper thrown on the ground by Elon Musk do more damage to the environment than one thrown by you or me? Assuming you agree the answer is no, why should Musk face a larger fine than I do?
+You seem to think that everyone getting the same amount of prison time somehow supports your case? How can that be, when your proposal calls for personalizing the fine from person to person? The equivalent to your proposal would be to estimate how much each person "cares" about going to prison, and then giving the people who care less longer sentences.</t>
+  </si>
+  <si>
+    <t>It's pretty clearly not a monopoly by literal definition. But I challenge the statement that it's a monopoly by practical definition as well. Their shadow over culture is indeed vast. but mainly over the film aspect of culture. Culture is music, culture is fashion, culture is sports and the games we play, culture is the stories we tell, culture is the word on the street, culture is heritage, culture is so many things. Disney--despite often very serious attempts, as you cataloged in your OP--has been less effective at becoming the dominant voice outside of their main areas of focus.</t>
+  </si>
+  <si>
+    <t>Disney owns Comcast’s stake in Hulu, not Comcast itself. Comcast actually attempted a hostile takeover of Disney in the early 2000s. If anything, I’m more worried about Comcast trying to buy Disney. Secondly, if I had a choice between Comcast and Disney ruling the world, you better believe I’d choose the Mouse. Lastly, before Disney acquired Fox, there was a pretty big review of the deal by the federal government to ensure Disney wasn’t violating anti-trust laws. As such Disney did not get Fox Sports or Fox News as part of the deal. I appreciate your concern and personal beliefs regarding Disney, but For the time being, Disney is unlikely to get any bigger in the US anytime soon.</t>
+  </si>
+  <si>
+    <t>Well let me first off by right off the bat saying right in your first sentence, you're just dead wrong. Disney does not own Comcast. In fact Disney is in direct competition with Comcast as Comcast is the parent company of NBCUniversal. Other groups you mentioned are only partially owned by Disney. History Channel is a subsidiary of A&amp;E. Etworks which is only half owned by Disney, the other 50% controlling Interest is Hearst Communications.
+Other companies shown in The graph are far outdated it's almost painful and in fact just straight up misleading to the point of being a lie. When Disney made the intent of purchasing 20th Century Fox, they were forced by the US Department of Justice to divest themselves of the Fox Sports Network and it's regional networks because due to their marketshare of the sports broadcasting with ESPN, the Justice Department argued that Disney acquiring FSN would have created a situation where the sports broadcasting sector was monopolised by Disney.
+Disney does not own FSN, and in terms of sports ESPN and it's ABC affiliates are it's only conduit for broadcasting sports. In sports, Disney has far from a monopoly and in fact in recent years has struggled. They face competition from FSN which is owned by Sinclair and Entertainment Studios.
+In terms of sports that you can watch on ESPN or it's affiliates, you're missing a whole lot. The only NFL game that gets to be aired on a Disney owned channel is Monday Night football, so really you miss out on over 90% of all the regular season NFL games if you only have ESPN or ABC and all the post season games are on either NBC, CBS, or Fox.
+NBC has the rights to the Olympics.
+Time Warner has the Lions share of market-share and contracting when it comes to both NBA and NCAA basketball. The NCAA post season is either on CBS or a Turner network. ESPN does have some exclusivity to regular season games for NBA but the majority of post season games are on a Turner network channel.
+Baseball, again it has the ability to air quite a few games but it only gets up to I think 1-2 wild card series? Don't quote me, the super-super-majority of mlb post season is sitting pretty in Fox's nest where they get to all but exclusively air the World Series.
+Honestly the only decent thing that ESPN or it's affiliates have in terms of sports market-share is College Football. Besides Notre Dame's thing with NBC, the vast majority of games that you will be able to watch do fall on being required to have access to ESPN. I've grown up my whole life watching college ball on an ESPN channel and I don't think that will change really.
+So your argument for sports is out the window of the burj khalifa while you have a ton of bricks strapped to your ankles.
+Movies. Now in 2019, they had a majority of box office revenue with 33%. But you seem to confuse market-share with control of the market. The reason why they have the majority of the box office is because honestly they make movies people want to see, which is why you see a studio that only releases a handful of movies compared to it's competitors but they do so well. The majority of that box office revenue is coming from maybe less than 10 films last year, Lion King, Avengers, Captain Marvel, Star Wars.
+Now inherently because film and entertainment is literally at the mercy of how good the work is (audience pleasing), a monopoly is almost impossible to attain because if your movies suck, people will not spend their hard earned dollars to watch a movie in their free time that sucks. Say what you want about movies but the film industry is one of the few merit based industries where the good stuff will flourish and the crappy stuff bombs.
+Also you have to understand they can't have a monopoly inherently because a, they aren't even the biggest movie studio there is, and b, you cant exactly have a monopoly on a non-essential product that is at the whim of the consumers tastes and is a industry that for the most part is reliant on the individual creator to produce the work.
+It would be one thing if the film Get Out was literally constructed by a company. But film isn't like that. Film is created by the individual mind who shops around their project for funding. Steven Soderbergh isn't going to have his legs broken because he decided to potentially have his movie produced and distributed by Time Warner.
+The studio system for the most part is at the mercy of being able to create works of entertainment art that people want to experience and certain studios have certain pros and cons.
+If Disney is able to get the rights to distribute an independent film via one of their subsidiary studios it is because they were able to make the most appealing offer to the creator in the free market system. Because again I'll shop around to have a studio but my script and it's up to them if they want to bug it or not.
+Also because film is in the region of artistic world that cant be bought out by committee, there will always be new art that Disney can't control. They may literally be able to buy every single studio in current existence and I as a creator will be able to circumnavigate that by just self-funding and distributing it myself.
+Disney is realiant on the Creator and consumer to exist. Plain and simple.
+Now how they deal with independent and smaller movie theatres, I would potentially make an argument that they are acting in a monopolistic fashion. But that is entirely a wholly different conversation than the one you have brought forward.
+Television wise. They are not even close to having a monopoly. There is CBS, NBC, and in the cable news Network, they still have to contend with FoX news. There is also competition from time Warner who backs CNN and Tuner channels.
+Basically you are mistaking film box office share and equating it with a monopoly. But that is far from the case. They do well in the film industry because they make films that people want to see. But that is just that, they make films that people want to see.
+But again their market-share and visibility is solely reliant on the fact that they can produce superior art entertainment. They may own Marvel, but if their movies or comics start sucking, I as the consumer am not struggling to find a superior alternative with little to no effort.
+A monopoly inherently describes a relationship between the consumer and producer in which the producer is inevitable in being consumed by the consumer and at no other alternative. I can literally decide to cut for the most part Disney products from my life and I for the most part wouldn't really suffer.
+Monopolies imply a forced relationship. But nowhere am I really forced to deal with Disney unless I want to watch college football.
+You my friend are way overhyping the power of Disney and need to cool your jets because ultimately they really don't have much power over you as a consumer because you literally have all the alternatives that are regularly equal in quality and quantity of consumable good in terms of TV, literature, film, and games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I'm a teacher in Hong Kong. I mostly teach Kindergarten. I also tutor kids to get into exclusive private schools.
+Let me scream from the rooftops 'This is real!' and this is now.
+It's my job to get these kids into a good school. I need to teach them how to be nice. I need to give the selecting school the impression that this child is not a spoilt brat. Many of the schools are religious and I need to help this kid to align with that.
+I have to follow what Disney do and adapt to it. In the case of young girls and princesses I have to show them that -they can do things for themselves and don't need to wait for a prince to live their life. This is just one example. Really, I need to study everything Disney are doing for messages and address anything that's going to cause a problem.
+HOWEVER, This is Hong Kong. The alternative, which is on the way, is to have no Disney at all. That is, assuming the CCP improve their capability to decrypt the subconscious programming.
+This is hard to support. But I think it's hard to support because it's our culture and it's part of who we think we are.
+If I'm to change a view in this reply, I'd start with that cultural seed of ego and go from there. Is that what we really want to do?</t>
+  </si>
+  <si>
+    <t>A monopoly is when you have full control of a certain industry, not a general industry. Disney does not have complete controls of specific industry.
+—Disney is not the only movie studios:
+Universal
+Warner Bros.
+Paramount
+Sony
+—Disney does not own the only theme parks
+Universal Studios
+Six Flags
+Seaworld
+—Disney does not own the only streaming platforms
+Netflix
+Amazon
+—Disney doesn't own the only TV shows/networks
+NBC
+CBS
+Your complaint about Disney assassination opponents has nothing to do with monopolies. Non-monopolies can, and have used illegal tactics to promote their business.
+Your complaint about the Disney ruining the Star Wars franchise has nothing to do with monopolies. That has to do with copyright and trademark law.
+Your general complaint is that Disney sucks. They can suck and not be a monopoly. Disney is not a monopoly.
+EDIT: As a few users have pointed out, I oversimplified the definition of monopoly. A company doesn't need to own 100% of the market, but only dominate it. Microsoft, for example, wasn't the only computer/internet company around, but they abused the power and sabotaged the competition.
+So, is Disney using their position right now to make the other companies worse? Is Disney, for example, doing some shady work to make the DC movies garbage, and thus unable to compete with Marvel?</t>
+  </si>
+  <si>
+    <t>No, this is a false dichotomy from your side thinking it's either black or white.
+You should bear in mind that this happened almost 1800 years before either Marx or Smith, or anyone else wrote their books. Jesus didn't live in a capitalistic or communistic society. He lived in an agrarian society ruled by authoritarian Rome and he himself advocated for a society ruled by an all powerful being, which also is neither capitalistic nor communistic.
+Both the ideas of capitalism and communism are economic theories, they talk about how to economize a limited resource. Heaven is unlimited thus there is no need for economic theories.
+Now back to earth, I think that if anyone tries to apply current theories to a society 2000 years ago it will act as a Rorschach test. They will find focal points to apply their own theories upon the greatest story ever told. You talk about the redistribution of wealth and applies it to communism, but Jesus only talks about individuals, not about governments, so this could also be interpreted as a libertarian move.
+But then we also have the aspect of God, whom is an all powerful authoritarian leader asking you to give up your wealth or you won't be able to enter Heaven but communism is a stateless society, thus whatever Jesus is advocating for ain't communistic.
+So Jesus was neither a capitalist nor a communist.</t>
+  </si>
+  <si>
+    <t>I have issue with the section of the title where you say "despite what most people believe". In my experience most people agree that Jesus' teachings are a long way from capitalism. For example the focus on helping the poor is a long way from the capitalist idea of each person for themself.
+Why do you believe that most people think of Jesus' teachings as supporting capitalism? Maybe this is an American oddity?</t>
+  </si>
+  <si>
+    <t>Is socialism more voluntary. I'm sorry I was born and raised a republican right winger all my life and I'm just getting into the other side of the spectrum not really knowing too much about it but just snippet here and there.</t>
+  </si>
+  <si>
+    <t>Is this true or are you under the impression because of a tiny cohort of twitter warriors?
+When this happens, it's not about being revolutionary. Commercial movies are made to appeal to a group of people and turn a profit. The high and mighty act is a part of that, it's not about "pushing boundaries" or anything of that kind.</t>
+  </si>
+  <si>
+    <t>For there to be good female characters, there have to be female characters first. (And with "female characters" I mean independent ones, not just damsels to be rescued or eye candy for our hero)
+An increase in female characters will always lead to many badly written female characters, because there will always be badly written characters.
+But think about it in the opposite way, have you ever thought about a badly written male character and thought to yourself "So typical, they just put male characters in this because males are the dominant sex in positions of power, this character is bad, but they just had to be male, hadn't they?". I'm pretty sure you didn't. In the other hand, you do think the same about female characters. Why is that? Because you (and many people, thats why its a topic at all) have an inherent bias and just asume a man as a default.
+"Why do they have to be female, if they could just be normal?" seems harsh, but isn't that how this goes? Male bad characters just get to be bad characters, nobody is commenting on their maleness, but if they are female, that is important now? That doesn't make any sense.
+The goal is to normalize female lead characters, because right now, that isn't the case. If it was just as normal to have a female lead than a male lead (Which, given that the human population is ~50% female, should somewhat be the case in an equal society) we wouldn't have this topic. But because it is still so uncommon, directors get praise for breaking this mould. Once it is just as normal to have a female character than a male one, nobody will get points for doing what is considered normal. But until it is normal, it is abnormal. And while it is abnormal, people get praise for stepping outside of the normal into the direction of a desirable goal (Equality).</t>
+  </si>
+  <si>
+    <t>I didn't think I cared about male or female leads until I saw Wonder Woman. As a woman, I loved the movie and her. I think it is amazing to see little girls have a superhero to look up to and dress like. I know there are other examples, but this is the one that immediately comes to mind. That being said, I also love characters like Iron Man and Batman, but for women to have a solid superhero is really cool. I don't think bad female characters should be celebrated just for being female, but the well thought out ones are a big deal to some of us.</t>
+  </si>
+  <si>
+    <t>Is there a name for male characters that some segment of the audience feel are too strong / smart / accomplished? The history of film is surely full of those.
+Is your objection because you feel these characters are too accomplished or because you feel they're too accomplished for women ?
+I think celebrating the presence of strong female characters is perfectly fine when considered against the backdrop of decades of women in film being mostly being accessories / eye candy / secondary characters.</t>
+  </si>
+  <si>
+    <t>Is there a level of wealth inequality that is not bad? Or does all wealth need to be equal for it to be good?
+If we can agree that there is a level of wealth inequality that is not equal but is still “fair”, then how should we determine that level? Is it a dollar amount (nobody can have more than$1 billion)? Is it a relative level (the richest person can have no more than XX% or can’t be more than Y standard deviations from the mean)? Is it based on value to society (those who contribute more will have more wealth)?</t>
+  </si>
+  <si>
+    <t>I bet this will change your view: those graphs are misleading because a huge number of extremely well off privileged people are counted as having zero wealth. Think of it. Everyone who is on track to be a doctor lawyer or engineer, or is a newly minted one of those things gets counted as having zero wealth until like their 30s.
+Our society is much flatter than is represented on those graphics.
+Edit: thanks! I’ll go on. There’s also just the financial lifecycle of an average adult contributing to inequality. Are you in terrible shape if you start off in your adult life with zero wealth and then retire in the top 10%? Is it horrific inequality needing a remedy if you are 20 and have $1000 in the bank with 20k in debt and your grandpa has 800,000 in the bank? What should you have in the bank after a lifetime of work? Well guess where each would be on that “shocking” chart? There’s definitely grotesque levels of wealth at the very top, and very bad poverty at the bottom, but we are a flatter society than is represented in those clickbait vids.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I'll give you the same reply I gave someone else that ask a similar question earlier in the week. In short, I agree that the wealthy need to have their income and spending taxes more. I disagree entirely with Bernie's plan for a wealth tax because it is extremely difficult to implement, enforce, and leads to undesired outcomes.
+I believe this speaks to your point... Yah it's bad but what are we going to do about it? Sanders' main plan is the wealth tax. I don't think that is the right way to go.
+...
+People are aware that Bezos is worth $140 billion and think that he got there from earning income. He didn't. He got there because of the assets he owns appreciated in value, namely Amazon stock. That money isn't income until those stocks pay a dividend (Amazon doesn't) or he sells. When he sells he is realizing his gains. He would compare the price of the stocks when he obtained them when he sold them. The difference is his income.
+An apt comparison would be homeownership. If you buy your house for $300,000 and you get it appraises 10 years later and it's worth $500,000 that doesn't mean you had an additional income of $200,000 over those 10 years. You wouldn't declare that income until you sold (YMMV depending on where you live in the world and your local tax laws).
+This isn't to say Bezos doesn't earn a large income, he does. He gets a salary and he does sell some stocks. But it isn't his income that made him wealthy. So here is the rub. If we can't tax Bezos off his income, because he doesn't have much (compared to his wealth) then how do we tax his wealth?
+Well, first you have to value that wealth. For something like stocks, when do you do that? Do you take the value of the stocks as of December 31st at the market close? Do you use the value of the stocks at the beginning of the year? Do you average the value over the year? I am sure we could probably figure this out.
+What about more esoteric assets, like private businesses, property, buildings, art, etc. Is the government going to hire an army of appraisers? What if someone disagrees with that appraisal? Do they get to appeal? Who do they appeal too? Who is going to find this whole operation?
+Bezos is an easy target as he is clearly over the threshold of the wealth taxes being proposed. What about people right at or near the threshold? How do we know when they have crossed it? Is the government going to have to keep an indexed list of all citizen's assets and liabilities so they can track how much someone is worth to know who to apply the wealth tax too?
+Okay, say we solve that. Now we have a list of people whom the wealth tax applies to and how much they owe. Now it is time to collect. So back to Bezos. He has about $140 billion. Per Sanders's plan, he would essentially be paying an 8% wealth tax (yes, there are marginal rates but let's just get into the neighbourhood of what he would owe). Let's call it $11 billion So, Bezos needs to sell stock to cover this. Well, if he sells a stock he has to pay income tax on that because as he sells he would be realizing his gains. The tax rate on capital gains over half a million is 20%. So, he would actually need to sell about 13 billion to cover the income tax and the wealth tax.
+That has two effects. Firstly, what does that do to Amazon share prices that are surely in most pensions and US index funds? Secondly, what does that do to Bezos's ownership of Amazon as his share of ownership decreases? I believe he owns about 12% of Amazon. So he isn't at risk of losing control, but is it really fair for him to slowly lose the control he does have in a company he founded? What about other wealthy people that would lose control of their companies by selling stock to cover the wealth tax? As Bezos unloads his shares, the price of Amazon stock is also sure to fall. That means Bezos's worth has taken a triple hit; wealth tax, income tax, and now share price decrease.
+And that is the simple case, where the assets are fairly liquid. What about someone with their wealth in a private business? How do we value that business and how does the owner extract the wealth from that business to pay the tax? That is over my head. An accountant would need to weigh in on that.
+What about someone that has a large chunk of their wealth in property, or art? Take the later for example of a more complex case. Say we have an individual who has a large art collection. That art is appraised at millions of dollars. Some of these appraisals are based on what it might fetch at auction or by what the buyer paid. What if this person cannot sell the art because no one will pay the price the owner or appraiser thinks it is worth? What if the art is sentimental and the owner values it higher than the appraisal? How does this person raise the funds to pay their wealth tax?
+I could go on. It's just so complicated, and unnecessary. The wealth tax isn't going to work, and if it does what will society have to do to get it to work? There are easier options. Yang's VAT comes to mind. The downside is that it is regressive, but that is easily fixed by excluding daily essentials like food, and housing. You can't escape a VAT. You spend money in the country you pay the VAT. Additionally, we could be taxing things that cause negative knockdown effects, like carbon, pollution, waste, etc.
+I agree that the wealthy need to be taxed more, I just disagree that a wealth tax is the way to do it.</t>
+  </si>
+  <si>
+    <t>Yes but there are a lot of issues with the wealth tax the Bernie proposes. I actually made a post criticizing bernie's polices, and the wealth tax is one of them. Here's the post.
+Edit: https://taxfoundation.org/wealth-tax/#Intro. This article by the tax foundation explains the issues with the wealth tax pretty well.
+Bernie is a huge proponent of the Wealth Tax, which sense considering his position on wealth inequality. A wealth tax is problematic for two reasons, its complexity and flight. Firstly, how exactly would wealth be quantified? How would assets, such as art, that are not available on the market be measured? How would you measure the wealth of a company that makes no profit due to re-investing the money? There are many questions that Bernie doesn't seem to answer.
+Next, Bernie's wealth tax is extreme. His proposed tax is 2-4% from 32 million to 1 billion, 5% until 2.5 billion, 6% until 5 billion, 7 percent until 10 billion, and 8% on anything over that. Most of the wealthy have their money invested in assets, real estate, and stock, so they will be forced to liquidate their assets in order to pay this tax. This can be extremely concerning for them, and frankly, being an American citizen isn't worth losing the majority of your net worth, so many billionaires will just renounce their citizenship and flee, which in itself is disastrous for the economy.
+The wealth tax also discourages international companies from expanding into America, since the sheer taxes would lead to a net loss in revenue. So all in all, a wealth tax is extremely damaging for the economy, which is why its been repealed in the majority of countries it was instituted in. The countries that do have it, on the other hand, reduced the rate until it is insignificant at &lt;1%.
+The best way to fight wealth inequality is through the Land Value Tax.</t>
+  </si>
+  <si>
+    <t>Interesting post. I would say we need to do wealth distribution to fix the current symptoms. But we also need to design a system that empowers the workers and middle class instead of the upper class. The sentence "1% gained their immense share of the wealth, not by taking it, but with complex policies designed to lower wages and increase the consumer base. Things like mass immigration, mass illegal immigration, global trade deals, outsourcing, anti-union laws, etc." really helped me understand this topic a lot more.</t>
+  </si>
+  <si>
+    <t>Wealth inequality is a natural and normal part of a universe with differing abilities and scarcity.
+The reason why people have different amounts of money are due to the fact that people are not equal. There is a fundamental inequality between people which is normal and natural.
+If we look at things from a societal standpoint, it is the top percentage of individuals in any field who lurch humanity forward. If we could Thanos snap every fast-food worker (who had it as a career not because they were merely young) we would see some effects on society and the economy but overall humanity would not be put backwards by any significant measure. But imagine that you did the same thing for the pioneers of the home computer? The removal of a small amount of significant pioneers would set humanity back significantly. Bill Gates is a billionaire, and rightfully so, the amount of productivity and amount of sheer wealth created by Bill Gates far exceeds the amount of his net worth -- and the same could be said for every other tech billionaire.
+In fact, society would be worse off if Bill Gates took a position at say, a car dealership or became a lawyer and made $300K a year than I would imagine the removal of every fast food worker.
+School debt is a scam
+Then shouldn't it make sense that the state should simply get out of education?
+Medical debt is also a scam.
+Only because of state interference</t>
+  </si>
+  <si>
+    <t>God actually didn't send the book(s) down or even have anything to do with it's compilation. It's not a secret that they were written by actual people. Just wanted to chip in and dispel a common(but mindboggling) misconception.</t>
+  </si>
+  <si>
+    <t>Religion may not have any factual merit but that doesn't make it "manmade." Humans, due to a number of reasons, personify large forces. There's a natural tendency to ascribe agency to that which has none. Think about it this way. You hear a noise from a bush. Either the noise was an agent (a thinking being like a sabertooth or an enemy tribesman) that could be dangerous or it was not an agent (like a branch just falling apart or a pebble falling in it). You can either assume it's an agent or assume it isn't. Ignoring the two correct response, which of the errors is more dangerous? If you assume it to be an agent when it isn't, you waste time running from or investigating something that doesn't matter. If it is an agent but you assumed it wasn't, you could be attacked and killed from behind.
+Of the two errors to make, assuming that a phenomenon has some kind of agency, even when it doesn't, is a behaviour that makes you more likely to survive and pass on that same agency assuming behaviour. This is how religions come to be. The "assume agency" part of our genes is tricked by things like thunder, lightning, fire, the sun, the stars, disease etc and since there is no single explanation for all these unrelated things, humans assume one. God. It's a natural phenomenon, not a human invention. Chimpanzees are observed to bow to thunderstorms proving that they assume agency too. It's a natural animal thing, not an invention.
+Edit; this reply has gotten rather popular and a few people are questioning whether it challenges OP at all. I believe it does. It is my understanding that religion is a natural behaviour that's beneficial for survival that humans, as we are often wont to do, have formalised and codified. While this formalising is the result of direct manipulation by specific humans and therefore artificial, the underlying, vague sense of an agent behind the unexplained predates even human beings and therefore religion as a whole cannot be solely artificial. It's a natural instinct that we've formalised.
+Edit 2; I don't have the time to respond to all the replies I've gotten, sorry. I've been doing my best to reply to every unique rebuttal. If I don't respond to you, odds are, I'm in a conversation with someone who raised the same point you have.
+Edit 3; Thanks to all the kind strangers for all the awards and to all the people who engaged in spirited but polite debate.
+Edit 4; Despite an aesthetic similarity, this is NOT Pascal's Wager. Comments calling it such will henceforth be ignored and implore people who are inclined to call it such to read the threads where I both delineate the two and vehemently crap on Pascal's Wager.</t>
+  </si>
+  <si>
+    <t>You are asking very good questions. I like that. Unfortunately we are not yet evolutionary evolved enough to understand the tremendous intelligence surrounding us. We can’t even imagine an intelligent force by itself unless it has two legs two arms and a head. Hence the misconception of god. Hence the personification of this force. “He” doesn’t want from us this or that. Evolution of consciousness. That is the name of the game. Evolution of consciousness that creates according to laws. Obey the laws or die. That’s it. No mystery. This is valid on personal level same as on collective level. Jesus was simply trying to show and explain humanity the correct way forward. There is no big mystery or religion in that. That was all made by church in order to control people. The knowledge is valid but all that Church nonsense is just made up by man and his ignorance. But it is understandable. Most of the people today don’t understand the hidden meaning of his teaching. They translate it literally or the way it seems fit. You can not comprehend the meaning with the personal ego consciousness. Since it is all about evolution of consciousness the meaning will be slowly revealed to people on this evolution. There will be more and more people that will understand his words. And maybe in 1000 years everyone will understand and there will be no mystery at all. Think about this: imagine you go somehow back in time let say, 2000 years ago into Roman Empire. You have all the knowledge from today. Now, your behavior and knowledge will be so far superior to the local of that time that you will indeed look like a Jesus to them. But what would be the most important thing you would like to leave them? You would like to leave them some kind of instructions how to move humanity forward. The “correct” path and better understanding of reality that is obvious to you but not to them. But how do you explain them all that if they don’t even know what electricity is?? How do you explain to them that killing and violence causes PTSD and than negatively affects the development of the brain? How do you explain them that there is an quantum field and our mind can interact with it? The only way would be in metáforas and parables. For sure they won’t make any sense to them but you will know that as long as they will preserve throu time and they will, even thou blindly following them, humanity will be on the right track. So you tell things like “love your enemy” that to the people of that time sure make no sense at all. But we today slowly starting to understand the reason behind that. Or you say: “it is not me, but my father who speak through me”. Again, people that era might though that was a blasphemy. But today we know that the consciousness is non local and indeed the knowledge is not created by us but we merely, by evolution, are able to became more and more aware of this infinite intelligence. “Father” is the infinite intelligence that is all around us. We are not able to understand it. We don’t have means of direct communication with it yet. “Son” is that intelligence in us. It comes from that same field. It is trying to ever more and more express itself through this organic form. Einstein didn’t “invent” the theory of relativity. The mathematical laws that describe this theory were here since Big Bang. He merely became aware of it. More and more will be discovered for that same reason: evolution of consciousness. Lower level of consciousness simply can not comprehend the reasoning of higher level of consciousness. We can observe this in our kids. Try to explain algebra to a 3 years old. I think Jesus, for some no understandable reason to me, got access to higher consciousness that humans may commonly posses in next few hundred maybe thousand years naturally by evolution. The knowledge from such a evolved mind will certainly not be understood by man of the past. There is many indicators that this is the case but I will leave it here.</t>
+  </si>
+  <si>
+    <t>I'm not even gonna try to touch this but many, many, many people over the years have made arguments for and against the existence of God. Thomas Aquinas' Five Ways are a good place to start for arguments for the existence of God. If you want to read deeper, there are a million rebuttals from atheist philosophers against the Five Ways, and a million rebuttals of those rebuttals from theist philosophers if you feel like going down a rabbit hole. Godel's ontological proof is a literal mathematical proof that aims to prove the existence of God the same way a mathematician would try to prove Pythagorean theorem, but again there are a bunch of criticisms and a bunch of criticisms about those criticisms. Either way you're better off reading people who think about this and do logic for a living than jabronis on reddit</t>
+  </si>
+  <si>
+    <t>I think C.S. Lewis put it correctly (on Jesus) in the framing of your argument. Here's his quote from Mere Christianity.
+"I am trying here to prevent anyone saying the really foolish thing that people often say about Him: I’m ready to accept Jesus as a great moral teacher, but I don’t accept his claim to be God. That is the one thing we must not say. A man who was merely a man and said the sort of things Jesus said would not be a great moral teacher. He would either be a lunatic — on the level with the man who says he is a poached egg — or else he would be the Devil of Hell. You must make your choice. Either this man was, and is, the Son of God, or else a madman or something worse. You can shut him up for a fool, you can spit at him and kill him as a demon or you can fall at his feet and call him Lord and God, but let us not come with any patronizing nonsense about his being a great human teacher. He has not left that open to us. He did not intend to."
+It is factual in the world that Christ was real. It is true that Christ is accepted as a great moral teacher by pretty much everyone. However, it is also true that he continuously claimed to be God in flesh.
+So when you suggest the book is written by mortal men and fictitious, it doesn't apply to Christianity (which is my only experience). The gospel at least is not poetry and metaphor. It is verbatim the story of the birth through death of Jesus. And he was either an insane person who caused hundreds of thousands of people to follow him even past his death - with many claiming his resurrection - or he was the son of God. He wasn't some good teacher.</t>
+  </si>
+  <si>
+    <t>Ex-atheist here.
+So I was raised Christian only in the sense that Jesus and God were about as important as Santa. I remember as a child, once I figured out Santa wasn't real, beginning to question if God was a big lie made up by adults as well. By the time I reached adolescence I realized I had no real reason to believe in God and began identifying as an atheist-I believed in no gods. I pondered the subject greatly and decided that it made much more sense that all religions were wrong rather than one being right, that there was no hard evidence for God, and that everything in the Bible sounded like absolute nonsense-especially in light of my education in the sciences.
+The thing is that I understood that nothing could possibly matter but the answer to the question, "Do I have a purpose?" and I never stopped seeking if there was an answer. Nothing else was worth seeking so I never stopped thinking about that very subject. All the conclusions I had came to, everything I saw pointed to religion being utter nonsense, the religious being the foolish and the uneducated, and that all of life and existence was some random accident that just happened to occur and would be over as soon as it started.
+I never questioned that stance until the day I had a good friend talk to me. He didn't have incredible thought provoking statements, he didn't have nearly any answers, but he had faith. I was mocking this man to the face for the beliefs he held dearest and he was brushing aside my rudeness as if it were leaves in his path. His message was clear-it was that he knew that there was a God and that He was Jesus Christ. He confessed himself that he didn't have all the answers but he knew religious leaders I could talk to that did. He was sure. I laughed off the entire conversation at that moment but I distinctly remember in the moments before I fell asleep that night asking myself, "Could I have been wrong all this time?"
+It was the first time I was no longer 100% sure there was no God and it opened a new chapter in my life. I had spent years finding every single reason to not believe in God but had never taken the time to consider that there might actually be reasons to think that He exists, and I began to see them. The fact that the theme of human existence is the struggle between good and evil point directly towards Him. Without God defining good and evil all of our struggles, all of our dreams, all of our desires, all of our love-all of it was just a bunch of complex chemical reactions. Everything I knew told me that all that we experience and live is real, it's tangible. I was living it. Not only this but I realized that this universe was made so that life-the only thing that could give existence meaning and purpose-could and would occur. Whatever caused this universe to happen made it so that it could and would have purpose. That demands sentience. That demands God.
+These thoughts continued for a month until I realized one day that it was true. It was all true, there was a God and His love for us was so evident. The love of a God that put breath in our lungs, the love of a God that lets the sun shine on our backs, the love of a God that lets us look into our loved one's eyes is the same God that multitudes had claimed to have witnessed to walk this earth in the flesh and lay down His life to save us. Everything became so clear in that moment.
+That night was the most incredible night of my life as I fell on my knees in repentance of my sins, willing to follow Jesus as my Lord. I received the Holy Spirit and was born a new man-a new man who put all of his sin behind him in that moment. I went to all those in my life-all those I had instilled my brand of atheism into-and professed to them that I was wrong and that they needed to repent as well. I had found myself in the midst of a group that was getting more heavily involved in crime to fuel our drug usage. I was laughed to scorn and quickly found myself living my days alone.
+It's been quite a few years since that day and I now find myself in a thriving church community that is living in obedience to Jesus and I couldn't even begin to explain to you the joy and mirth of knowing your Creator, of knowing your purpose, and of knowing your family that you will go to spend eternity with. This world is just the beginning-the beginning that only those who are willing to repent of their sin and obey God will find eternal paradise to be their end. If I hadn't found Jesus I know I would have been found guilty at the judgment of my sin and justly been condemned to an eternal hell for what I had done. My Creator loved me enough to give me a second chance, loved me enough to seek me and show me His love, loved me enough to walk the earth in the flesh and die at the hands of His own creation so that He could pour out His blood as payment for what I had done. He rose from the dead to the witness of hundreds and has given His Spirit to countless thousands so that we could know that this was the truth.</t>
+  </si>
+  <si>
+    <t>Different people need different amounts of food to feel full. Why can't you buy a smaller burger, and people who want a larger one, buy the larger one? There seems to be a market for large burgers, so why shouldn't buying one be an opportunity?
+Sure, people could buy more burgers if they need to, to feel full, but that would ultimately increase the amount of bread, which isn't everyone's favorite part of the burger.</t>
+  </si>
+  <si>
+    <t>And why should the people that do this care about you if they get enough customers that want it that way? It's well designed for people that want huge burgers and don't care about convenience.</t>
+  </si>
+  <si>
+    <t>This issue here is that the line between mocking and admiration is not so clear. If something from a foreign or minority culture is adopted by the majority culture, even if it comes from a place of genuine interest and admiration, that can be very detrimental for minority or colonized cultures that don't have the same access to the 'means of cultural production' as it were. A classic example is orientalism: European interest in the middle east was not necessarily derisive, but artworks and depictions that imagined the orient and everything to do with it as 'exotic' and 'other' still damaged the standing of those cultures in the imagination of Europe and the west. We're still dealing with it today.
+Criticism of cultural appropriation was never meant to create a matrix of races and cultures that defines who is "allowed" to wear or do what. Cultural appropriation is a neutral concept, and some forms of cultural appropriation are probably inevitable and fine. But there are some forms that people think we should be more cautious about.</t>
+  </si>
+  <si>
+    <t>The problem with cultural appropriation is multifold.
+Firstly appropriation does not = appreciation. Notice how you had to add a bunch of caveats "a kimono because I was immersed in Japanese culture" to your situation. That would be an instance of cultural appreciation rather than appropriation. Sure some twitter mobs might come down on you if your a random dude just wearing a kimono with your caption about how the family that adopted you really wants you to wear it for some celebration and since you've grown up in Japan your whole life you really wanted to participate. No one normal will be mad at that, however if your some omega anime weaboo whose only exposure to Japan was through the most mainstream of anime and you wear a kimono and naruto run everywhere screaming individual Japanese words you heard without knowing the meaning people might accuse you of cultural appropriation. That is because you are not respecting the significance that item has to the culture you are using this garb from instead putting it on for the aesthetics basically making a mockery to anyone that is a part of that culture. That's the first issue.
+Secondly and this is where the hairstyle complaints may come from. In the U. S at least different cultures aside from the dominant Christian WASP one are not taken equally as normal. For example if a white guy wore his natural hair whether that is curly or straight or wavy and kept it slightly well kept like went to the barber once every couple months and combed it on big days or something they would be fine at work. However I as a black man and quite a few black women will not be taken as seriously even if I took meticulous care of my hair but it is styles in a certain ay other than short flat top. This problem is especially bad for black women because their natural hair if they have 4c or something no matter what will be seen as "unprofessional" which is why so often you see them wearing wigs or weaves to fake having long straight hair. People have gotten fired over this. So you have a situation where you live in a culture that clearly treats your natural hair worse than other cultures natural hair and the styles it comes in have a bunch of negative stereotypes attached to it. Then comes along someone like the kardashians who put their hair in dreads for a photoshoot or something and the Internet praises them as pulling off a new style and doing something cool with their hair. Despite the fact that the style is not new black people have had dreads for ages and gotten lots of backlash but it gets repackaged and sold as new sometimes in a digestible way for a white audience and they receive praise with no kudos given to the ones that came up with the piece in the first place.
+This is what happened with rock and roll and elvis as well elvis literally heard music made by black artists then went to radio shows and performed them but now it is a white hot young man so the audience is more receptive. This is the main criticism for cultural appropriation if the person shows proper respect and homage to the original sure Go for it b alot of the time people use it to make a mockery, superficially Don something that has quite a significant meaning to the og cultural purely for aesthetics, or passes the cultural creation off as their own without paying proper homage to the original that was derided for similar actions.
+AHHH YESS IT'S TIME FOR MY FIRST TRUE REDDIT EDIT: Thanks everyone for the awards never expected this im doing my best to answer comments im also a bit drunk so apologies if my responses aren't the best in sure there are other people way more versed in cultural appropriation than I am hahhaha a.
+I just want to say and emphasise as with must social faux pa's or whatever. Cultural appropriation is not a RULE where if you're white and do something someone might consider "black" you are an appropriate and must be shamed. Often far more importantly is the context surrounding the emulation rather than the emulation itself. Are people praising one person where another person who's only difference is culture wod be shamed. Does that person that emulated that culture also disrespect that culture at every turn. Etc etc there is alot of gray area. Very difficult question to answer so I understand all the comments I'm doing my best to show my views cheers for the awards!</t>
+  </si>
+  <si>
+    <t>The problem with cultural appropriation is often financial. For instance, in the southwest U.S., you can find thousands of stores, often big name brands like H&amp;M or Forever 21, selling "silver” "native" jewelry. Quotes because it is neither of those things. These are mass produced and undercut native artists who produced handmade, authentic jewelry. Simultaneously, there are serious health crises occuring among native populations in the same area.
+In this instance, it isn't about you wearing a kimono. It's about someone's sacred culture being hijacked as a cheap advertising gimmick for big businesses to profit from, while indigenous artists practicing their traditional craft lose business: their families may lose income which could result in their communities being destabilized, or in looking for other ways to earn income their traditional jewelry-making practices could be abandoned or lost.
+Then the cheap H&amp;M knock-offs discolor after a few years because they were never really made to last and my mom complains that you "shouldn't buy Indian jewelry because it's bad quality." So not only are the livelihoods of indigenous artists damaged, but their reputations, too.</t>
+  </si>
+  <si>
+    <t>Cultural appropriation is simply the adoption of an element or elements of one culture or identity by members of another culture or identity.
+That happens all the time. Of course it's a thing. It just doesn't mean it's necessarily/automatically wrong.</t>
+  </si>
+  <si>
+    <t>The thing is, some culture isn't meant to be shared.
+Some items of cultural significance have that significance precisely because of their exclusivity. Certain icons or clothes or badges etc are worn because "I am a member of culture X and I have achieved Y". It could be a religious rite, or a social contribution or having worked in a certain trade or skill for a certain period of time etc.
+By saying "culture by it's very nature is meant to be shared" you're taking a very specific western model and applying it to every culture. Western consumer model. That's not really how lots of other cultures work, including some western ones. A good western example of this is medals. Armies give those out as symbols of accomplishment of specific kinds. If people just wore them as accessories it would be disrespectful.</t>
+  </si>
+  <si>
+    <t>Reading through the comments it seems pretty clear to me (and I am extremely biased, I admit) that the problem with these distinctly American conversations is American ignorance - both positive and negative.
+Negative meaning a completely disrespectful ignorance to other countries and peoples, positive ignorance meaning a tendency to project heightened significances onto things which have none. The first is a problem for obvious reasons, but I’m much more interested in the second.
+I think it comes from the fact that America is a young nation yet, and since the beginning there’s been an anxiety about its lack of history and the problem of ostensibly trying to magic up a culture out of thin air which can unify all sorts of different people under its banner, then ask them to buy into it as if it were eternal and immutable despite being thrown up just a short while ago.
+Flag worship and all the other crazy rituals are a result of that, but also there’s a strong anxiety among Americans when it comes to culture - they act like they feel dispossessed. And as a result, they’ll lean back on their ancestral cultures despite the tenuous link they often have to them, if any at all.
+That, and a general desire by some to not come across as the bad Americans (the negative ignorants) means that they’ll misinterpret all sorts of elements of foreign culture as sacred. The kimono, for example; it’s just a fancy suit folks, the Japanese don’t care in the slightest who wears it. But an American Japanese person, dispossessed of that link, might feel uncomfortable. Then they’ll try to claim cultural ownership of it, or even if they’re totally fine with it, some of the positive ignorants will fight the battle in their name. If they fight it on the grounds of fashion alone, then they look like petty teenagers, so of course they’ll try to make the kimono seem like a sacred garment loaded with significance.
+And here’s the part I often disagree with strongly when reading even the measured approaches to this issue: cultures don’t have to be appreciated or respected. Honestly, if these things have no real significance, then it’s not blasphemy to mess with them. When reasonable people approach this question they often try to separate appropriation from appreciation, as if by applying the correct amount of religiosity to your engagement with a cultural object you turn from one of the bad guys into one of the good guys. No: by projecting false significances into things, you’re just as bad.
+The rest of the world doesn’t escape blame for this; we’ve been encouraging this nonsense for a while now. American tourists have been a big source of income for a lot of countries (Japan included, as well as my native Scotland) for decades now. So we sell them the fantasy version of our culture which has no bearing on the reality of our everyday lives. In Scotland we’ll even print them out a certificate to prove their Celtic heritage, complete with the name of their ‘clan’.
+So even the ‘good’ Americans, easily mystified by any history which goes back 400 years or more, get an inflated sense of the significance of cultural objects. The kilt, for example: it’s just a fucking skirt - a lovely, comfortable, masculine, patriotic skirt, but a skirt nonetheless.
+Sushi is another perfect example. How many pretentious pricks do you know who treat sushi like a mystic religion? Here in Japan it’s treated with about as much sanctity as a cheeseburger by everyday people. Sure there are some places which do apply all the old Zen hospitality stuff to the craft, but that’s only been going on for a few decades to cater to the rich middle class in the post-war decades. Really, the history of sushi is just about poor people trying to preserve their fish by fermenting it with rice, and runs all the way to cheap conveyor belt sushi slathered with cream cheese, and 7/11 bento boxes of today. It’s just rice and fish, no magic. But again, the industry has sold that image of sushi as something unbelievably refined, so Americans believe there’s something special there which has to be protected - something which has to remain static, as if in a museum.
+What I’ve just described though is, to use a slightly crude term, the white person approach to the idea of cultural appropriation. I say that because the ones fighting these battles are usually overwhelmingly white, sometimes rallied around a small number of the diasporic community who have likewise misinterpreted their “own” culture (I put it in inverted commas because us in the old countries would often deny you any link to our cultures at all when you never grew up here and experienced the reality, rather than the fantasy tourist version). That nonsense is a result of positive ignorance.
+On the other hand, black people’s approach to the question is usually more measured and sensible. That’s because the stakes aren’t some vaguely defined notion of sanctity and ownership, but hard and fast economic and social concerns. Starving black artists can watch their styles slightly tweaked and sold for millions while they die poor. Women who have to fight their natural hair into styles more palatable to white bosses see the white people imitating the styles they’re prohibited from using, despite the fact it would be easier and probably more comfortable. Admittedly those same white people aren’t doing it in the same workplaces, but you can understand the frustration.
+So that’s the important thing to remember about cultural appropriation, I think. There are two sides to it: idiots who weaponise their misunderstanding of foreign cultures for the sake of self-righteousness, and minority groups with genuine grievances about the way they are punished for expressing things which are natural and comfortable to them (it doesn’t even have to be culture - honestly hair is much more physical and fundamental than most of what we call culture) while others are rewarded. The problem at the root there isn’t the use of elements from other cultures, but the suppression of the culture itself while doing so. Native American culture also of course applies.
+So in essence, I think the conversation around cultural appropriation is just a spin-off of the conversation on cultural suppression and racial subjugation. If those problems were fixed, perhaps the part about sharing cultures might seem less of an issue.
+And because of that, we have to realise that these are heavily localised issues. No matter how much Americans want to universalise their world view, we have to politely remind them that the racial and cultural dynamics in their country are unique to that country. Don’t invoke the spirit of Japanese culture in these conversations, because you’ll just look silly. Stick to the borders of America and ask who is being suppressed, why it’s happening, and why they feel cheated. I think separating that side of the conversation from all of the noise is key to making the idea less controversial and more useful.
+To give an example from my own country, after the Jacobite rebellion Scottish culture was heavily suppressed in the UK. Lots of everyday cultural activities, clothing, etc were all banned. Then, when the Victorian era rolled around, suddenly hunting trips in the highlands became all the rage. The English upper classes would travel up to Scotland for a week and enjoy a version of that previously suppressed culture, revived for the sake of a new tourism industry. I can imagine if I were alive at that time, I would have been quite annoyed at the fact. Imagining that feeling the only way I’m able to empathise with the treatment of Native American culture over the past 70 years or so.
+There is a legitimate grievance there: a localised process of suppression and bastardisation (in which the bastardisation wouldn’t really be much of an issues were the suppression not happening - culture is fluid, modular, and not immutable, but the aggressive power dynamic changes everything by making into a bastardisation rather than a natural change) and it is distinct entirely from the campus kid conversations about how only Japanese people can understand the significance of a piece of fish on some rice.</t>
+  </si>
+  <si>
+    <t>from my perspective, cultural appropriation is not wearing something because it looks cool, it's about profiting from something its not yours. for example: I'm mexican. a few months ago, some french clothing brand (i can't quite remember which one, but it was the really really expensive kind of brand, you know, the Louis Vuitton, Gucci kind of brand) started selling some items inspired on the work of indigenous artisans from the south of Mexico. That alone was disrespectful and damaging for the culture, because they were selling those items at extremely high prices (€70 for a sweater, €120 blankets, etcetera), but the cherry on top of the cake was that they never mentioned anything about the artisans they took the designs from, so basically they stole the work from indigenous people who barely subsist whose only way to bring home some money is by doing that, just to profit themselves even more. now, some brands give jobs to traditional artisans to make the items they usually make for them, which is perfectly fine given that this gives them financial stability and, in most countries, social security; however, this brand did not do that. this is what cultural appropriation actually means.
+however, i agree with you on something: it's extremely frustrating to see so much people tell others that they aren't allowed to wear something or do X or Y thing or celebrate X thing just because they don't live in Z country. that's honestly dumb as fuck, because usually the things they complain about are pieces of culture that are meant to be shared. like, as a Mexican, i get very frustrated when I see people on twitter or facebook complaining because someone from the US or Europe likes to wear sugar skull makeup on Dia de Muertos. like i LOVE to see other culture's people's approach to my own culture, especially if they are as respectful and are as interested about it as they usually are. i don't need white people to whiteknight about my culture, and i certainly don't want and don't like it.</t>
+  </si>
+  <si>
+    <t>The postal service is the fallback plan for private mail companies. USPS is absolutely necessary for commerce, and the idea that Trump will successfully destroy the postal service is literally political fear mongering for the purpose of antagonising the target (which is Trump, in this case).
+The problems USPS is facing, as a whole, is the low volume of demand in small towns. Large costal cities (NY, LA) are doing just fine in terms of funding, and these are where most democrats live in the first place. USPS has a net loss due to the existence of these small town post offices not generating enough income.
+The threat USPS faces are closures for small towns and rural districts. Where Trump supporters are. You're being fed misinformation.</t>
+  </si>
+  <si>
+    <t>Moderates tend to perform better than extremists in general elections, in part because they do not energize people to vote *against* them.
+That is simply confirmation bias on your part. You heard somebody say he has dementia and see selectively edited clips on the media you browse and conclude it's obviously true.
+I doubt USPS will be killed, I doubt only a "few" people will vote in person, and the anti-Trump vote is quite enthusiastic.</t>
+  </si>
+  <si>
+    <t>Umm, what? You've... heard Donald Trump attempt to speak, right?
+If there's a debate between the two, it'll be Biden in the early stages of dementia debating Trump who's much further along. Biden was way sharper than Trump to begin with, but it's laughable to think Trump would be able to out-debate Biden even in Biden's current state.
+Trump will end up not having a choice. The Democrats will insert USPS funding and a vote-by-mail mandate into the next stimulus bill, Trump might veto it, and if he does Republicans will be forced to override the veto due to the plain and obvious crisis they can't ignore.
+There's going to be a mountain of bodies for voters to consider by November. No way are they staying home, even if it means risking themselves. They're going to be furious if Trump plays stupid games with relief funding during this. Even Republicans will nail him to his stupid wall.</t>
+  </si>
+  <si>
+    <t>The postal service isnt going away, that would cost half a million jobs which is a death sentence to a president</t>
+  </si>
+  <si>
+    <t>Fair points, but the youth vote is unlikely to be that important (as people have said, unreliable)
+1.. This elections likely to swing on PA, Ohio, Wisconsin, Michigan. Not places Dems have ever relied on youth or progressives to win (and I think most will vote for him). These states swing on older working class white vote (union &amp; ex union), suburban women (for instance buck county, pa, which gets famous every 4 years when it swings an election), and African America turnout (Milauwakee, Cleaveland, etc). It’s the reason we had Bill Clinton and Jimmy Carter. Aka It’s the reason every winning democrat since Kennedy, save President Obama (who I think we can acknowledge was exceptional) has been cut from the same clothe that joe Biden is cut from. Practical, relatively moderate, their progressive issue is racial politics, and with a semi working class identity.
+This election swings on Joe Bidens best performing demographics. Suburban women, old white working class union members, &amp; African Americans. I can say with confidence Joe Biden has these demographics trust. My evidence? They just won him the Primary.
+This point all begs the question, well why didn’t HRC win if these people like moderates? I don’t think that had to do with policy. I’m not sure this does either. But that’s another conversation.
+2. Cognitive decline. I wonder how much of it is him just being a gaffe machine and people freaking out bc they are looking for any chance to. I think if you watch old Biden clips, those Ryan debates are exceptional. This is the same guy who called then Sen Obama articulate in a debate. I don’t worry though because President Trump, frequently, makes way less sense or seems equally confused. Just angrier. Aka I don’t think any voter, who otherwise would vote for Biden, will now vote for trump or visa versa because of this. It’s just a reason people will cite bc it applies to them both.
+3. He’s got the Obama campaign infrastructure behind him. I’m not President Obama’s biggest fan, but his campaign was about as well run as it gets. They had the best turn out the vote op we’ve ever seen (remember that means getting both old and new voters in, not just new ones). They had cutting edge voter targeting. Etc. that’s who he’s got behind him, and they’re gonna deploy the band across the region to get it going. In case it isn’t clear, HRC had many of her own people. Biden’s using all Obama folk.
+4. Trump won about 98% of gop voters last time round. He did that and barely won the states he has to again. I think that goes down. Even 2 or 3 points, and he’s toast.
+As some have said, 2nd termers always seem some attrition. I think covid will deter someone GOPers from supporting him, particularly in light of the bungeled stock mkt situation. I think a handful are more likely to just support Biden. All added up, I think that attrition will be sufficient.
+5. here’s the voter model. Take the HRC coalition as a baseline. Boost African American turn out. Keep female support level, at least in these key midwestern states (female VP plus trump is a pig). Cutdown on trumps lead with the white working class, especially old people and ex union members (the people who Biden did great with in Michigan primary). That’s all without point 4 even. I think this could happen without 4, tho I do believe it.
+TLDR.
+Just like Bill Clinton and Jimmy Carter.
+The election is likely to swing on Biden’s best performing demographics (old white working class, suburban women, African Americans), in states where he’s popular. Trumps equally crazy. Obama election infrastructure deployed to the Midwest. Time plus covid will mean some GOP attrition.</t>
+  </si>
+  <si>
+    <t>While I agree with you in most of this I have one difference. What about drugs that make a person violent. Or LSD or PCP which cause hallucinations which may make people violent? I don’t think those drugs should be legal.
+Edit: to clarify. I did some research, I was wrong about the LSD and PCP thing. I’ll make my point more plain. If there is a drug that takes away your ability to reason yourself and makes you violent, that should be illegal.</t>
+  </si>
+  <si>
+    <t>Some choices create consequences or heighten risks for other people. A simple example is drinking and driving. Drinking and driving is of course a choice. Do you believe it's one people have a right to be free to make?
+I'm generally with you that the war on drugs has been a failure and that laws as we've been using them have not been a humane or effective measure to deal with the health crisis of drug addiction and abuse. We're on the same page there.
+But I don't think we necessarily want to throw out all legal tools for dealing with this crisis. Yeah, a lot more resources need to be pumped into rehab, and systems that make addicts feel they're in legal danger if they try to get help need to be reworked drastically. But legal frameworks are a tool in our belt.
+To give an extreme example, I don't think it should ever be legal to sell meth to a twelve year old. Wouldn't you agree?</t>
+  </si>
+  <si>
+    <t>I disagree with you only on the premise that drug dealers or anyone who is selling drugs illegally should be condemned legally.
+I only say this because I think if we just let anyone sell drugs then they can call poison drugs and sell that too. The selling and distribution of anything that is super harmful must be properly regulated.
+I think more research has to be done too. I don’t think it’s helpful to legalize all drugs. There has to be a line drawn.
+On the consumption front you’re correct.</t>
+  </si>
+  <si>
+    <t>Drugs are a physical and mental problem to individual health. I agree with that. But I disagree that the problems associated stop at individual choice.
+Hard drugs like crack, meth, heroin and other opiates have massive social costs like increases in crime, violence, prostitution, homelessness, etc. Think about children who are raised under addict parents, they are indirectly the victims of drugs in multiple ways. They didn't make a choice to breathe in meth fumes or find their overdosed parent dead on the living room floor.
+Now with that said, I think we have learned that the skull-cracking war on drugs also doesn't seem to be "fixing" the problem.
+The best course of action is probably something like : reducing or eliminating sentencing for small-time drug addicts in favor of treatment facilities or programs. Legalizing drugs that are known to not cause major social problems and would be safer if they were taken out of the black market (like mushrooms or cannabis) and focusing any policing on busting meth labs and drug logistics networks.</t>
+  </si>
+  <si>
+    <t>Just ask a drug addict's family and see if they agree with you on this</t>
+  </si>
+  <si>
+    <t>Absolutely agree.
+However - a charge of burglary/assault etc should not carry a lesser sentence just because the offender is a drug addict and needed money</t>
+  </si>
+  <si>
+    <t>Those social costs that you bring up are a result of the system that is around the substance, not a result of the chemical. When you make something strictly prohibited you only give users the option to buy unregulated drugs at any quantity you’d like. Maybe there is a medicinal or therapeutic benefit to a low dose of some of those drugs that you mentioned in your reply. Meth, as you may know, on a chemical level is very similar to amphetamines like adderall and we as a society are ok with doctors prescribing these potent chemicals to our kids. The point of legalization of all drugs is to improve the relationship between these substances and the individuals who chose to take them. Obviously we know of drugs that are highly addictive, but in my opinion the mistreatment of the chemical is more to blame for the social side effects that they are causing today.</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>I agree with you, but, from my angle, a lot of the reasoning behind this is our utter reliance on cars, as a society. If someone is dangerous behind the wheel, they shouldn't be driving, even allowing for the fact that most people really need to use cars to get places.
+But that's a lot harder to remember, in the moment when you're enforcing a law that says that this person shouldn't drive.
+This is anecdotal and something I heard from some internet commenter, so, y'know, grain of salt or twelve, but they described a case of someone at the DMV giving a bunch more shots at the eye test to someone who was pretty obviously bad at it. It's clear, in an intellectual sense, that that person shouldn't be driving, but that's harder to enforce if you know that people are often SOL without the ability to drive. Harder (and less popular) to pass legislation, as well.
+Basically, I see this as a systematic thing, and while we should be trying your angle, it's going to be way harder than it needs to be to both legislate and enforce until we start improving our non-car transit infrastructure, to the point that people don't need to drive.</t>
+  </si>
+  <si>
+    <t>Drivers in Colorado must renew their Drivers License every five years after age 65. You have to take the vision test in person, and if you have any moving violations they can restrict your license to daytime only, limited hours, or not able to use the Interstate.
+Also 70 year old drivers are statistically safer than 25 year old drivers.</t>
+  </si>
+  <si>
+    <t>You aren’t set for life because you have a license. Laws change, police enforce the laws, and points on your record lead to a reckoning. People who never have points or accidents might not be great drivers but the system accounts for people flagrantly abusing their license.</t>
+  </si>
+  <si>
+    <t>I agree.
+But practically speaking, we've deliberately designed our cities and towns to be actively hostile to non-drivers.
+In most places in America, if you can't drive then you can't get around. We've got shit for public transit, bike infrastructure is shit, and grocery stores and other basic necessities are outside of walking distance.
+Especially for elderly people, if you lose your license either you have a personal chauffer, you never leave home, you have to move, or you continue to drive, illegally.
+And that's super shitty.
+Practically speaking, we've designed our spaces around the assumption that driving is a right, not a privilege that we're going to someday lose. Which is the main reason we don't retest elderly people.
+If we want to change that, we really need to redesign our spaces to be less actively hostile to non drivers. We need to make more medium density housing in walkable areas. We need better public transit. We need to make it so non- drivers aren't second class citizens.</t>
+  </si>
+  <si>
+    <t>First, since you did not respond to the issue of customer-facing roles, do you agree that there are practical functions for dress codes beyond distinguishing classes (in those instances, at least?)
+What would you say specifically for non customer facing roles? Simply dress codes exist? Why should we not challenge things we deem to be normal?
+I would say that, yes, my point B still applies. Dress codes exist partially because they are self-perpetuating and because people value "can follow societal norms, such as dress codes" in employees, rightly or wrongly.
+I already said, explicitly, that I think a lot of dress codes are too restrictive. I have no problem with challenging the idea of dress codes. My point is simply that your analysis is too simplistic. Saying that dress codes solely exist for or because of explicit classism fails to acknowledge the complexity and subtlety of our social structures, the same way it would be too simplistic to say that all racism in the US exists because of racists acting in explicitly racist ways. You can challenge the classism of dress codes while understanding that some people enforce them or prefer them not because they explicitly decided they want to distinguish themselves from poor people, but because they think it serves a useful management function the same way any other grooming standard does.</t>
+  </si>
+  <si>
+    <t>Same goes for internal facing roles. Team members see how you dress, mangers that can influence a promotion see you, not to mention leadership visits to the office, candidates interviewing for jobs, random visitors, etc. The company has an objective to maintain an acceptable image, which becomes part of their brand. The individual has an objective to maintain an exceptional image to grow and succeed in their career.
+People don’t realize that everyone has a brand for themselves. Every interaction you have with others builds towards your brand. I like to think of it like points. Every positive interaction or exposure to others is +1 point. Every negative interaction or exposure to others is -1 point. (Hey, life is just like Reddit karma!)
+Why wouldn’t you try your best to build your personal brand, especially if habits like dressing nice and being kind are the easiest yet most impactful way to build your brand? What characteristics would you prefer to define your individual brand? Some people can define their brand with results they’ve given. Some people define their brand with their skills. Personally, I define my brand by the people I’ve helped to grow or succeed in some way. Whatever it is, it’s your brand and if you want to go against the grain for things like putting a little effort into how you dress, just make sure you can easily make up for those lost points so your brand leaves others with a positive impression.</t>
+  </si>
+  <si>
+    <t>I went to private school with dress codes most of my life. And for me, wearing certain things for school/work gets me in the mindset to work. I think dress code has more benefits in schooling. Ex: kids aren’t showing off and you can’t determine a students economic class based on clothing. However, I have worked at places where the smartest people just wear a t shirt and jeans and don’t shave and other guys wear suits. I think if you’re doing sales, then it pays off to look nice, but if you’re job is based on performance or a service, it’s not so much important as your actually performance</t>
+  </si>
+  <si>
+    <t>I'm going to come at this from a different angle, because though I think many of the other answers are correct but - I don't think they really answer the fundamental reason of the why - which is underneath all the other things being discussed.
+I think it's because one of the defining traits of humans specifically and mammals and even down to butterflies mating to a minor degree - is that we have evolved the ability to contemplate different potential futures in our minds based on what's in front of us.
+Our amygdala will react at times before our conscious mind is even aware that you're stepping over a stick that you're amygdala thinks might be a snake - because most of the people who didn't jerk away got bit by more snakes and therefore had less descendants even if they did look silly and get mocked - evolutionarily speaking that doesn't affect their ability to reproduce as much as being dead or sick does from a snake bite.
+This is why people get frustrated with judgmental people, because they're having to deal with someone who's making a snap judgment instead of a well considered position - for most people having considered positions is something you have to put in work to develop.
+The people who make snap judgments that noises in the high grass are a bad omen and bolt tend to survive and reproduce more than the people whose curiosity leads them straight into a tiger.
+So all the people that are afraid of spiders, all the people who are afraid of the dark, etc - are predicting bad things are going to happen and then these situations should be avoided even if there's no logical reason in the modern world for that to be the case, it's still baked into our operating system.
+So when you look up and you see someone in an office space, the way that they are dressed kicks off a series of assumptions in your mind about who this is and what they do - which is certainly a big part about uniforms but is also to a lesser degree indicative of whether or not this is the right person you are looking for in a given situation.
+Sometimes specific rules are put in place not because there is a problem with you, but there is a problem with how other people are going to react to your bare shoulders, or people with a feet fetish constantly gawking at exposed toes.
+Where I work everyone makes over 100k, at certain meetings suits are worn, plenty of us makeover 200k - and we still had a guy that came in wearing a kilt and Crocs - when I first saw him I was like what's going on here and what does this guy do?
+Come to find out he's just a quirky engineer.
+People do all this stuff in the modern world which is completely disconnected from the initial conditions that gave rise to the behavior.
+Just like a peacock's feathers, the signals that we are putting out are being interpreted by everyone constantly - like an assassin pretending to be on a phone call and then capping you in the head as soon as you walk by or a mobster who walks up to you and smiles and shakes your hand and then refuses to let go so his friend has an easy shot with no risk to himself.
+We could argue whether or not whether this is morally correct in the modern day or if it's more problematic - but this is exactly why people cross the street when they see people with certain clothing choices on the other side of the street - your brain is sending the alarm bells because of what's being predicted based on past experience.</t>
+  </si>
+  <si>
+    <t>To be clear, I think that a lot of dress codes are probably too restrictive. However, I think that this:
+is a bit too narrowminded. I can think of a few reasons to have a corporate dress code besides explicitly attempting to hold up sexism and classism.
+Most simply, in external-facing roles you want people to look professional. The guy wearing a suit that says "I am professional" will be better at selling the same service to another company than the guy showing up in a company T-shirt and shorts, even if they're exactly as successful. You could still argue this is upholding classism, but that isn't the reason it's being done; the reason it's being done is because people respect other people dressed well.
+In a more complicated sense, dress codes exist because dress codes exist. Tons of things we do, say, and wear communicate things about our beliefs and lifestyle, even if they only do so circularly. There is nothing inherent about dress codes that makes you a better employee for wearing those clothes, but the fact you're willing to uphold them will signal, to some people, that you're willing to put in the work to be professional and that it will translate to other aspects of employment. Even if you don't think this is true, it is still a reason somebody who does think it is true would use to enforce a dress code.</t>
+  </si>
+  <si>
+    <t>One thing that I didn't see mentioned here, but I think is worth mentioning, is that there is also an emotional component to dress codes as well.
+Wearing "businesswear" tends to change how most people react to any given situation.
+You will notice thus particularly if you move from a business with no dress code or a relaxed one to a more strict one; when you get dressed in the morning, for many anyway, it becomes a transition to a more businesslike attitude, which will endure for the rest of the day, until you come home and remove your "monkey suit" and relax.
+This is a point in addition to the others that other commenters have made.</t>
+  </si>
+  <si>
+    <t>To some extent the reason is because it's kind of hard to show up presentably every single day. It means to a greater or lesser extent that you're the kind of person who can take care of their body, knows how to be hygeinic, knows what is expected of them by others, is able and willing to put effort into their appearance, in short, you can see it as a visual signal that a person has their shit together. It's obviously not a perfect correlation, but I think that's why it's seen as important.</t>
+  </si>
+  <si>
+    <t>This was an Exhibition match, it was not counted on their records. If it was, I might've agreed with you. So I don't what legacy you're talking about. Also Ali and others in the past fought people equally outrageous as Exhibition matches. Their legacies haven't been tarnished at all and have instead either been more or less forgotten(their exhibitions) or have made them far more interesting.</t>
+  </si>
+  <si>
+    <t>In 2012, Prince Harry beat Usain Bolt in the 100m dash. He only had the opportunity to race Bolt because he's a celebrity/royalty. He won because he had a fast start. It doesn't diminish either of their legacies because the whole thing was clearly just for fun. This "fight" between Mayweather and Paul was just a goof. It made a lot of money though sheer hype, but it obviously wasn't a real boxing match. Normally this type of thing is just a goof for charity, but in this case, both fighters kept the money. That part is tacky, but the rest of it is no big deal.</t>
+  </si>
+  <si>
+    <t>Well, where do we begin?
+It wasn't a sanctioned fight. He could have brought a llama into the ring and hump Logan Paul's leg. Logan Paul could have skydived in with a chainsaw.
+They are completely different weight classes. Mayweather would never fight in the 185lb weight class. Logan Paul wouldn't last 4 rounds in the 185lb weight class. He is fighting a 150lb person in an exhibition.
+Floyd Mayweather is a celebrity. Part of his job is to be accessible for exhibitions and other non-contract events. He is an autonomous being who is capable of making his own decisions. This is a decision he made.
+Any celebrity is allowed to fight any other celebrity. There is nothing preventing ANY two people (celebrity or not) from boxing each other in a legally-governed match
+Floyd Mayweather is also an entitled asshole. He, Conor McGregor, and Logan Paul should have a 3-way orgy of their entitlement. They can do coke off of each other's dicks for all we care.</t>
+  </si>
+  <si>
+    <t>It's funny you think Floyd shouldn't assoiciate with an "online asshole" like Logan Paul when, outside the ring, he's well known for beating the shit out of various women, and has even done time for it.
+Not doubting Logan Paul is an obnoxious person but Mayweather is a serious piece of shit.</t>
+  </si>
+  <si>
+    <t>I don't think it tarnishes his legacy as much as you think it does. It's easy to say these things in the immediate aftermath, but the reality is that his legacy will be somewhat untouched 10 years from now. It's the same way people talk about basketball players at the end of their careers. It may seem like a few bad years at the age of 38-40 will ruin their legacy, but the reality is that people tend to treat these things as blips on the radar once there's some separation from it.
+I'd also argue that this is the logical endpoint for a sport that bases fighter salary around a mix of marketability and skill. At the end of the day, a boxer's salary is somewhat divorced from their true skill level. I suppose pride is part of the equation, but it would be hard for me to turn down the ability to make an easy 100 million dollars too.</t>
+  </si>
+  <si>
+    <t>I'm not gonna argue on Mayweather's legacy as I'm not someone who follows boxing much.
+But I seriously disagree it minimized the pro boxing scene as a whole. There are thousands of people who have never watched professional boxing a day in their life who purchased a PPV because a social media guy was fighting a real boxer. They then got exposed to real boxing through the other matches on the card. They saw plenty of real, legitimate boxing that night. Someone like Jack the Ripper, who went right before the main event, just got more exposure than he'd ever get otherwise.
+Also, Mayweather fought extremely defensively, as he has the past 25+ fights. He has had few knockouts in his last 20, most of them go to decisions. People were disappointed that the boxing fight didn't end in a knockout, but those people are (like me) not big boxing fans and think boxing should be all about knockouts. If the sport has evolved in such a way that even an all-time great can't put down an amateur social media villain with his fists, the sport was "broken" before the fight was ever booked.</t>
+  </si>
+  <si>
+    <t>I thought so too and bought ecological and local meat for years - until I looked up differences between ecological meat farms and regular meat farms and found out that "ethically raised" chickens live 10 days longer than their less fortunate brethren. They have grass, they have space, they have sunlight, but even then, it's lights out after just one single month of living. One month for every chicken. Just ten days more than others, despite being the best available "ethical option". If you don't think that is absolutely horrible for an animal that can live for several years, then I don't think anything can change your view.</t>
+  </si>
+  <si>
+    <t>As a vegan I will put forward the ideas that keep me here. I believe that it is wrong to kill sentient beings if it is not necessary. I think there are a lot of grey areas around medicine, but for food purposes any person that can get the nutrients they need through not eating meat would be more ethical to do so. That doesn't mean someone is bad for eating meat, just that a more ethical option exists.
+There is also the argument that with the current demand for meat there is no way we could produce it and actually provide care for the animals. Smaller animals generally suffer worse, but as an example we eat about 500 million chickens in Australia (where I am) each year. In order to produce this many the majority are raised in large buildings with tens of thousands of other chickens. If some die this is seen as a cost of doing business and there is no way to give individual care to that many chickens. If we wanted to provide the best environment then we would have to either cut down our chicken consumption significantly or
+Basically, if we wanted to provide a supply chain of meat where animals didn't suffer everyone would have to give up like 90% of their meat consumption. Until then any consumption of animals will cause some level of suffering that could be avoided.</t>
+  </si>
+  <si>
+    <t>So I haven't heard a lot of arguments that all meat eating is innately wrong, though I'll admit I'm not around a lot of vegans. What I tend to hear is that animals slaughtered for meat are typically raised in inhumane conditions and that there is not really a way to avoid supporting inhumane animal treatment outside of eating only what you hunt yourself. I'll leave it to others more informed to argue for/against our current treatment of animals we farm for meat, but what do you think about this line of argument? If one could convince you that animal farming as it exists in the US is inhumane, would that change your view?</t>
+  </si>
+  <si>
+    <t>Native Americans would thank the bison for it's sacrifice and would honor it's life by using every possible piece of the animal. That, too me, is the only right way to go about it. Also, I'm 1000% down to eat plant based if the flavor and texture is good.</t>
+  </si>
+  <si>
+    <t>So, in other words, if you suspect a person might be transgender, you're going to ask them their pronouns, regardless of how they're presenting? Is that not just singling out transgender people?
+I run into this issue all the time when I'm with my friends who are nonbinary. I meet a leftist progressive who clocks me, and asks specifically me for my pronouns despite me outwardly presenting masculine, but then they fail to ask the same of my nonbinary friends who don't 'look' trans to them but instead look more like gender nonconforming cis people. I feel singled out, my friends get misgendered, the person who asked is now super uncomfortable, no one wins.
+I'm in the 'ask everyone or ask no one' camp, myself. When people argue for everyone asking their pronouns it's because if you're only asking people who look a certain way, we're basically just back to asking trans people 'are you a man or are you a woman' but in a slightly more politically correct way.</t>
+  </si>
+  <si>
+    <t>This seems kind of strawman-y. It's not unheard of for people, including cis folks, to state their own pronouns when introducing themselves. And it's increasingly common in group introductions especially in certain circles to go around the group stating your name and pronouns. This is all just to normalize it so that no one has to ask each other's pronouns.
+It seems unusual that people would be that offended by using the wrong pronoun when you first meet if they hadn't already told you. But they might correct you and tell you what they'd prefer to be called. They might even be annoyed, especially if it's the fourth time it's happened that day. But that's not usually the same as "offended". Now, if you then react badly to being corrected, or continue to use the wrong pronouns after being corrected, especially without apologizing, then the situation might escalate.
+Curious if you've had a different experience though.</t>
+  </si>
+  <si>
+    <t>asking someone’s pronouns is just another way to be courteous. it shows that you care about referring to them in the way that makes them most comfortable.</t>
+  </si>
+  <si>
+    <t>Personally, no one has ever gotten mad at my for accidently using the wrong pro-nouns. When the person corrects me, I oblige and use the correct pro-noun. No one freaks out, no one is offended. It's really when someone refuses to oblige because they don't feel it's their responsibility to be kind to a complete stranger.
+No one would freak out if the wrong pro-noun is genuinely accidently used. It's when the incorrect pro-noun is used on purpose to troll the person.</t>
+  </si>
+  <si>
+    <t>You don't need to ask my pronouns in every situation. That would be a ridiculous hassle for me, not to mention you. But who really does that? No one. Not even the people you think you are opposing here. This is easily proven by taken a quick glance at some random reddit comments: how many do you find that start, "OP -- may I call you OP? -- and what are your pronouns if I may ask?" You won't find that in "woke" subreddits. You won't find it in left subreddits. People just don't do it. Calling the person "OP" works just fine.
+Similarly, "woke" people don't ask their cashier at Walmart for pronouns before checking out. There are plenty of situations in which nobody asks because it's not important. (If you think they do, either you've run into the phenomenon of mascotization, or you've been bamboozled by satire.)
+But that leaves... times when it is important. You've already admitted it can be, so now we're just negotiating.
+So back to the reddit example. Do you notice a pattern how we don't tend to say, "OP said blah, and then he said this other thing?" We don't assume OP's gender. If we refer to gender at all, it tends to be "they." (As long as nobody is thinking about the gender issue, "they" seems perfectly appropriate to everyone.) Even though we aren't even trying to get to know OP -- and we might even be calling OP a jerk -- we manage to exhibit this social skill.
+So why would you make the assumption in real life? You don't know. Saying to yourself, "Well, I see a bulge, so..." is adding presumptions that simply aren't needed. That doesn't mean you need to ask. It just means you shouldn't assume. If it comes up, then ask. If it isn't important, then don't force it to come up.</t>
+  </si>
+  <si>
+    <t>Fun fact on this topic - Chinese (Mandarin) doesn't have spoken pronouns. everyone is an it. Man/Woman is written differently but pronounced the same. I worked at an elder care facility and one resident with dementia and poor/ish english skills would always mix everyone's pronouns all the time. She would also apply pronouns to objects randomly calling busses she and the table a he.</t>
+  </si>
+  <si>
+    <t>Actively killing and murdering are not the same. There are many situations in which you can cause someone’s life to end that isn’t murder.
+So you would charge a woman with murder if the 37 year old needs her body and she won’t allow it to continue? I doubt it.
+Would you also charger her with murder if he wasn’t hers son and she won’t allow him to use her body?
+Do you not have that right? Do I have the right to use your body to keep myself alive?
+I don’t think you or really almost anyone would say that I do.</t>
+  </si>
+  <si>
+    <t>Woman says: "My womb is my property, no one has a right to be inside of me without my permission." So the dude who was hanging out in the woman's womb gets kicked out, then soon perishes exposed to the elements.
+I would say that's fine, even if unfortunate. It's a protection of the woman's rights.
+Your position is that since the fetus is already in there anyways, telling the woman to passively accept it and chill, is moral, but taking action at the dude's expense is immoral.
+My counter-analogy was that this would be just like saying that once a forced organ donation system is in place, then it is more moral to tell all of it's victims to chill, than to take action that would kill the system's beneficiaries.
+My point is that a forced organ donation system is bad in and of itself, not just because actively creating one is evil, but because letting one go on, is a continued violation of people's rights.</t>
+  </si>
+  <si>
+    <t>Every single pregnancy (that doesn't spontaneously miscarry) ends in mayhem and torture, and even a non-trivial risk of death, for the mother.
+Abortion is merely proactive self-defense against that inevitable attack on her body. No lesser force than lethal force can accomplish that self-defense, so of course it's "her choice" because it's "her body".
+Naturally, she has the choice to go through with that mayhem if she wishes, and perhaps we could consider that morally laudable... but the question of whether the fetus is a human being or not is basically irrelevant to whether it's "murder" or not... it's not. It's self-defense.</t>
+  </si>
+  <si>
+    <t>Staying pregnant is taking action - both consciously, to maintain the mother's and the fetus's health during pregnancy, and more fundamentally, the mother's body is constantly supporting the fetus.
+The mother can stop this for the same reason she can take action to prevent someone from stealing food from her, even if it means they'll starve, or to kick someone out of her home even if they have nowhere else to go - unless she accepted legal custody over that person.</t>
+  </si>
+  <si>
+    <t>Everyone uses carefully chosen words to describe what they support, so it can be tricky to understand what they actually MEAN. To do that, you have to look past what they say and focus on what they do OUTSIDE abortion.
+What does it mean to be "pro-life"?
+Preventing fetuses from being aborted?
+If this was your goal, you'd be anti-abortion, but you'd also be vigorously pro-contraception and pro-sex education. Pro-lifers are generally not supportive of either.
+Promoting the well-being of children without sufficient advocates?
+If this was your goal, you'd be anti-abortion, but you'd also be pro-SNAP, pro-early childhood education, be pro-Medicaid, etc. Pro-lifers are generally not supportive of these programs.
+Making sure that people face the consequences of their decisions regarding sex.
+If this was your goal, you'd be anti-abortion, but also pro-Judeo-Christian values regarding sex.
+(Ding ding ding!)
+Obviously everyone is a little different, and there's a range of support for various items among different groups of pro-lifers. But generally pro-lifers do not support free contraception, and comprehensive sex education, and social supports targeted at poor parents, etc, certainly not with anywhere near the vigor that they are against abortion. (And in very many cases they are adamantly opposed to those programs.)
+You have to read between the lines a bit.
+Edit: To address your view, "my body my choice" is missing the point only because "the point" is specifically cast to conceal the ACTUAL point.</t>
+  </si>
+  <si>
+    <t>If a fetus is to be legally considered a human being for the purposes of charging a woman who aborts with murder, then we have to consider some other questions:
+Should every pregnant woman be jailed for false imprisonment? The definition of false imprisonment is “when a person is restricted in their personal movement within any area without justification or consent,” which restricting the movement of the fetus to inside the woman’s womb would qualify, as a being without capacity for higher cognitive function is incapable of giving consent to being imprisoned.
+What country is the fetus a citizen of? You’re not an American citizen unless you were born here or been through the process of naturalization. So should we treat these fetuses like illegal immigrants and deport them? To where? We would have to deport the mother as well.
+Would pregnant women in jail or prison have to be released, no matter their offense? It’s completely illegal and immoral to imprison an innocent person for the crimes of another. Every pregnant woman in the country would become completely immune to imprisonment for any crime, even murder.
+If a fetus is a person, how do we start issuing paperwork for them? They couldn’t be give a birth certificate because they haven’t been born, but there would have to be some kind of “fetus certificate”—or if you’re insisting life begins when sperm meets egg, a “zygote certificate” or “blastocyst certificate”—that the government would have to issue in order to make sure every single tiny clump of tissue in any womb in the country is given the same rights and protections as you or I. Wouldn’t this put an undue burden on government offices, having to issue hundreds of millions of extra instances of paperwork? What name would be on the certificate? Would you have to name every zygote months and months before it’s born? Do they get Social Security numbers? Wouldn’t we run out of them?
+What about the majority of embryos that fail to implant in the uterine wall? Only a fraction of zygotes go on to form viable embryos, and these abnormal embryos are usually passed out during a menstrual cycle. Miscarriages are a thing. If the zygote is given full rights of a person, then any woman who passes an embryo during her period or suffers a miscarriage would have to be charged with child abuse, neglect, and manslaughter.
+When during conception would life begin? Conception is a process, not a distinct point in time. It involves many chemical reactions and processes that take place gradually, and sometimes fail along the way. It is not an instantaneous occurrence. Would everyone be legally considered nine months older? Seven? Two? Should we be letting seventeen-year-olds vote because they were conceived eighteen years ago?
+Can a fetus commit a crime? In the case of an unwanted pregnancy, or a pregnancy that results from a rape, could a pregnant woman press charges against her fetus for assault? After all, it does keep kicking her in the stomach. If you or I kicked a pregnant woman in the stomach, we’d certainly be committing a crime. What about theft? The fetus takes the woman’s nutrients without her consent. If you or I stole a woman’s groceries, we’d be committing a crime. How about trespassing? She doesn’t want it there and didn’t invite it in. If you could charge the fetus with trespassing, does that make a woman’s body a place? Should the rapist be charged with breaking and entering in addition to the rape?
+What about twins? Consider the case of identical, or monozygotic, twins. There is only one fertilisation event—one sperm meets one egg—but two individuals result. Do those twins have to share the ‘human life’ they had from conception? Surely not, for we treat twins as separate persons. So, when did both lives start, if not at conception? During the twinning process? Or sometime after? And if lives start during the process of twinning, is it morally wrong NOT to twin an embryo? Twinning maximizes their potential as multiple human beings. Would the pregnant woman have to go back to get a second “fetus certificate” when she finds out her zygote twinned? How would the office that issues that document tell which twin already has paperwork and which one doesn’t?—they’re identical pomegranate seed-sized clumps of cells.
+What about chimeric fetuses? This occurs when fraternal twins, derived from separate conceptions, merge very early in development to form a single individual with some cells with one genome and some cells with another. Do chimeric people get twice as much human life, seeing as they resulted from two conceptions? Which fetus certificate gets destroyed? Was a life ended when the two embryos merged, despite not a single cell being destroyed? Should the fetus be charged with murder? Cannibalism? If the intentional formation of chimera is morally wrong, why isn’t the failure to twin an embryo just as wrong?
+The main argument for the “life begins at conception” is generally one of potentiality. “The fetus has the potential to become a person, and destroying that potential is wrong.” But being potentially something isn’t the same as being something already. To see this, consider extrapolating the potential argument in the other direction: all human beings will die. And, seeing as a zygote may form a human being who will definitely later form a corpse, it follows that we should treat both people and zygotes as if they were corpses. If we can give the right to life for an unborn baby, maybe we should give the right to a decent burial for a pre-dead corpse (i.e. a live person). Not to mention that sperm and eggs have the potential to form a human being, so why wait until conception? The same argument follows that every sperm that is destroyed without fertilizing an egg and every unfertilized egg that leaves a woman’s body during her menstrual cycle is akin to destroying a human being. So every woman who has menstruated and every man who has ever ejaculated are serial killers and mass murderers. Unless, of course, having the potential to do something or be something isn’t equal to actually doing or being it.
+I think it's just a little logistically simpler to conclude that life begins when the offspring can survive outside the mother's body, but hey... that's just me, I guess.</t>
+  </si>
+  <si>
+    <t>So. First thing’s first. This is a difficult CMV for the same reason double standards posts and devil’s advocacy posts are difficult. You’re position relies on representing some third party scarecrow you hold in your head. The scarecrow cannot change its view because the scarecrow has no brain of its own. We’re forced to make assumptions about the scarecrow.
+Can we assume it is rational? Should we present rational arguments that make sense to someone who believes the fetus is a human being, that still make abortion not murder?
+If so, this should be very easy.
+Murder is a legal question.
+Assume a fetus is a person for a second — the scarecrow still wouldn't want to outlaw abortion as murder. There are literally no other circumstances where we would force women to give up their bodily autonomy and medical health so someone else can live.
+Let's consider a mother who chose not to carry a fetus to term. Why would it be right to give more rights to that fetus than you would to a fully formed adult human?
+For instance, that same mother has the child. The child grows up. He's 37. For whatever reason, the mother and child are estranged. The two are driving and their cars collide. The 37 year old needs a bone marrow transfusion. The mother is the only match. She wakes up to find the transfusion in progress and can't remember the night before.
+If she refused to continue undergo a painful and dangerous medical procedure that will likely take years off her life, the transfusion, just because the 37 year old man needs it, would you imprison her for murder?
+No. Of course not. You need to start making very different arguments about why specifically a pregnant woman does owe something of her body to the fetus that no other person owes to another under any other circumstance.
+To that idea, the argument that whether the fetus is inside of her or outside, it is still her body and likewise her choice — just as it would be even for a 37 year old adult who needs it to survive.
+edit just to speed things up now that this is getting popular, before replying to me with a challenge to this scenario, ask yourself this:
+Does my objection still hold if I substitute the 37 year old?</t>
+  </si>
+  <si>
+    <t>Other people have already made arguments that are variations of the violinist argument. (that bodily autonomy means people can't be forced to surrender control over their body to save another's life).
+I would just like to add, that the way this relates to misogyny, stems from how very intuitive the sanctitiy of bodily autonomy would be in every other context, than pregnancy.
+When people talk about rumors that China is harvesting the organs of criminals, that's universally treated as stepping over a dark dystopian line, ecen if it saves more lives than it costs, and the ones whose lives it costs had it coming by being criminals.
+When people talk about historical atrocities where people were used as forced test subject for medical development, the argument that it saved more lives than it cost, is not good enough.
+It is even taken for granted that after you die, your organs are yours unless you volunteered to be an organ donor. The biggest controversy is only whether that option should be opt-in, or opt-out.
+When people argue that bodily autonomy should be denied to pregnant women, what they are saying, is that their bodily autonomy is worth less than a corpse's.
+When they try to counter the variations of the violinist analogy by focusing on how women who chose to have sex are actually responsible for their condition and they should "pay the price", they are treating women having sex as a cause good enough to retract their rights in a way that we don't even retract rights even for heinous crimes.
+For murderers and rapists, we only restrict their right to freedom of movement. But women who dare to have sex without the intent to reproduce, are doing something so terrible, that they need to be subjected to a dehumanization that we would balk at dictatorships using in their criminal punishment system.</t>
+  </si>
+  <si>
+    <t>I think you are missing two important things
+Pro-life people by and large do not actually believe that it is also a child's life. Their actions simply do not fit that narrative. If they did, they would be desperate to provide accessible birth control to everyone since this is the only proven way to decrease what would be considered a massive genocide in that theoretical view. To illustrate my point, here's a citation from a pro-lifer
+http://www.independent.co.uk/incoming/us-lawyer-gay-marriage-could-cause-900-000-abortions-10194093.html
+The aim of (most) pro-life advocates is to restrict women by making them bear children
+2. Even if it was another life, bodily autonomy would still prevail if precedent matters. Take for example criminals receiving the death penalty but their organs are not forcefully given to anyone else, even if that other person would die without the organs.</t>
+  </si>
+  <si>
+    <t>If a child needs a kidney transplant and you're the only practical suitable donor, then it's not just your body, it's also the body and life of a child. You're not forced to do it because extracting a kidney is an intrusive and harmful process to you.
+Pregnancy is an intrusive and harmful process for a woman. When getting an abortion, a woman chooses not to let her body undergo that process. The fact that the fetus dies as a consequence is really just a technical limitation we have when performing the procedure. If we ever develop a way to end a pregnancy safely while keeping the fetus alive, I don't think most pro-choice people would oppose that, because the point is the woman's choice whether or not to be pregnant, not whether or not the fetus lives.</t>
+  </si>
+  <si>
+    <t>All that would be valid if the kid wasn't born in a multi billion rich household. Normal rules don't apply to those people and nothing would change the kid's future even if was named Crap McFucker.
+He doesn't condemn his child to any kind of trouble. He's still an asshole tho, because forcing people to bend around your petty games is a way to assert power. It's the modern day equivalent of Caligula naming his horse senator.</t>
+  </si>
+  <si>
+    <t>The purpose of a name is to distinguish one person from another.
+This accomplishes that goal.
+I believe this is a form of victim blaming, Elon Musk cannot be held accountable for other people being assholes because of a strange name.
+Edit: Anyone want to reply? I'd love to read why you disagree with this take. I didn't think 'not giving into bullies' was such a controversial thing to say.</t>
+  </si>
+  <si>
+    <t>The kid is going to receive ridiculous amounts of attention whatever his name is, just because of being Elon Musk's kid. He'll almost surely have a nickname which is easier on everyone's ears. Sure, there will be downsides, some people will probably make some snide remarks. But there will be benefits too, he's going to have a fun conversation starter and be able to decide for himself what he's going to be called. In the grand scheme of things it all doesn't really matter because his wealth and prestige are going to shelter him from most of the consequences.</t>
+  </si>
+  <si>
+    <t>I thought it had a really sensible nickname, something like "Ash"? I've already forgotten what the kids name actually is, but it struck me as reasonably sensible when I saw the explanation of what it means and "Ash" seemed like a cute name.</t>
+  </si>
+  <si>
+    <t>Let’s be honest, this is Grimes’ doing. I love her though</t>
+  </si>
+  <si>
+    <t>I see a ton of names come across my desk that seem to fit your criteria - nearly impossible to pronounce and opens the kid up to unecessary bullying or discrimination - yet anyone who would dare call the parent an asshole for that is thought of as a blatant racist.
+Can you explain the difference to me?</t>
+  </si>
+  <si>
+    <t>This one in particular is kind of not a point for your argument. A lot of people have special characters in their names, and they can usually be replaced. For example, the German ä, ö, ü and ß can be replaced with ae, oe, ue and ss respectively. So in this case, the Æ can be replaced with AE as well.</t>
+  </si>
+  <si>
+    <t>There are high school classes that teach you all of those things, and all of your proposals can be covered over the course of a semester in what is more or less a budgeting/accounting course. So the solution should be to just make that class a requirement or roll it into other courses.
+Easily covered in a civics/government course (which was mandatory for me).
+I learned this in middle school.
+Already covered in several government courses over the course of school.
+Many of these answers are dependent on your home structure and your finances, so there's no right answer.</t>
+  </si>
+  <si>
+    <t>I'll argue this:
+Everything you've mentioned here is barely one high-school semester-course worth of material, so instead of saying "rather than focusing on college prep", it should be "in addition to primarily focusing on college prep"</t>
+  </si>
+  <si>
+    <t>I was personally taught many of the things you list but it's not very effective. You're teaching a child the rote steps to a procedure in the hopes that will use it multiple years later and remember how to do it. The likelihood is that they won't and will just google "how to address a letter" when they need to use it. The goal of teaching more abstract concepts, like biology, is so that students develop an intuition about the underlying systems. They don't need to remember the specific facts about the parts of a cell to remember that the human body has a highly advanced system for filtering and removing waste so that expensive juice cleanse that "removes the toxins from the body" is likely bullshit.</t>
+  </si>
+  <si>
+    <t>lol, y’all didn’t pay attention in history class, y’all didn’t pay attention in math class, y’all made the English teacher cry. 15 years later y’all mad they didn’t teach you how to do taxes. Fam, you weren’t going to pay attention anyways.</t>
+  </si>
+  <si>
+    <t>High school is supposed to teach you how to learn.
+This was part of my history curriculum every few years since 4th grade (yes I went to public school).
+All of the accounting stuff you talked about was offered as an accounting class in my high school as an elective, it is also offered as a 101 level course in college.</t>
+  </si>
+  <si>
+    <t>I don’t believe this is the current function of high school nor should it be what high school aspires to accomplish.
+High school is about preparing you for the next level of academics. There are (at least in many districts in the US) opportunities to engage in vocational training concurrently as a high school student as opposed to taking the traditional curriculum, which is enough for you to not bomb out of college-level classes.
+Understandably, you’re viewing this as a college graduate who (I’m assuming) always planned to go to college after high school graduation. Think if you had entered the workforce after graduating... With little to no skills and experience, you would only qualify for jobs that asked for applications as opposed to full resumes, though that’s changing somewhat. You would have plenty of time to figure out what you have to do to start contributing to the community. The unemployment rate is never 0%.</t>
+  </si>
+  <si>
+    <t>Whenever I see these types of arguments, I think to myself, "No. These are what parents should teach. What you're describing is parenting."
+Parenting is more than giving food and shelter or love and affection. It's about preparing children for life in countless ways, both large and small. And budgeting, taxes, credit, civics, and civic duty (which is absolutely taught at most schools, but students never seem to give a shit), and "home economics" are all things that parents should be primarily responsible for.
+I'm a teacher and a parent (of a one-year-old) and my wife and I will be teaching him about all of the things you mentioned at the relevant and appropriate times. Would it be a bonus if he is exposed to these subjects in school? Sure. But it's my responsibility-not the school's- to see that he's prepared for life.</t>
+  </si>
+  <si>
+    <t>You know what’s even less interesting for high school students than dissecting frogs? Taxes. And budgeting. And investing. And resume building. And a bunch of the things you listed.
+As is the case with most subjects in school, the people who find it interesting will get the most out of it. I have a degree in geology. Clearly I find rocks interesting. A lot of people don’t. One of my entry level geology classes, Historical Geology, was a common class that students took that needed a general science class. I guarantee I retained more from that class than the students who were taking it just to fulfill a credit. The same would be true in high school. Those who want to learn taxes will learn, those who don’t will not.</t>
+  </si>
+  <si>
+    <t>Those things are taught. How the government works and political involvement in social studies, budgeting in math and economics. How to format a letter in elementary English. Literally everything you listed is taught in the high school I attended and the school I teach at (both are low rated schools, so it’s not like I went somewhere with an above average education). These are all taught, kids just don’t pay attention. People tend to not pay attention until it’s relevant to them. I didn’t give a shit about taxes -which I learned about in high school- until I actually had to pay them.</t>
+  </si>
+  <si>
+    <t>I don't disagree but I want to challenge you on whether this is the solution you think it is.
+My first job was as a cashier. The belts were very wide, and sitting would of made it even more strenuous to reach the other side of the belt as people always fill up the whole thing- and you have quotas on speed and the like. One day, a lady only put her groceries on the half closest to me. When I asked why, she explained she was a retired cashier union rep and how they only have such wide belts to increase customer spending- the consequence being higher rates of repetitive motion and back injuries for cashiers. Ever since I also only keep my groceries close to the cashier, regardless of dirty looks. It's not a solution but an easy way to help out cashiers.
+I would argue that belt size alone would have a bigger impact, but in order to really get the biggest improvements from chairs you would need to re-evaluate the entire setup (and frankly, the entire industry). While it might be easy to dismiss other comments about the risk of increased injury, it is likely with the amount of far-reaching required by a lot of modern setups, and that setup needs to be changed more than they need a chair. You're also right about the entire work culture requiring to be evaluated; as a culture, we need to stop dismissing these jobs as "bad or starter" jobs as being ok to deprioritize worker safety or quality of life; but it's going to need a lot more to achieve that than chairs.</t>
+  </si>
+  <si>
+    <t>Are you kidding me I have a job where I sit all day and i had to fight to get a standing desk.
+Standing(walking, really) is the most natural posture for humans. Our bodie's evolution stopped while we were wandering across the plains, and we're still optimized for it. Sitting is a step away from that, and sitting all day is much more unhealthy than standing all day. There is no health benefit to sitting for baseline humans.
+If you have a disability, and standing for long periods hurts you, then yes, a stool should be easily provided. As a manager, I'd probably provide that accommodation without needing to see any documentation. It's cheap and easy for me to do.
+I'm sure at some point some customer will come and complain about how lazy my employees are, but it could be fun to start yelling about hipaa and protecting my employees medical data when, in fact, I have collected no such data and am simply accepting the employee's discolsures at face value..</t>
+  </si>
+  <si>
+    <t>I would imagine the introduction of chairs would increase OJI rates for the position. Chair related injuries are insanely common in the workplace. Add the fact most cashiers would probably be sitting on some sort of elevated stool the severity of injuries would probably be increased as well. While standing can possibly introduce general wear and tear injuries they aren’t life threatening like adding an obstacle to an already enclosed workspace. You may think I’m blowing this out of proportion but there are dozens of fatalities reported by OSHA due to chair related incidents. I personally witnessed an actual near fatal chair OJI. You might say the worker should be able to make the decision but ultimately your company pays out when you get hurt.</t>
+  </si>
+  <si>
+    <t>Was a cashier in my youth. Sitting wouldn't have allowed me to keep pace. We were ranked for 'scans per minute,' and had efficiency targets. Some places enforced this, others didn't. I didn't have to deal with it, but it's a hypothetical issue. Also, I needed to scan and bag. The customer wasn't allowed to bag for themselves. I mean, I couldn't tell them know, but it would reflect poorly on me if I didn't service them enough. And while we had baggers, they were typically elsewhere, since that position was leanstaffed.
+Now, you say "should never be forced," to stand. I think there's a great many things laborers should never be forced to do, but you didn't list a moral framework to work with, so it's difficult to talk normatives.
+So I'll focus on your statement about customer perceptions. Anecdotally, customers either want to do self-checkout, or they want to be serviced. Those that want to self-checkout fall outside of our discussion, since, well, the cashier is irrelevant to them.
+For the people actively seeking out that bit of human interaction, this is a chance for the business to sell that all important, nebulous, intangible and unquantifiable 'Customer Service.' Measuring Customer Service is all about negative reviews, and how to avoid them, so you cater to the more cynical and entitled customers, since the others are more likely to not say anything about their service, than to say something poor. I acknowledge, this isn't the only way to evaluate Customer Service, and it's not one I endorse, but (again anecdotally), it's what I see from managers incapable of thinking abstractly or interpreting data.
+If you let your cashier's sit, great - the customers who were already going to say nothing, or say something nice continue to do that. You've bought nothing. If you let them sit, and risk the perception that they are lazy and "not working like they used to, dagnabit" then you encourage more negative customer perceptions.
+Sure, you might buy some more employee morale, but what are they going to do? Quit? You'll get more, the economy is premium for generate desperate folks. Unionize? Corporate will shut down the whole location first. Cheaper to just stress the system and replace the parts that burnout.
+Maybe most customers don't care, but the ones that make their opinions known do, and those are the ones that affect public image. And since we don't have lots of people boycotting stores for how they treat unskilled labor, the situation isn't likely to change.</t>
+  </si>
+  <si>
+    <t>Because social democrats obviously didn't choose this. They were branded socialists by conservatives and neoliberals. But then, predictably, the "well if giving people healthcare and having public schools and doing something about climate change is socialism, then I guess I'm just a big fucking socialist" attitude set in. Yeah, maybe this has in the end set the country back, but it wasn't the choice of the social democrats, it was the choice of the conservatives, who think that setting back progress by 5 years, or ten years, or fifty years is a good thing
+anti-socialist propaganda means that both the democratic party and the entire right hate all of these policies that aren't even socialist or extremist in the slightest.
+they don't hate these policies because they're big dummies and can't figure out the difference between welfare and the dictatorship of the proletariat. They hate these policies because they see these policies as a threat to the ruling class, who they work for. (Also, they're not really wrong about that.) They hate social democracy as much if not more than they hate actual socialism, some of them are just savvy enough not to say that out loud. The game we're playing here isn't really one of "well that's a good idea, but we can't do that policy because it's just too extreme," although many will do their best to pretend that is their problem. In actuality we are playing a zero-sum game where the ruling class is trying to capture and control as much wealth and power as humanly possible</t>
+  </si>
+  <si>
+    <t>What evidence do you have that it’s democratic socialism that has pushed America beck for at least 5 years? From my point of view the Democratic Party clinging to taking money from wealthy donors and corporations is what is causing democrats to perform so poorly. Policies like raising the minimum wage to $15 an hour, legalizing marijuana, Medicare for All, and a Green New Deal are extremely popular. Even Fox News posted results of a poll that showed that over 70% of people want a Government-Run Healthcare plan. But because Democrats take money from special interests like the health insurance industry, they are unable to represent the will of the people. Democrats need to have specific policies and ideas that will benefit the American people. Running campaigns on platitudes and Trump is bad is not enough to inspire some people to vote.
+Many Democrats running as democratic socialists won their elections. Some were even in swing districts, so the argument that democratic socialist can only win in solid blue areas is being disproven. Here’s an article briefly describing the success democratic socialist had. https://inthesetimes.com/article/dsa-election-2020-democrats-socialism</t>
+  </si>
+  <si>
+    <t>i would disagree. government run healthcare/government paid for healthcare are more popular than theyve been in years, states like florida are passing minimum wage increases by massive margins, people largely agree with a climate plan focused on job creation through renewable resources similar to a new deal plan, all across the country.</t>
+  </si>
+  <si>
+    <t>Libertarianism is a thing, after all. It has its origins in Socialist movements, and now it's anything but.</t>
+  </si>
+  <si>
+    <t>Democratic Socialism is the idea that the ideal way to get from the modern liberal capitalist system/society to the socialist system/society is to do so through democratic means, by electing people who believe in socialism and passing policies that move the needle/Overton Window ever-closer to socialism and ever-further from neoliberalism.
+So, in the sense that democratic socialists don't want to resort to violent overthrow of the capitalist system, yes, it "literally operates under capitalism"... But that's a low bar, since the idea is literally to eventually dismantle capitalism.
+Whether or not socialism is "extreme" is a matter of subjective opinion, at the end of the day. However, to call Sanders' proposed policies "not socialist" is painting with a pretty broad brush -- many of his proposed policies/ideas relating to large corporations was about having the workers partially own them and having workplace democracy, which is practically the definition of socialism, namely workers owning the means of production. Is it "extreme" to think that extremely large corporations should be 20% owned by workers, with workers having elected seats on the board, and workers having the right of first refusal in company sales? I personally don't think that those are extreme ideas, but it's up to you.
+Yes, things like "Medicare for All", raising the minimum wage, wealth taxes, regulating drug companies, etc, are not socialism. But not everything is "not socialism".
+In other words, they conceded to the name/label of "socialism" because some of their policies are socialist, or at least socialist-inspired if you're going to make an argument that "it's only socialism if the workers owned 100%" or something, and their proclaimed eventual goal is socialism.</t>
+  </si>
+  <si>
+    <t>This seems to coincide with the debate about the DSA and its values as well. From the DSA: “As democratic socialists, we enter coalition efforts with no preconditions that our allies embrace our socialist politics. But we engage in these politics as open socialists—we will be called socialists whether we choose the name or not. Anti-socialism remains the most profound anti-democratic ideology in the United States. Whatever the struggle—be it for a humane, efficient national health care system or for public investment in child care—the right red-baits the proposals as ‘socialist’ and thus forbidden.” Both Bernie and AOC are prominent DSA members whose legislation is largely Keynesian in its economics and not Marxist. The Democratic Socialist of today realizes that we live in a democratic society where pushing for all large corporations to be immediately turned into worker cooperatives is not feasible in the current political climate. However, supporting the working labor class with Medicare for All and debating a Green New Deal is. It is useless to the socialist message to gatekeep who can identify as a socialist as long as they understand the need to advocate for working class rights.
+To your concern over the “horror stories of socialism” From DSA: “Socialists have been among the harshest critics of authoritarian Communist states. Just because their bureaucratic elites called them “socialist” did not make it so; they also called their regimes “democratic.” Democratic socialists always opposed the ruling party-states of those societies, just as we oppose the ruling classes of capitalist societies. We applaud the democratic revolutions that have transformed the former Communist bloc. However, the improvement of people’s lives requires real democracy without ethnic rivalries and/or new forms of authoritarianism. Democratic socialists will continue to play a key role in that struggle throughout the world.
+Moreover, the fall of Communism should not blind us to injustices at home. We cannot allow all radicalism to be dismissed as “Communist.” That suppression of dissent and diversity undermines America’s ability to live up to its promise of equality of opportunity, not to mention the freedoms of speech and assembly.”
+I like to point at North Korea, or by its full name: The Democratic Peoples Republic of Korea. If we were to compare the United States of America to the DPRK we would think that DPRK would be more democratic and representative than the United States of America by the name. Of course, we know that North Korea is terribly autocratic and authoritarian. Just because someone calls themselves something doesn’t mean that they mean it. Democratic Socialists are very much anti authoritarian which includes opposition to much of the oppressive policies under the USSR.
+As a side note as a Democratic Socialist, there’s an analogy that I think helps explains my view of it. Before capitalism, we had feudalism and monarchy. Kings ruled the land and collected off of the labor of their workers, or peasants. For protection, they worked the kings land. For access to the mill, they gave some grain to the king. Then some merchants were able to start corporations and start up colonization with the monarchs as stock holders in these new corporations so that the old world power structure of projecting a kingdom’s power through the corporation was maintained. Of course we know through the industrial revolution that monarchs lost a lot of this power. However the underlying structure of large corporations is the same. Democratic Socialists today want democracy in the workplace to benefit the labor, the people, who make it all work. Democratic Socialists view arguments for traditional corporate entities as they exist practically and legally similarly to how republicans (wanting a republican form of government not the US party) view monarchists (who want a monarchy). This can take the form of market socialism (such as worker cooperatives where leadership roles are elected, and the production and management are done by paid workers, accountants, etc.). It can also take the form of other socialist economic structures.
+Really what you are seeing right now is Democratic Socialists implementing the Keynesian aspects of their economic policy. Think FDR economic policy if you’re unfamiliar. Government spending to combat unemployment (with the modern mandate to minimize unemployment for marginalized groups), government support of labor through healthcare and education so that citizens have equal access to human capital in their health and knowledge, and the breakup of large monopolies and regulate mergers and acquisitions so that all firms in the current marketplace have a place to exist to employ workers on a smaller, more representative level. Family rights for all to adopt, take paid family leave (both as a human right and to help eliminate the gender wage gap), family planning services and gender specific healthcare including abortion care, gender confirmation surgery, menstrual products, and OB/GYN services. Public banking, at every post office to help eliminate a cost of being poor (check cashing services are a tax when you don’t have a bank, and payday loans are usually small gap liquidity for the poor that is exploited with interest rates that can reach an average of 700% APR.). So, just because you don’t see us praising Lavrentiy Beria, who we don’t btw, doesn’t mean we don’t think as democratic socialists. Blame the current Overton window that our position has to be justified the way it is.</t>
+  </si>
+  <si>
+    <t>Although Sanders calls himself a Democratic Socialist, he is not one. Ironically, Sanders is not as far left as he claims. Which also supports my long held view that Sanders only runs for President to nudge the country left and doesn't have any real expectation of winning. We needed that, imo.
+Republicans have been labeling Democrats as socialists for decades, so it's really nothing new. I think Sanders just believes that it's easier to dispel the stigma than to correct them.</t>
+  </si>
+  <si>
+    <t>Social democracy IS socialism; a modern offshoot, but socialism nonetheless. That it approaches more of a mixed economy route rather than straight socialist doesnt change where the idea had its roots, nor does it disqualify it as a form of socialism.
+So thats where your views are off first; it isnt a label, its the literal definition.
+As for holding America back, you're essentially engaging in victim blaming. Social democracy doesnt have anything to do with the continued Red Scare in America and no matter what you called it, its ideals and roots would have left it condemned by moderate and right wing interests in this country.
+It is those interests that have held the country back since before we were ever a country, not social democracy being demonized alongside every other ideology even remotely leftwards, even if its still on the right.</t>
+  </si>
+  <si>
+    <t>I think it’s actually a very shrewd move to try and counter the arguments that his opponents will make about his position and policies. Bernie and the Democratic Socialist movement has been trying to redefine what socialism means to the people of America and there are good reasons why. A classic strategy in American politics is to paint anything left leaning that you dislike as socialism. Fox News along with Trump and his cronies label any raise in tax for the wealthy, universal healthcare, or any attempt at wealth distribution as socialist policies despite dozens of strongly capitalist countries having such policies such as the UK, Canada, Australia, France, Sweden etc.
+I believe that the Democratic Socialists decided that as they would be called socialist no matter how untrue a statement it was and that they were better to embrace the term and attempt to change what it meant in the American Zeitgeist rather than let the right control the narrative.
+I think that this has actually been very successful as now you have many young Americans happily claiming that they are Democratic Socialists or that socialism is not that bad, which would have been unthinkable just a decade or two ago. While the term may still turn away a number of voters such as OP I think their strategy is working and has been successful in shifting the Overton Window in American politics which will probably be Bernie’s greatest legacy as the likes of AOC carry the torch forward into future generations.</t>
+  </si>
+  <si>
+    <t>Who/what should be in charge of deciding what is false information? Because while I agree with everything you’ve written about how damaging false information is, I also don’t know that I trust any government institution to be the arbiter of what is and isn’t false, especially given who our last president was and how his party still seems committed to calling blatantly false information “truth.”
+Edit: since this has blown up and I’m getting a lot of replies misunderstanding what I’m saying, I am not saying that truth doesn’t exist, or that we can’t have experts evaluate what is true. I put my faith in politifact and expertise generally.
+I am saying I do not trust our political system to choose those arbiters of truth responsibly. Donald Trump and republicans are not going to choose politifact when they have the power to choose who decides what’s true.
+Edit edit: in case it’s not clear already, I’ve had literally hundreds of commenters reply to this saying basically the same things over and over again. I have stopped responding because I certainly can’t reply to all of you.</t>
+  </si>
+  <si>
+    <t>The problem with this will always be who gets to decide what is false information? What happens when some government agency decides a situation was too embarrassing or makes them look bad and says it didn't happen?</t>
+  </si>
+  <si>
+    <t>It already is illegal, it's called slander. Fox News is being sued right now by Smartmatic and Dominion for alleged misinformation Fox pundits promoted over their voting machines.</t>
+  </si>
+  <si>
+    <t>And that's exactly why the law won't work. Southpark is the best example: https://www.youtube.com/watch?v=Zd0p96miSK8
+First of all, who is the arbiter of true information? The jury in the court? Really? How about experts? But there are many experts, and everyone can bring their own experts to back their version of truth. Or maybe let's get the REAL experts. But who is to give certifications whether or not an expert is real or not?
+Next is that news have been diligent is adding the phrase "believe" and "reporting", like in the examples. We are not reporting falsehood, we are reporting that our sources says that this is true, which turned out to be false.</t>
+  </si>
+  <si>
+    <t>All of us have an innate gender identity, you can think of it like a blueprint for you body that your brain has, as far as we know your gender identity is unchangeable and set from birth. For most people their gender identity aligns with their biological sex, and these people are cis. Trans people are people who's biological sex does not match their gender identity, what their brain expects their body to be is not the one it has, this causes extreme distress which we call gender dysphoria, something most trans people suffer from.
+This happens outside of gender, there are cases of people born without limbs getting phantom limb syndrome.
+This distress can be alleviated by transitioning, both socially and medically through hormones and often surgery, after which many trans people experience gender euphoria, euphoria at finally having a body, and being recognised as having a body, that matches their gender identity.
+Notice how none of this is at all dependant on gender roles, it's entirely to do with ones internal sense of self and ones body. Many trans people will often conform to the steriotypes of their gender (dresses makeup etc) in order to ensure people don't misgender them by mistake, but this a method to be recognised as their gender by strangers, it is not the goal of transitioning.</t>
+  </si>
+  <si>
+    <t>So for me, getting on hormones was the greatest thing to ever happen to me because I knew my body would stop progressing down a male path. I continued to present male for 2 years after and while it was not easy, just being on hormones made all the difference mentally. I would 100% prefer to have to dress as a male, but be able continue to take my hormones, than be able to dress as a female, but not be able to take the hormones. My body just feels better. I needed my body to biologically shift for that to happen, no amount of female clothing was going to make the feelings go away.</t>
+  </si>
+  <si>
+    <t>There are different ways for that dysphoria to manifest for different people, so don't imagine there's any one explanation for that.
+But think of this scenario. Let's say you're male. You've been male all your life. You know what it "feels like" to be male (not gender roles, I mean physically know what it feels like to have a penis, how it feels to pee out of it, no breasts, etc.). That (probably) feels "normal" to you.
+Tomorrow you wake up as a female, with female body parts.
+Do you think you'd feel "weird". Would those sensations be strange to you? I think most people can at least imagine the weirdness of this scenario even if they think they can't predict their exact reaction.
+For at least some transgender people, that's how their gender dysphoria manifests (at least based on their descriptions... no one can actually get inside their skin and experience what another person is feeling, of course).
+This isn't always the case, but there are people with other body dysmorphias who end up feeling a need to have a never-ending set of cosmetic surgeries because their body always feels "wrong" to them, or even go to such extremes as amputating body parts (that aren't genitals).
+So at least for that subset, your view would be incorrect.</t>
+  </si>
+  <si>
+    <t>(Aha, seems I was a bit wrong about Rabbit. They DID know they wanted to be a girl, but their creator died before they could finish her. Here's a thread to pull on: https://images.app.goo.gl/t8iK5WYWMGsqF4iP7)
+Correct.
+Christopher, as his name was, was also into crossdressing. We both liked to feel pretty. We liked tea parties and dancing. Hell, I was a professional ballet dancer studying belly dance, that was part of his attraction to me. We loved to get on the dance floor and shake our hips.
+The difference was that, for me, being pretty and dressing up and getting cute was something fun that I did. For Chris, it was his only outlet for expression of the person that he truly was.
+I started to realize this when I realized that, after awhile, he would ONLY dress up for costume parties or Halloween, and he would go all out, trying to be as convincing as possible. His very goal to be mistaken for a girl by the dark pub lighting.
+My goal, by contrast, was to be viewed as a sexy, cute, effeminate boy. Adorable and lithe and...twinky. But definitely male.
+So I would buy more cute fishnets and more nail polish and more shoes and want to go out every weekend.
+He would only go when it was acceptable to go in full drag, and only to events where he had a reasonable shot at convincing those around him he was female.
+Because Chris was female.
+Chris also could never keep it up in bed, I'm guessing because she really was not a fan of her penis. Chris did not like me touching her genitals, not at all. Not for the whole 14 months we were together.
+Looking back, she was ONLY happy when she was not just presenting as a female...but when she was viewed and treated as one.
+The relationship was doomed from the start because Chris was always horrifically, horrifically depressed. I think, probably, it was gender dysphoria. Perhaps she knew, then. Perhaps she didn't. Chris took Viagra while she was with me and fucked me as best as she could.
+...she must have been in such mental anguish the whole time.</t>
+  </si>
+  <si>
+    <t>You are equating gender expression with gender identity—they are two wholly different things. Being trans is not just about looking like the gender you identify as, it's who you are inside.
+I'm going to provide some anecdotal evidence that might help you understand. I was born female, but feel a strong disconnect from my assigned gender at birth. I don't identify fully as a woman, I identify as nonbinary and somewhat with a woman. However, I still dress and present in a "stereotypically" female fashion. My gender expression is disconnected from my gender, and it is my choice to do so.
+This is a generalization, but most binary trans people want to be seen as the gender they identify as, which is why their expression might be more stereotypically/strictly aligned with their identity. Trans people already have a difficult time "passing" (looking like the gender they identify as), and it's not about stereotyping themselves into a specific way of gender expression, rather than just trying to be seen as cis to other people.
+Edit: my pronouns are she/her or they/them, I prefer they/them.
+Edit 2: there are hundreds of replies to my comment and the flood is not stopping. I cannot reply anymore.</t>
+  </si>
+  <si>
+    <t>So if you just let the transgender movement reach its natural conclusion unimpeded there would be no transgender movement or need for one? Yeah that tracks I guess.
+The issue is its just wishful thinking to think everyone would just let people do what they want. Just 2 or 3 years ago everyone was concerned with which bathroom transgender people were using. Right now everyone seems concerned about whether or not trans women should be able to compete in high level organized sports.
+Unfortunately too many people wont just let people do what they want and want to police people based on their high school level understanding of biology. The transgender movement exists to allow transgender people to do more of what they want as transgender people in spite of those people trying to police them.</t>
+  </si>
+  <si>
+    <t>Firstly, those things do exist, and one can't simply erase them no matter how much we might want to.
+Additionally, "trans" includes people who feel dissonance with their body, not their expression of the social role. E.G. transsexuals or those who would like to transition physically can have whatever gender identity but still look at their parts and say "thats not right".
+It's important to make this distinction. You might not like your role as "a man" in society, but that doesn't mean you look at dick and say "whoa....that's not what should be there". This isn't because you want to socially align to some ideal of women, it's because your body feels wrong.</t>
+  </si>
+  <si>
+    <t>I'm gonna chime in here as well. I'm a pretty masculine woman in terms of societal perceptions. I wear cargo pants &amp; men's shirts pretty often &amp; am wearing ripped jeans &amp; a flannel today. I only date women. My (pre-pandemic) hobbies were Brazilian Jiu Jitsu (and a lot of other martial arts before that), weight lifting, camping, etc. I know my way around power tools or a home depot &amp; even worked in construction for 2 years. I'm known for being fairly tough &amp; for enjoying grappling matches with friends. I got in a number of fights in middle school &amp; high school.
+I don't think those things make me a man. I'm definitely a woman. People see me &amp; address me with she/her pronouns, I get called "ma'am" or "miss", I make friends with women easier &amp; we understand each other &amp; each other's experiences, even though my hobbies are often pretty masculine/outdoorsy.
+But I grew up a boy. I'm a trans woman. There's no way that boys being able to wear dresses would somehow make me into a boy. What would that have changed about my life?
+I know men who wear dresses &amp; makeup and enjoy them. And they're still men. I also know women like myself who are tomboys &amp; we're still women.</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>What about temperature? Centigrade does a shit job of encapsulating the human experience.</t>
+  </si>
+  <si>
+    <t>I'm going to make a really pedantic argument here. The US does not use, and never has used, the Imperial system of measurements. We use the US Customary measurements. The Imperial system was created by the British AFTER the US declared independence.
+Both US Customary and Imperial are based on the same earlier hodgepodge of English units, so we used the same names for a lot of units (ounces, gallons, miles, etc), but there are differences. For example, 1 US gallon = 0.83 UK (Imperial) gallons. If you look at a liquid measuring cup you'll most likely see two scales: one marked UK and one marked US. You'll notice that the scales don't line up. The UK ones are Imperial, the US ones are US Customary.</t>
+  </si>
+  <si>
+    <t>The units of measurement do not make a recipe better. If you want grams, which are a unit of WEIGHT, you use a scale. If you want cups and tablespoons, which are measures of VOLUME, use them.
+A cup of flour and a cup of oil are not the same number of GRAMS.
+Conversions of numbers can be easier but not everything you do in carpentry is done in a decimal notation. If you need something evenly divided, you use quarters, halves, etc. 1/3 of 12 is 4. 1/3 of 10 is 3.333333333333333333333... decimal is not necessarily superior.
+So buy a kitchen scale. You'll thank me later when you buy butter in bulk, save a ton of cash, and get the same result in your recipe every time.</t>
+  </si>
+  <si>
+    <t>Units of measure are not just numerical abstractions; when someone says “Jill is 6’-0” tall”, someone raised with imperial has a pretty good idea how tall Jill is, without ever seeing her. If someone says they need about a cup of rice, two feet of rope, or orders food online and buys a pound of hamburger, those measures make immediate sense simply because they’ve seen those measures over and over again. And it’s easy to see mistakes- a person who grew up with imperial could understand if 2 feet of rope was really a reasonable length or if 20 feet is more likely to be right. If it makes sense to ask for a pound of beef or what a kilogram of hamburger looks like.
+Essentially, units of measure are like language. On an individual level, switching to a different system of measurement is like learning a new language. At first, everything has to be converted and related back to the original system. The same intuitive understanding of size or distance doesn’t exist in the new system of measure. For example, I know a cup of cooked rice is a reasonable side portion. If someone offered my dad 500ml of rice, he’d have to run a mental conversion to figure out that is about 2 cups and more than he wants. If I see a package of broccoli on the online grocery store, and notice the weight is 500g, I might not know if that is a ginormous package that I will be eating for the next three weeks.
+Switching to a new system of measure isn’t just about changing a few rulers, it’s about asking people to learn a new language a change their personal way of conceptualizing size.
+I am a Canadian. I learned metric in school. Everything official and regulated is in metric. But anything we get from the US comes to us either in imperial dimensions or converted from imperial dimensions. Our most common piece of dimensional lumber is 38x 89mm. Which is nuts. But that size comes from converting the actual dry size of a 2x4 (which is actually 1.5”x3.5”) A container of juice is likely to be 946ml instead of 1L. But I digress...
+Because we have an official system and an system that results from common practice, Canadian are not exactly bi-measurial, we end up using metric to describe some things and imperial to describe others. I understand how long it takes to travel 1km, and know a 900sqft apartment is a good size. I want a pound of hamburger and 200g of sandwich. A litre of milk lasts me a week, 2 cups of flour is about right for bread. It’s even possible to buy 9feet of 9mm diameter rebar.
+I worked in engineering in a company that did construction documents almost exclusively in imperial because the products we specified came from the US. I know work for a different company that uses metric because our clients are government agencies. I am constantly converting things because I can’t do reality checks in metric - I can’t look at a measurement and say yes that’s about right. I can’t look at a room and estimate its size in metric. I have to do it in imperial then switch.
+Changing a system is not just about changing labels, it is about changing an entire worldview and manufacturing standards.
+Edit: oh my. My casual devils advocacy has struck a cord. but thanks for the votes and awards.
+A couple of clarifications
+-by manufacturing I was thinking of things like retooling the size of moulds to be consistent with new standard dimensions.
+-new standard dimensions would be required for ease of math. 38mmx 89 mm wood becomes 50mm by 100mm. A 4x8 panel of plywood changes size to become 1m x 2m. Standardized dimensions are critical for being able to get different materials to work together...
+-i actually like metric better... my life would be so much easier if the US switched. I could specify Japanese and European products without a cost premium for custom fabrication. I could live with one system instead of flipping back and forth constantly. And I’d only need one set of wrenches.</t>
+  </si>
+  <si>
+    <t>So imperial units are usually much better with fractions (that aren't 10-x )
+A foot is 12 inches. 1/2 is 6in. 1/4 is 3in. 1/3ft is 4 in. 1/6 is 2in.
+Comes in handy for carpenters and construction applications amoung others. Really useful for "on the fly" stuff in that regard. And Alot of the units are decided around commonly used quantities aswell.
+The decimals can get messy with metric, especially if extreme precision isn't necessary and you can actually acheive greater precision with fractions then decimals. Makes it even easier if it can be expressed as a whole number.
+Edit: for everyone taking this so personally, my argument is for mixed units.
+I'm not saying one is universally superior. It's usually a case wise thing.</t>
+  </si>
+  <si>
+    <t>Most Americans have no trouble at all with Imperial measurements, and the ones who do (e.g., doctors and scientists) have already switched. Forcing metric on a population with record-low levels of trust in authority is a useless proposition that while likely do more harm than good.</t>
+  </si>
+  <si>
+    <t>Any industry where metric is objectively better to work with has already started working with it. As an engineer, almost 100% of my schooling was taught in metric and the vast majority of the math and physics I do is in metric. There are some exceptions. When I send something to a machine shop, I make my drawings in inches because the machine shop's expensive and sometimes very old machinery was all built using US customary units and it would be prohibitively expensive for them to switch over.
+And that's usually the case for the exceptions: it's not that they don't want to convert over, it's that they can't justify the cost of doing so. Construction is a GREAT example of this. All the materials you use are built using decades old machines that work fine other than that they don't make things in metric units. It would cost HUNDREDS of billions of dollars to replace this equipment and we'd be doing it out of principle, not out of need.
+One thing I learned working in engineering is that the only time you really need your units to make sense like the metric system does is when you're doing calculations that combine several units (energy, power, heat transfer, etc.). Beyond that, HOW you're measuring something matters less than having a basis of understanding for WHAT those measurements represent. We could measure distance in Ford Expeditions and all that would really matter is that A) that length is universally standardized and B) everyone using the measurement has some intuition about what that means. When I say something is 50 miles away, EVERYONE in the US has a pretty good understanding of how far that is. If I say I'm going 60 mph, EVERYONE in the US has a good understanding of how fast I'm going. And if I say it's 105°F, EVERYONE knows that it's too hot out. Now, if I need to calculate how efficient my car's cooling system needs to be if I need to travel 50 miles at 60 mph in 105°F weather, I'm converting all that shit to metric.
+To revisit the baking example, the biggest problem with baking recipes in US units is that we tend to measure things in volume instead of mass. The recipe will literally call for a heaping tablespoon of an ingredient or a loosely packed cup of flour and that's just stupid. If a recipe was written in troy ounces instead of fluid ounces/cups, you could absolutely make just as good of a recipe as one written in grams. And although easy numbers like "100 grams" are nice to work with, as long as I can accurately measure 3.5 troy ounces, it doesn't really matter what the value is.</t>
+  </si>
+  <si>
+    <t>It’s been 115 years since that decision, and I for one think both parties need to figure their shit out on body autonomy. Either a person has a right to control their body free from government intervention and punishment, or they don’t.
+To answer your question, Biden also said he would use the federal government to circumvent the authority of the governors of red states, a clear overreach of the federal government into the states. If his mandate isn’t written very carefully, this Supreme Court will throw it out</t>
+  </si>
+  <si>
+    <t>In the past, my view was that if the counter employees had to do a significant amount of extra work to get my order, then I would consider a tip. For example, if I ordered a regular coffee that just required pouring, no tip. If I order a more complex coffee drink (like the skim latte I ordered this morning on my walk), then I provide a tip.
+I also consider tipping to be an opportunity to redistribute a bit of wealth to people who don't get paid as well as I do. It's the only way that I can actually have a positive effect on what they make during the day, and I'm happy to do it if it's offered as an option, and if I feel that it's justified at all.
+I don't consider these hard and fast views, and I adjust them as circumstances require. For example...
+At the moment, my philosophy is that people working the counter during a pandemic are doing me a service and providing me with something that I want.
+Some people will claim that they are being paid more than tipped employees and so don't deserve a tip. My view is that the pay that they receive is too low to justify dealing with the public when a highly contagious virus is still not under control.
+They aren't necessarily able to work from home as I am. Therefore, because they're at greater risk doing their job, I have no problem tipping. I just picked up coffee 30 minutes ago and tipped 50% for exactly that reason.
+While I don't necessarily think that counter employees are justified in expecting a tip during normal times, we're not in normal times right now</t>
+  </si>
+  <si>
+    <t>You are aware that you can not leave a tip, right?
+If you don't tip for table service, people will think you're an asshole, because you are.
+If you don't tip for counter service, then literally nobody will care. As far as I'm aware (and tbf I could be wrong here), people who work the register are paid a full hourly wage. It's low, but it isn't the $2.50/hr or whatever that a table waiter makes. The tips are a bonus to what they make, not the core of what they make. Also, those tip jars don't even benefit the business, they go straight into the pockets of the workers - saying "It's wrong of businesses to ask me to tip for counter service" doesn't even make any sense because it's not the business that's asking, it's the workers.
+Do you think that service workers should be paid more? If not, do you think that somebody should have the option to pay service workers more if they want to? If you answered yes to either of those questions, then you don't actually agree with the view you want us to change.
+I'll say again that this is just my understanding of how it works. If I'm wrong here, then you should not change your view.</t>
+  </si>
+  <si>
+    <t>There is a particular niche situation which I think you should consider and that's shops which double as community hubs which are trying to promote a social good. Café's and places like that which are inclusive and encourage social gatherings while promoting a wide range of programs and services that'd be useful to their surrounding communities. Examples of the former would be open mic night, game nights, acting as a public forum to discuss laws/policy and examples of the latter would be promoting networking events for young professionals, and writing workshops.
+While you're certainly right that on a transactional level that each individual sale may not merit a tip based on that's sale's associated service, but tips are not just for that. They are a means for an individual who appreciates the business or the people serving within it on a level beyond the transactional. We apply that kind of thinking with charities because they're giving a reasonable attempt to promote a social good, so why not do that with businesses that are earnestly trying to do the same?</t>
+  </si>
+  <si>
+    <t>Just to be clear, you aren't against tipping in general but only think its wrong to ask/demand for tips for a job that isn't deserving of such?</t>
+  </si>
+  <si>
+    <t>FYI, not sure if it will change your view or not. I worked, and know people who worked at the types of counter service jobs you're talking about.
+Every time it was brought up, the primary reason for the jar was to give customers who wanted to tip an easy way to do so. Without the jar, the customers would need to ask if tipping is okay, who can they give it to, etc..
+But with a jar there, if someone would like to tip it's easy (and not awkward) for them to do so. There was never a conversation like "I can't believe they didn't tip!!" In fact, most people didn't tip and that was fine.</t>
+  </si>
+  <si>
+    <t>I disagree in that I believe it is wrong to tip for regular restaurant service also. There are hundreds of different service workers that work very hard and yet we have been scammed into tipping a couple of them. Tipping makes the restaurant workers dependent on the guilt level of the customers rather than the owners supplying them with a steady, livable wage.</t>
+  </si>
+  <si>
+    <t>My income has been based off tipping for most of the last decade. The reason I’m fine with this practice is because there’s no limit to what I can make an hour. Some busy nights I can clear anywhere from 40 to 50 US dollars an hour. If you told me starting tomorrow that I’d be making a flat hourly rate of 18 or 19 dollars an hour I’d quit immediately.</t>
+  </si>
+  <si>
+    <t>I don't know what football coach said it, maybe Bill Parcells, but "you are what your record says you are". That applies to a 2-14 NFL team, and it applies to a political party.
+As a Reagan, Bush, Dole, Bush, Bush, McCain, Romney, Hillary voter I certainly understand your sentiment. But in the U.S., there are two predominant political parties: The liberal Democrats and the Conservative Republicans.
+As a result, whatever the Democrats are defines what current liberalism is in the United States. And whatever the Republicans are defines what current conservatism in the Unites States. Somewhere around 85%-90% of Republicans view Trump favorably and approve of the job he is doing as President. Well short of the 96% he claims, but an overwhelming majority nonetheless.
+Republicans, and therefore conservatism, are what Republicans say it is. And right now, they are overwhelmingly saying that it is Trump.
+Now my belief is that a lot of people are like me and are no longer registered Republicans due to Trump. But that means I no longer support or reflect the Republican party. It has changed.
+Imagine you go to a BLM rally and it turns into rioting and looting. You, and a bunch of other people, leave because the rally no longer represents what you believe in. So that means the only people left are the rioters and looters. And at that point, the leaders of that group can rightfully claim something like "90% of the attendees at this rally support the rioting and looting". But they're not counting all the people that left, because they're no longer attendees at the rally.
+The same thing has happened to the Republican Party. Most of the good and rational people have left. And the only people left are the idiot Trump supporters. They are, by definition, the "real conservatives" now. In terms of American politics, whatever you believe in is something else. It's no long "real" American conservatism.</t>
+  </si>
+  <si>
+    <t>That's what I'm saying. You don't have any problem with what the alt right and Trump want, you just think they're kind of dumb or ineffective. Thinking a leader is incompetent isn't a political break. A whole lot of criticism they get from self-described conservatives is nothing to do with content, and only form. I can understand why they may be frustrating to watch, but I don't see how it's not reflective of the party</t>
+  </si>
+  <si>
+    <t>What are you frustrated about? This is and has been the Republican party since Nixon. It's been about conserving white power with good use of obfuscating verbiage to appear like it's something less insidious.
+To spare myself typing run with "the Southern strategy". All Trump did was repackage it. He did away with the BS and locked in on what his audience (white people) wanted.
+So to say that there is a real distinction between alt-right and the Republican party is disingenuous. It's just they want to pull the trigger and you good with somebody else doing it. Which technically makes you what the Democrats have been, Republican Light.
+"Conservative values" means whatever we (white) have been getting away with historically let's keep doing that</t>
+  </si>
+  <si>
+    <t>You aren't talking to very many conservatives then I have to assume. Nobody has been yelling lock her up for years at this point, nobody chanting build the wall, drain the swamp etc.
+Where are you finding these caricatures that they are every conservative you talk to? It sounds like you aren't looking very hard..</t>
+  </si>
+  <si>
+    <t>Conservative economics benefits so few people it doesn't have a constituency big enough to win elections so it must find fellow travelers in other social movements to create a successful political party.</t>
+  </si>
+  <si>
+    <t>By this logic how would anyone be radical? If a candidate called for the reconstitution of slavery that would surly be over turned by the courts. Would that make it a non-radical view?</t>
+  </si>
+  <si>
+    <t>I am fairly certain moderates in Europe are more in favor of free trade deals than Sanders. I cannot find a single trade agreement that he has voted to support. I would say that is a radical position by European standards. Here is a list of EU Trade Agreements https://ec.europa.eu/trade/policy/countries-and-regions/negotiations-and-agreements/
+I am also unaware of any European countries that are have a wealth tax. The last country I recall that did that was France, and it was not successful. It also was something that was popular in the 90s in Europe but people moved away from it because it was largely deemed a failure.
+Edit: It has been made clear to me that wealth taxes exist in the following countries: Netherlands, Norway, Switzerland. France is switching/switched? To a tax on real estate which is similar to what Portugal has. Note a high effective tax rate on income is not the same as a wealth tax.</t>
+  </si>
+  <si>
+    <t>I would suggest that when discussing one country's politics, using another country's standards can be a little misleading. Another country being much more to the left of the United States doesn't change the fact that policies like Sanders' would represent a major shift to the left *for the United States*.
+For perspective, think about doing the opposite. Let's say Norway had a conservative Christian presidential candidate who wanted to slash social programs and taxes. He might be labelled a reactionary, but we could in theory say 'well actually he's not all that right wing, he's actually only a little bit to the right by American standards.' The fact that he might even struggle to fit in with Republicans probably won't matter to Norwegians - electing him would represent a huge shift to the right *for Norway*.
+All that said, right wing media does have an explicit political strategy of labeling anything to their left socialist or radical, so I don't think you're off base in general, but I do think it's appropriate to say that the country's political climate is more relevant than the globe's political climate when it comes to how much of a shift one candidate might represent; the United States could in theory be like Norway and Norway could in theory be like the United States but that kind of change would involve a massive political and social undertaking by either country, which would be relevant in a political discussion and is the exact kind of point that's getting dismissed when one says "Candidate X isn't really all that radical; he'd be a moderate in Country Y."</t>
+  </si>
+  <si>
+    <t>With respect to Warren, I would agree with you. She's absolutely on the left with her belief in wealth tax, nationalised healthcare and "economic patriotism", however she has also said that she is "a capitalist to my bones". As far as I'm concerned, she understands the unique ability of private markets to create wealth and prosperity, but wants it to be better at distributing wealth. She believes in reforming American capitalism to be more equal, not abolishing it. I would compare her to Jess Phillips, an undoubtedly left British Labour party MP, but also one of the most outspoken critics of it's far left leader, Jeremy Corbyn.
+Bernie is different. He has, in the past, called for the nationalisation of major industries, including banks, expressed support for Fidel Castro and took a honeymoon in the Soviet Union. There is no precedent for this in any West European country. If Bernie were British, he would be one of Jeremy Corbyn's closest allies. If he were Dutch he would be on the leftmost fringes of the solidly left Socialistische Partij.
+His signature policy, Medicare for All has no European equivalent, not even the British National Health Service, which has a small number of private contracts, in addition to dentists and GPs being privately run. Private health insurance is not illegal and there are a small number of private hospitals run in the UK. Most European countries have better, more liberal systems, for example, the Dutch, who have one of the best in Europe. In the Netherlands, most hospitals are run by private, non-profit foundations, with people are free to choose between a wide variety of private health insurance plans, with all citizens required to have insurance source . This is much more similar to the healthcare policy of Joe Biden, Pete Buttigieg and Mike Bloomberg, a public option where people can choose the healthcare plan right for them.</t>
+  </si>
+  <si>
+    <t>I share your basic view that Warren and Sanders are not radicals.
+But I want to vet out some of the reasoning youve got here.
+But that wouldn’t make them not radical right? Or are you asserting that their plans are not unconstitutional? Because a wealth tax actually might be.</t>
+  </si>
+  <si>
+    <t>There are some aspects of Sanders plans which would be radical in Europe even if you believe they would be challenged in a court they would still be "radical".
+A $15 minimum wage would be the highest in Europe and $5 more than any country outside of Luxembourg
+His plan to mandate that workers are given a 20% share of the company is unlike anything in Europe. They considered it in Sweden but scrapped it.
+Spending $800 billion on forgiving the student loan debt of people with post grad and professional degrees doesn't have a comparable policy in Europe, but their post grad degrees aren't free so making them retroactively free would be pretty radical.
+The median democrat in America would be pretty left wing on positions like abortion and while Bernie has been a centrist on immigration for most of his career, he's shifted very far left to what is normal in Europe</t>
+  </si>
+  <si>
+    <t>It's definitely is a complicated situation, mixed in with the complicated politics of the #MeToo movement and the importance of the 2020 election. However, I want to make a few points:
+As others have pointed out, Reade's allegations have serious credibility issues. First, the nature of her allegations about Biden has changed over time -- last year, she said that his tendency towards touching would make her feel uncomfortable, but that she never felt sexualized; now she's accusing him of violent sexual assault. Second, she claims to have filed an official Senate complaint against him after the alleged assault, but no one has been able to find record of such a complaint. Third, none of Biden's former Senate staffers from the time period corroborate her account of his general behavior or of having heard any rumors/complaints about any such assault. And while she claims to have corroboration from friends and family, it's unclear which allegation they're corroborating: the uncomfortable, but not sexual, atmosphere/touching or the outright sexual assault. Fourth, as recent as 2017, Reade was actively praising Biden for his contributions to protecting women's rights, including sexual assault victims, as well as his support for the #MeToo movement. Fifth, she went through a recent period of an almost obsessive praise of Vladimir Putin (including claiming that the reason she left DC was because she was sick of the U.S. government's anti-Russia sentiment). Sixth, if something this significant were out there, you would think that it would have been discovered during Biden's vetting by the Obama campaign in 2008 (and subsequently resulted in him not being tapped as VP). Seventh, while she made headlines last week by formally filing a criminal complaint with D.C. Metro Police re: the assault, in the complaint, she specifically does not name her alleged assailant. However, she has repeatedly stated on social media and in further interviews that the complaint is about Biden. Why is this a problem? Because if she's willing to very publicly name Biden as her assailant, why would she not name him in the criminal complaint? Raises strong suspicions that she's covering her bases to avoid possible "filing a false police report" charges. Finally, the intentional timing of her disclosing her allegation -- on Super Tuesday, with at least a week of teasing build-up -- adds further suspicion to her motives/credibilty. TL;DR: there are several reasons to question the credibility of this allegation.
+The "Left" has been discussing the allegation -- it's just not receiving front page, all-consuming coverage like the Kavanaugh allegation. And while there is probably a degree of partisan bias behind that difference, there's also contextual differences as well. Ford's allegations against Kavanaugh were determined to be fairly credible (certainly enough to warrant deeper investigations). The nature of Kavanaugh's nomination placed greater weight on examining it publicly -- he was up for a lifetime appointment to the U.S. Supreme Court, and the GOP was working to rush through his confirmation. The Kavanaugh hearings also happened during the peak of the #MeToo movement and during a period where it was the dominant political news story. Right now, #MeToo has largely fallen from the public spotlight, and the nation's focus is trained on the coronavirus pandemic and resulting economic recession. Even with all that, publications are discussing this assault -- from various Medium articles, to the initial SoundCloud interview where Reade released the allegation, to the recent NYT investigatory piece on it. It's not being ignored.
+The other allegations against Biden largely focus on his touching -- none of them accuse him of predatory behavior, but rather inappropriate/uncomfortable touching/holding. This has largely been digested by the public already (hell, it's been a long meme/joke about Biden dating back to the Obama years). The general consensus seems to be that Biden is simply from a different generation, where people would touch/hold each other more often as a point of human contact/connection, but that sentiment about these kind of things have changed. Biden even acknowledged as such and promised to be more cognizant of his actions (and we haven't seen any novel complaints about him since).
+In examining how this will play into the race against Donald Trump, it's hard to really say, but I'm inclined to think (for now) that it won't be a decisive factor either way. Trump has many more credible sexual assault accusations against himself. And in consistent polling, Biden wins a resounding majority of female voters against Trump, in no small part because they support Biden's politics/agenda over Trump's.
+Should we dismiss these allegations, particularly Reade's, simply out of hand? No, of course not. The whole idea behind "believe the victim" is that you take allegations seriously and investigate further. However, if the allegations are determined not to be credible, you don't push further, especially when additional avenues (such as criminal investigations/court proceedings) are unavailable (here, due to the statute of limitations). Personally, it seems the people trying to elevate this to a dominant news story/issue are: (1) Trump trolls, and (2) disaffected Bernie supporters who are looking for any excuse not to support/vote for Biden in the general election.
+EDIT: I want to respond to a repeated point raised in some of these responses (and it's easier to do via an Edit than responding to each individual comment). Re: the comparison to the allegations against Kavanaugh:
+No, I am not saying that the presidency is less significant/important than a seat on the Supreme Court, nor am I saying allegations against a presidential candidate/nominee don't matter. My point was:
+The Kavanaugh situation was on a rushed timeline -- Kavanaugh was nominated in July 2018 and the Senate Republicans wanted to quickly push through his confirmation in case the Senate somehow flipped party-control following the 2018 midterms (something that was a possibility by that point in the year)
+Additionally, given the lifetime nature of a Supreme Court seat, there was added urgency to address this allegation before he was confirmed (as no Supreme Court justice has ever been impeached, let alone successfully removed from the bench, in U.S. history) -- together with #1, this created a stronger sense of urgency and magnitude to the allegation
+Ford's allegations against Kavanaugh were, IMO, far more credible compared to Reade's allegations against Biden
+EDIT 2: Striking portion re: Reade's alleged corroborations not being specifically about the alleged assault, as /u/debasing_the_coinage corrected.
+EDIT 3: Adding in another red flag re: Reade's credibility -- in the Metro PD criminal complaint that she just filed last week re: the assault, Reade specifically does not name Biden as her assailant, however, she has stated on social media that the complaint is about him. If she was willing to publicly name Biden as her assailant, why would she not name him in the complaint? (hint: lying on an official police report/complaint is a criminal offense)</t>
+  </si>
+  <si>
+    <t>I encourage you to look through this:
+https://medium.com/@eddiekrassenstein/evidence-casts-doubt-on-tara-reades-sexual-assault-allegations-of-joe-biden-e4cb3ee38460
+Biden's accuser is just about the least credible account you can imagine. Her story on just about everything has changed. She used to tweet about how great Biden was on these same kinds of women's issues. She said just last year there was nothing sexual.
+People seem to want us to have it one of two ways: A) Either we basically ignore potential victims entirely, letting sex criminals advance in politics untarnished, or B) We allow this to be partisan warfare, where the opposing side can end the career of whoever they want by dragging out some obvious charlatan.
+I suggest a middle ground, where we give credence to credible claims and ignore claims that are not.</t>
+  </si>
+  <si>
+    <t>Has the left done this? It seems like the allegation is being written about in newspapers, and figures on the left have given their position on the matter. Generally the position is that she deserves to be heard but we can't presume her story is true.</t>
+  </si>
+  <si>
+    <t>Okay, let's be honest - if Biden loses the election OR gets replaced by another candidate, it isn't going to be because of these sexual assault allegations. It's going to be because he is getting old, unable to show a lot of confidence when he speaks, and makes a lot of small/disturbing/"not sit so well with my gut feeling" mistakes whenever he's on camera due to his own lack of awareness.
+People vote with their gut. Trump has some rapey allegations just like Biden, so they're on an even playing field to that regard. If Biden loses, it'll be because he is weak in every other aspect.</t>
+  </si>
+  <si>
+    <t>I think the biggest reason there's no point to getting into it further is that there just isn't anything else to discover. The accuser has some credibility issues, but could be telling the truth. However, there isn't any investigation that could be done now to help further. There are no similar cases and no corroboration other than two or three people she has talked to about it, and they are already on the record. With Kavanaugh, there were many avenues of investigation to be explored but they were dropped. I doubt there are many minds out there waiting to be changed and there certainly isn't more evidence out there waiting to be discovered.</t>
+  </si>
+  <si>
+    <t>I think the allegation against Biden is serious and should be investigated. That being said, I disagree with your claim that the accusations against Biden is any less significant (or perhaps worse) than the multiple allegations against Brett Kavanaugh.
+As far as I'm aware, one woman has accused Joe Biden of sexual conduct. On the other hand, there were at least three different women who accused Brett Kavanaugh of sexual misconduct. And Christine Blasey Ford is about as credible a witness as you could get. Her story was corroborated by her husband and her therapist at the time and she even passed a lie detector test in relation to her allegations.
+So to summarize, the allegations against Brett Kavanaugh were more serious because there were many more of them and they were investigated and found to be credible.
+Also, it seems odd to compare the allegations against Biden to the allegations against Kavanaugh. Why not compare the allegations against Biden to the allegations against Trump?
+The allegations against Trump are much more serious that allegations against Biden. At least 25 different women have accused Trump of sexual misconduct - https://www.businessinsider.com/women-accused-trump-sexual-misconduct-list-2017-12
+And he was caught bragging about sexual misconduct on an Access Hollywood tape.</t>
+  </si>
+  <si>
+    <t>Tara Reade Interview
+Because people refuse to refuse to even look glance over the medium article to determine the veracity of their claims.
+One claim was that Tara Reade has 2 apparent conflicts of interest.
+She supports Biden's political rivals, Bernie Sanders, Andrew Yang, &amp; Elizabeth Warren.
+She was suspiciously fond of Russia &amp; Putin at a key point in the Biden campaign.
+For those who refuse to read the article because they don't trust Medium, here is a different source, where Tara herself validates some of the claims in the Medium article. Clearly the article contains some substance.
+Does this make the allegations "not a big deal"?
+I don't personally think so. Neither claim means she must not have been violated years ago. She reported the incident at the time &amp; so it's possible she was motivated (like Dr. Ford v Kavanaugh) to speak out again, when she felt obligated to prevent an abuser of power from obtaining more power.
+However, the possibility still looms that the claims against her, that she acknowledges and explains away, are primary and even sole motivators for her stepping forward.
+So maybe if OP could lay out what constitutes "a big deal", we could be better able to see if this view can be changed.
+What constitutes a big deal? Is it the severity of the accusations? The credibility of the accuser? The consequences of the courts officially hearing/dismissing the allegations?</t>
+  </si>
+  <si>
+    <t>I haven't looked into the details of the Biden accusations. When they came out I was supporting a different candidate anyway, and after that I was preoccupied with pandemic news.
+Which is my point: regardless of the merits of the case, there's just other stuff dominating the news right now. We wouldn't have seen Kavanaugh on the news 24/7 either, if we'd had a pandemic at the time like we're having right now. Having to stay home all the time so you don't catch a deadly virus has a way of making other news seem less significant.
+Ultimately I expect the pandemic to be the dominant issue by far in the election. If the accusations are credible and Biden gets elected, then I'm sure Republicans will push the issue hard after the pandemic dies down, but I don't think they'll get much traction before there's a vaccine.
+Trump's team seems to agree with this. Essentially their entire presidential campaign now is their daily press conferences, which lately even have their own TV ads. They barely talk about Biden at all.</t>
+  </si>
+  <si>
+    <t>I think context is very important in this matter. I grew up when Clarence Thomas and Anita Hill became household names and it almost felt like an earthquake that lasted for years if not decades. Every job adopted sexual harassment policies, politicians and business leaders resigned or were jailed. Movements came along and momentum really seemed to build where this type of behavior wasn’t acceptable or tolerated anymore in society. Then, obviously, something changed, some special exception to the new rules but not just one exception.
+Donald Trump was elected in the face of very credible rape allegations(E. Jean Carroll has an ongoing lawsuit Trump wants to stop, using his Presidential Powers). Trump was shown on video, in his own words bragging about sexual harassment(possibly assault) and he was elected anyway, not with shame or regret but with pride, bombast, and impunity. When Cavanaugh was nominated and they dredged up ancient history to go after him that seemed like a bit of a stretch but the worst case scenario is that they nominate another Republican who has no history or accusers.
+Now, the reason the context is important here is that we had a big cultural moment, most people seemed to agree sexual harassment was bad, and we were building on that. Now we’re told that if you’re a Presidential nominee it’s not that important or at least not nearly as important. If you’re nominated to be a Supreme Court Justice and you’re on the right side of your party’s abortion stance, well, it’s really not as important as having someone with Ivy League credentials who’s been vetted by the John Birch Society for Conservative purity.
+Now that’s the current context for Biden’s nomination and his behavior. I personally find the man harmless, perhaps odd in an older generation way, but harmless. If he really sexually assaulted that lady I’d like a lot more evidence than we’ve seen so far. Even if that evidence is forthcoming the standard for a Presidential candidate who could win is now, “but did he deny it?”. If Biden denies it and hasn’t been convicted of anything I’m giving him the benefit of the doubt here. There is no need to toss Biden off the ticket when, by any measure, the accusations against him are far, far less serious than the accusations against Trump. Let’s vote based on their policies and what they done while in office, there is no need to ask Biden to commit political suicide to prove he’s more pure on the sexual harassment issue. There are a lot of issues besides that one to deal with at the moment.</t>
+  </si>
+  <si>
+    <t>I'd suggest reading this article. TLDR is: what you see as 'bad marketing' by the left, is by and large actually excellent marketing by the right, who goes to great effort to find and magnify the worst and most strident/belligerent/insulting/extreme/foolish voices on the left, and pretend that they represent the mainstream left and the voice of the movement. The left does the same to the right, of course, pretending that the average R voter is a q-anon truther in between Proud Boy meetings, and piling on ass much cherry-picked evidence as they can to support this claim.
+When you look at the actually leaders of the Democratic party, when you look at high-level thought leaders and people of importance on the left, they don't use the strident and alienating language you're talking about here. They market the ideas well and are inclusive and welcoming.
+The only reason it sems otherwise to you, is because of dedicated enemy action.</t>
+  </si>
+  <si>
+    <t>IMO the sooner people stop squabbling over gender, sex and racial rights and people start discussing wealth inequality and the unfathomable power the multimillion and billionaires hold on an international scale the better.
+All these issues matter, but wealth inequality has to be by far the worst offender, and the one people seem to care the least about.
+I don't think it's always the lefts fault- the right wing media portray left leaning policies in extremely negative light and manipulate the public view. The take political leaders who they deem threatening to their profits and bottom line like Bernie Sanders and Jeremy Corbyn and make years long smear campaigns to make them unelectable to the fickle masses who lack any kind of independent critical thought.
+The amount of people who actively vote against their own best interests is laughable. If you are right wing and you don't earn a significantly above average wage you are shafting yourself</t>
+  </si>
+  <si>
+    <t>While a commendable view, this creates an issue of perverse incentives.
+As it stands - the justice system is encouraged to incarcerate the guilty and release the innocent. If an error is found, and can be proved in court, it is in the interest of the state to release the innocent. Jailing someone costs $.
+However, by compensating released individuals, you have created a reason for the state to NOT release innocent individuals. It may well be in the state's financial interest to keep them incarcerated rather than pay your proposed fee.
+This results, in DAs fighting to keep innocent people in jail, rather than incentivizing DAs to release people who are innocent.
+Edit: Given the large # of responses to this, I will try to respond here, rather than to you all individually.
+There is more to life than economic incentives. There are moral incentives, there are social incentives, there are psychological needs, etc. The point I was originally attempting to make goes something like this.
+Governments run smoothly when moral incentives and economic incentives align.
+Currently, moral incentives and economic incentives are aligned. Incarcerating the guilty and releasing the innocent makes sense both morally and economically. Yes, there are personal incentives (such as: that case really make my career, therefore I personally don't want to reverse my position) so the current system isn't perfect, but at least the moral and economic incentives were aligned, even if occasional personal incentives did not.
+Introducing OPs proposed payment changes this. Now the moral incentive to incarcerate the guilty and release the innocent is opposed by the economic incentive to not release anyone once they are incarcerated, guilty or not. This isn't to say all Court officials have no heart, and wouldn't follow the moral road - but things do tend to run much more smoothly when moral incentives and economic incentives align rather than collide. I've heard people mention payments approximately equal the cost in incarcerating. This produces skew incentives - moral incentives which aren't linked to economic incentives. Skew incentives are better than opposing incentives - but aligned incentives are better than skew incentives.
+Therefore, it is better to leave things as they are, rather than introduce OPs proposed payments.
+Or phrased much shorter - People follow the money, people also tend to me moral. When the moral thing, is also the economic thing, there tends to be high compliance. When the moral thing and the economic thing counteract, people are less likely to do the moral thing, relative to when the moral thing and the economic thing coincided. This isn't to say that people aren't moral, but acknowledges it is easier to do the moral thing, when it is also in your economic interest to do so, relative to when doing the moral thing is economically costly.</t>
+  </si>
+  <si>
+    <t>What is "relatively comfortable"? You can't buy all the people who look at you as prison garbage. Turn you down for a job because of a background check. You can't buy back YEARS of missed birthdays, sporting events, anniversaries, marriage, having children, watching kids grow up, going to your own mother's funeral. Sitting in a jail cell year after year. Getting beat up or worse in jail. Seeing life pass you by on the other side of a fenced in prison yard. Somethings just can't be bought with money.</t>
+  </si>
+  <si>
+    <t>Just because a person is found "not guilty" does not mean they are innocent. You may be paying for someone who did commit a crime to live out their lives in more or less comfort just because a reasonable doubt was introduced.
+I think this is something better handled by private means. You (or anyone else) could start a charity to give money to people who are wrongfully convicted and serve jail time.</t>
+  </si>
+  <si>
+    <t>With what money? What do they get, 100k per year? More? This would be your tax money spent on that, so do you not think there would be better uses for that money?</t>
+  </si>
+  <si>
+    <t>There are some people who actually prefer being in prison, criminal gangs often use such people to take the fall for the real perpetrators of crimes. If you implemented this it would relatively easy to withhold evidence of your innocence until the time is right. You could arrange so that some irrefutable proof of your innocence comes to light 1 year after your incarceration to earn a big paycheck.
+Also, I have seen often cases where people are deemed innocent because of technicalities like incorrect police paperwork filing and such, it's not a perfect system.
+Personally I would imagine the kinds of people who are most likely to fall through the cracks of an imperfect justice system and be wrongly incarcerated are the ones with a criminal history. At the end of the day it's about whether or not the judge or jury have been persuaded "beyond any reasonable doubt" of guilt. So it stands to reason that they would be more likely to find demonstrably bad people guilty.
+Obviously it doesn't excuse anything, nor can you assume it applies to all cases but it is kind of hard to sell tax payers on the idea that their money should go towards government cock ups, especially when they are something of a grey area.</t>
+  </si>
+  <si>
+    <t>If a person were convicted by a jury of their peers and spent time in jail, that person should receive no restitution at all if the conviction is overturned-except in circumstances where tampering became apparent. I strongly believe that even if new (not intentionally concealed) evidence is introduced later which causes a person to be freed, compensation shouldn't be granted. The justice system is in place for a reason and is one of the few processes in the u.s. government that actually works.</t>
+  </si>
+  <si>
+    <t>Controversial or new. Hot is pretty similar to best</t>
+  </si>
+  <si>
+    <t>What really counts as an unpopular opinion is much harder to judge online than you might expect, especially on a site like reddit that's full of communities whose members self-select. It's easy to get a skewed impression of where you stand in relation to the general public.
+Let me use myself as an example.
+I listen to a lot of music that the average person hasn't heard of, yet if I posted about them in r/music the attitude would be that of course everyone's heard of them. I'm more into watches than most people in real life, yet when I go onto r/watches, it's easy to feel like I'm the only one without a Rolex or an Omega.
+Similarly, you might post an opinion on r/unpopularopinion and be completely shocked that an opinion you've never heard expressed in real life is considered completely run of the mill.</t>
+  </si>
+  <si>
+    <t>I suppose that an argument could be made about the fact that unpopular does not have to mean controversial. Like you said in your OP, many of the opinions posted are views that one wouldn't think of at first. If many people wouldn't think of them at first, that is, by definition, unpopular.</t>
+  </si>
+  <si>
+    <t>That's only true for the top posts. r/unpopularopinion is not supposed to be sorted by best, because people will vote up opinions they agree with so those posts will be popular. But that's just selection bias.</t>
+  </si>
+  <si>
+    <t>It’s for popular opinions. Truly unpopular opinions most people don’t agree with and won’t upvote. I posted something I believe and knew it was unpopular and it got downvoted. Because of that less people see it and there’s no discussion about it.</t>
+  </si>
+  <si>
+    <t>Eh, I would say “hot takes” implies that the ideas are, in some way, novel or provocative, that’s what makes them “hot.”
+I find that a lot of the “unpopular opinion” posts are just rehashed right-wing talking points, “women are the real sexists,” “minorities are the real racists,” “LGBTQ people are the real bigots” make up half the front page at any given time. Those aren’t “hot takes” at all.</t>
+  </si>
+  <si>
+    <t>My favourite chocolate bar is a Bounty. Controversial enough for ya?</t>
+  </si>
+  <si>
+    <t>The problem is that lawsuits against only the officer don't really happen. The city is included (and usually the main defendant) in the lawsuit.
+I think requiring the cops to carry insurance to cover legal fees would work better. It doesn't immediately cripple someone's finances if they are sued, and begins to force them out of the job as soon as questionable behaviour starts, as opposed to just going on admin leave the first few times. Treat it like car insurance where premiums go up very quickly even with relatively small infractions and have incentives for time without incident.
+Better yet, have the insurance pooled between each precinct, or even each city, so that one guy being a shithead will cost all the other officers more money in insurance premiums. It would make people think twice about hiding smaller infractions since they show a propensity for worse behaviour. You just have to make sure that the premiums don't go up for the group if the bad officer is fired and that cover ups have huge premium increases, otherwise there is more incentive to hide bad behaviour.</t>
+  </si>
+  <si>
+    <t>Nothing about this seems fast, to me. Going into the weeds of making them "accountable" would be fighting the police union and require sweeping police reform and would take years upon years.
+As /u/MrEctomy said, a simple way to curtail this in the short term is body cams. This does a lot of things and almost all are beneficial for those involved, even cops.
+Another thing that would be quicker than what you suggested is to stop using "shoot first, ask questions later" thinking. Many police departments don't give de-escalation training, this training would hopefully help mitigate police shootings by giving cops tools to use when a situation is escalating. This training would curtail unarmed victims being shot by police which are roughly half of cop shootings a year. A reform about how cops are taught, and maybe also increasing the requirements to be a cop beyond just a high school diploma, would be a great start to reforming police from within.</t>
+  </si>
+  <si>
+    <t>I would argue the most efficient way to end police brutality is to eliminate the police force.</t>
+  </si>
+  <si>
+    <t>The fastest way is to build a system that requires little or no oversight to work correctly. Imo, professional liability insurance is the way to go. Municipalities cover the base rate earned from no dings on your record as a police officer in good standing. For every ding, rate goes up and the difference comes out of the officerOR the cities. Either way, dings stay with the officer for life so they cant just go work next door. Bad officers become uninsurable and are not able to keep gainfull employment. Problem solved in no time.</t>
+  </si>
+  <si>
+    <t>I will pinpoint the Mitch McConnell argument, which I hear often. McConnell is the majority leader in the senate, who was chosen by the senate Republicans, who hold the majority of the seats in the US senate. The bills he decides not to bring to the floor are bills which would not pass anyway, since the Democrats would need Republican votes. If the Democrats held the majority of the seats, it would be the same way. McConnell isn't this legislative grim reaper that he is portrayed, he just saves time (and thus taxpayer dollars) by not bringing bills to the floor that wouldn't pass anyway.</t>
+  </si>
+  <si>
+    <t>You're going about this the wrong way. Extraordinary claims like yours require extraordinary evidence. Not circumstancial assumptions like you've put forward. If you start your argument with the presumption that the GOP will behave in an evil manner and you expect others to disprove you, you'll always find some other assumption or perspective to make you stick to your old beliefs.
+If you're suggesting that the GOP is going to do something ludicrous as make Trump a dictator, it is incumbent on you to back up your statement with conclusive evidence that isn't based merely on your strong impression against them. This is politics. Everyone says shitty things. Anyone can have a strong impression for or against anything. It is definitely not incumbent on someone else to prove your assumptions wrong.</t>
+  </si>
+  <si>
+    <t>The USA is not and has never been a fully democratic system. In a fully democratic system citizens would vote on every law. The USA is a constitutional republic where people elect representatives who then go and vote on their behalf. Throughout history this election system has favored one party or the other with each using it to their advantage where possible. Democrats gerrymander districts when they have the chance, it's just that republicans were much more successful back in 2010 then democrats. I'm not saying the system isn't broken, but if it is broken, it has been that was for MUCH longer than Trumps presidency. Democrats haven't been successful recently in using the system to their advantage so they have been stirring up anger at the system. The system isn't perfect, but there is definitely a portion of the outrage that is purely political.</t>
+  </si>
+  <si>
+    <t>This is true. The GOP has successfully, due to Trumps influence and popularity, been changed from the traditional conservatives we have become accustom to to a centrist populist party. I will say this plainly as I don't know how to soften this sentiment, so apologies if it comes across as overly confrontational. I balance my news and politics across both moderate liberal and conservative sources and the side that is talking about a coup are liberals who won't accept Trump winning again, they haven't really accepted that they lost in 2016 so this is an escalation of "not my president" sentiment. This is what might come across as confrontational, your opinion is a reflection and is not based on reality. People supporting Trump are convinced they are going to win, they spend next to no time even considering a loss, it is the left that is thinking about what they will do after losing again. Something I need to disclose is that I see this push for mass mail in voting, where everyone registered to vote gets mailed a ballot is a means of obfuscating cheating this election, it is the left that is desperate and cannot fathom a loss and will act indignantly if it doesn't work, not the right.
+Among black Americans UCLA conducted a survey, their findings showed that among black Americans 30% aged between 30-44 viewed Trump's first term as being very favorable with 20% being favorable. This is scaring the living shit out of the Democratic apparatus if this election goes to Trump and he continues to have a real positive impact on the economic position of black Americans like he has the 13% of black Americans, that have voted Democrat at a 90+%, will likely never again be the guaranteed democratic vote that they have been for 40 years. If black Americans embrace the Blexit movement it is the Democrats who will need to change their tune to have a fighting chance in national elections for the foreseeable future.</t>
+  </si>
+  <si>
+    <t>I think you misunderstand the body-positive movement. First and foremost it attempts to disconnect that the entire idea of self-worth, how people see you and what your social/economic value is is wrapped up in your body. It's often seen as emphasizing the value of the body, but this is a misunderstanding - it's about emphasizing how awesome a person is and that the body's appearance should not have a negative impact on one's awesomeness.
+the incumbent reality is that the body is a source of negativity - almost universally. And...that negativity isn't about "health" it's about personal worth. So...the point to take away is that no matter what your body looks like you are an awesome person. Feel positive and don't let body negativity take hold. It's perhaps an awkward opposite, but it strikes me that you're seeing things through that opposite lens in an off way.</t>
+  </si>
+  <si>
+    <t>I generally agree with you.
+However, a thing to understand about obesity is that it is typically not a choice, must like homosexuality, etc. People don't wake up one day and say, "Hey, I'm going to work on getting really fat" and they eat huge amounts of of food they don't really want just to reach their goal of fatness.
+I work as a therapist in psychology and obesity is ALMOST like an eating disorder and I believe one day it will be considered one. Just recently "Binge Eating" has made it into the realm of something see as a mental problem. It is my experience that many people overeat due to loneliness, depression, stress, and so forth because they are trying to feel good but don't know how. There are also people raised by fat people and they have no clue who they got fat, but just I have no clue how I learned English. I don't recall learning it because it's been happening since day one.
+So, obese people are most likely suffering from mental distress of come important variety and eat as a coping mechanism. It's like being a legal drug addict. Also, many fat people no nothing else because they were raised to be fat by fat people. So, they are innocent of being irresponsible for their health. Thus, we can't be mean to either group.
+However, the body image movement needs to change from total acceptance to one of accepting encouragement. It is not okay to be a drug addict and it is not okay to be ignorant of the world around you. Obese people are one of these things and it's not okay because obesity is deadly.
+Obesity isn't the same as skin color, clothing taste, etc it's a condition that can lead to destruction. It is one of the reasons people shun obese people because they are a bad bet to be around regarding the future, just like have a heroin addict loved one is scary and not desirable.
+Just like addicts need support and encouragement, so do obese people. What they don't need is "enabling" behavior where they are encouraged to be obese.
+You are against that but I'll bet you are for encouraging people to feel good and do better, right?</t>
+  </si>
+  <si>
+    <t>I’m yet to hear a convincing argument why a movement that is literally positivity needs gatekeeping?
+I know of people who look very healthy, but actually hate themselves and the way they look, and starve themselves / do other unhealthy things in pursuit of a physique they think is idea (but turns out it never is).
+I’d argue that body positivity is for anyone who does not identify with their own skin.</t>
+  </si>
+  <si>
+    <t>I believe this narrows the influences that can cause someone to be overweight into a needlessly smaller group. Down syndrome, visible disabilities are a lot easier to categorize. But there are economic and psychological issues that are harder to diagnose that also impact ones diet and body. Food deserts are a perfect example, stretches of land that are barren of nutritious / affordable food, often with higher populations of lower income people. These people are bound to gain weight more than those who have accessible, affordable, nutritious food. They're a product of their environment, and it may take more $$$ to escape that reality.
+Then there's addictive tendencies. Body positivity extends to annorexia and bulemia as well, and their less well known counterpart binge eating disorder (BED). Compulsions that arise from upbringing / other outside influences compelling unhealthy behaviour. Stating that because its not an unchangeable disability means that they should be shamed for it, or shouldn't feel accepted, doesn't make it any easier to fix and increases suffering.
+Body positivity tries to decrease the shame and self-hatred that people may already be experiencing, because for many self-hatred is not a motivating factor and doesn't address the root cause.</t>
+  </si>
+  <si>
+    <t>A lot of people are overweight because of unchangeable disabilities.</t>
+  </si>
+  <si>
+    <t>It’s not that pulling out of Afghanistan was the wrong decision. Bringing our troops home and trying to end wars is a good thing, but the issue is with how it was done, and how quickly all of our efforts were basically vacuumed up. We spent 20 years there. Thousands of troops back and forth, lives lost, and the Taliban take it back in less than 2 weeks? It leaves a sour taste in your mouth, especially for our veterans who risked their lives to try and help stabilize things over there. To have 20 years worth of time and energy crumble so quickly… it pisses you off. It makes you feel like it was all for nothing. That you risked your life and watched friends die for nothing.
+It makes you wonder what the hell we were even doing over there. If we couldn’t help the Afghani people stabilize their country enough to manage 2 weeks without us, it makes it all feel like it was in vein. That’s why people are pissed about it. If you spent years doing anything and it went up in flames within 2 weeks the first second you looked away… you’d be absolutely devastated, and a lot of people are feeling exactly that.</t>
+  </si>
+  <si>
+    <t>It was Trump who got the troops out, they were supposed to leave in May and Biden delayed it.</t>
+  </si>
+  <si>
+    <t>I think this whole discussion is moot and drastically misses the mark considering the underlying issues that are masked by arguments over symbols which (as other people are correctly noting) mean very different things to different people.
+I agree that you can make a case for the hypocrisy of people being up in arms about football players taking a knee during the national anthem, yet being okay with what is obviously (to you and me) a symbol of racism and rebellion against the US. But calling out hypocrisy is the low-hanging fruit of political discourse. We all seem like hypocrites to one another because we have different underlying values.
+The entire issue here is that when Kapernick and others take a knee, it was never intended to be against the anthem or against the military. The fact that right wing pundits disingenuously swept under the rug the actual purpose (being against police brutality), is a good indicator that their coverage was simply culture war bait, and I think in some sense we're taking that bait by turning their logic around. This is the same culture war bait that mainstream center right and center left lapped up when Obama was accused of being anti-American (like that means anything) for not wearing a flag pin on his lapel or wearing (gasp!) a tan suit.
+We should be rejecting the premise that anybody has to stand for symbols when there is so much rightful dispute over what those symbols do mean and should mean.
+This is a very American discussion in that we're one of the only countries that obsesses over our flag and our symbols, so let's not get trapped into thinking that having respect for symbols is an inherently moral position. This discussion should be about values.</t>
+  </si>
+  <si>
+    <t>I agree that's hypocritical, but it is similarly hypocritical to kneel for the anthem and expect others to take your word for why you are kneeling for the anthem and then to call someone a racist for flying a Confederate flag even when they tell you that that is not why they are flying the flag.
+Attacking one another for hypocrisies like this is kind of a waste of time. As is spending so much time attacking each other for what we believe to be the symbolic meaning of each other's actions rather than just taking each other at our word when we explain why we are flying a certain flag or kneeling for an anthem.
+If someone says that they are kneeling for the anthem for a specific reason, I'll take them at their word. I'm not going to assume that my interpretation of their motivation and intention is more accurate than their explanation of their intention.
+Same goes for a Confederate flag. If someone tells me that they are flying it because it's a symbol of their heritage, and not because they support racism or slavery, then I'm not going to get too worked up over it.</t>
+  </si>
+  <si>
+    <t>Let me first say I’m not from the South so this is not something that applies to me personally. However, I have a ton of friends who are, so here’s my take:
+It’s cultural. “Heritage not hate” is cliche but it really does seem to describe the situation. A lot of my friends who do show pride for the Confederate flag, on Instagram and Snapchat, are doing it in a completely benign, unmalicious way. It’s not even done in a political context. Many of them are nonwhite - the one I see posting it most often is half-black, half-Asian, and she doesn’t even follow politics. Some of them are white, and they’re some of the nicest people I know. I can understand why a lot of people may associate it with racism, because it’s only shown in the media when some dumbass Nazis use it in a rally or something, but in reality that’s a tiny minority of people who unironically display it because they think “the south should have won!”
+As for kneeling, in many cases, these are people who, frankly, genuinely dislike America and everything it stands for. In some cases, it’s the same people burning the American flag. Let’s not go too deep into that, but suffice to say, they see the American flag as a symbol of “systemic racism”, and “white supremacy”, and that’s why they’re kneeling.
+On the other hand, the people I see displaying the Confederate flag often display it alongside the American flag, and with great pride. It’s not a question of either or, it’s both. Like displaying your state’s flag. They don’t believe in the Lost Cause, and these are people, if you did a survey/poll on their views of America, I am 100% confident would be more patriotic than the aforementioned people kneeling for the flag.
+Again, this is just my own experience with Southerners. There are racists out there, but they’re in the vast, vast, minority.</t>
+  </si>
+  <si>
+    <t>Here's the thing: even if what you're saying is true, it could be argued that it's irrelevant, because pretty much the entirety of the anthem kneeling issue was focused around NFL players kneeling during the anthem, and AFAIK not one player ever waved the Confederate flag around during the anthem.
+This is like saying 'flipping the bird during the anthem is more disrespectful than kneeling'. Well, ok, yeah, but no one is doing the former.</t>
+  </si>
+  <si>
+    <t>Depends.
+Kneeling and the confederate flag are both symbols. Symbols can be interpreted many different ways.
+Kneeling is sometimes used to symbolize respect by kneeling in prayer or kneeling before a king.
+Kneeling can also symbolize refusing to stand at attention and refusing to give respect. Or something different altogether.
+It depends on the eye of the beholder.
+The confederate flag could symbolize the Southern attack on the United States. But it also could just be used because the Dukes of Hazard had it and it looks cool.
+Kneeling and flags are symbols. Symbols can mean different things to different people. Which one is more disrespectful is going to be different for everyone.</t>
+  </si>
+  <si>
+    <t>I won’t repeat what has been said above, but just want to throw this out regarding people being offended by Kaep kneeling. The only real uniting identity that the average white person has is being an American. Smaller religions (Jews, Mormons, JW, etc.) have that, but to those white outsiders who don’t, their only sense of uniting pride is being an American. The crowd that got angry about Kaep kneeling genuinely did not see it as a protest against police brutality/etc, they see it as a someone disrespecting the one uniting factor they have (the American identity, the flag, supporting the troops they believe their patriotism is supporting.) Black Americans have their community (brother, sister, etc), the LGBTQ+ have that common thread that holds them together, Latinos, Jews, Asians, and other all have that common bond. White Americans don’t have anything similar. All they have is being an American.
+A bit drunk, so I’m sorry if that rambled. But my main point is that they genuinely don’t see the intention of kneeling as a protest against police brutality. They see it as an attack on the one common identity they have.
+Short point on the confederate flag, I’m from Texas, and the only people I know who will fly/wear/tattoo the confederate flag genuinely don’t see it as a racist symbol. It doesn’t matter to them what “liberals” tell them that it means, to them it’s a symbol of being a proud country person/redneck/rebel/etc. If conservatives decided tomorrow that the black power fist (not sure what to call it, but you know what I’m talking about) was a black supremacy sign and was anti-white racism, no BLM advocate would accept their definition of their symbol. My point is, if your opponents told you that a symbol you believe in now meant different than what you believe it to be, most people would continue using even harder as a “fuck you” to those who are trying to make them stop.
+To clarify - I don’t fly the confederate flag and I’m okay with Kaep kneeling.</t>
+  </si>
+  <si>
+    <t>I think you should be free to do either.
+Someone kneels during the national anthem. So?
+Someone waved the confederate flag. So?</t>
+  </si>
+  <si>
+    <t>MLMs are not the same as pump-and-dumps. They are wildly different business models.
+EDIT: Posting here for clarity since like over a dozen people now have made the terrible argument "bitcoin is not like gold because gold is used for circuits". Gold was valuable way before circuits.
+EDIT 2: No, it's not historically valuable because of its marginal uses in dentistry either. It's shiny and rare, does not oxidate (meaning you can transport it without losing any) and is in vaguely fixed supply. It can also be easily arbitrarily subdivided fractionally and is very difficult to forge. These properties cemented it as a universal store of value, not its usefulness. Someone even tried telling me it's valuable because you can build a house out of it in an emergency (lol?).</t>
+  </si>
+  <si>
+    <t>What I mean is that there's no reason the market cap of crypto cannot continue to grow indefinitely in much the same way the stock market has returned 5.1% annually since 1923 and gold has been valuable for thousands of years. Sure crypto is volatile, but the "bigger sucker" theory doesn't necessarily apply. Investing in gold is just fine even though it's just "expensive junk".</t>
+  </si>
+  <si>
+    <t>It's not so much like a pyramid scheme because there aren't actual kickbacks for getting people to sign up. It is closer to inflating the value of garbage stocks then dumping them before they tank.
+If I start selling essential oils and energy balancing crystals, then convince 20 of my closest friends and family to do the same, I would get a kick back for every one of them that signed up under me and bought a starter kit or whatever. I then get a smaller kickback for everyone THEY sign up, encouraging me to help them push the magic. As long as i am first, I'm getting money for everyone downstream.
+If I bought a bunch of crypto currency, then talked 20 of my closest friends into doing the same, the value might go up slightly, but I'm not getting a kick back when they buy. I get a bigger return for buying in early before the price goes up, but that's it. It is equivalent to a boiler room scam for stocks. Buy a whole bunch of penny stocks. Get a bunch of guys pushing that specific penny stock. The sudden interest prompts the value to spike. Once it does, sell yours and get out before the bubble pops. Shut down the operation and move to a new office and start over.</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies add actual value by being a means of transaction. Just like how PayPal is a real company with a real product that people willingly pay fees for and is worth 290 billion dollars and all they do is facilitate transactions. Cryptocurrencies are actually worth something and provide real value by facilitating transactions.
+While I agree with you that the market has become oversaturated, I'd compare it more to the dot com bubble or the beanie baby craze rather than an MLM.</t>
+  </si>
+  <si>
+    <t>That's not what MLM is at all.
+MLM is recruiting sales people and then when those sales people (or the sales people they recruit, etc.) make sales, you get a little piece of the sale. I'm not sure how that relates to Crypto. If I make a post promoting Dogecoin and then you sell some Dogecoin, I don't get a percentage of your proceeds.</t>
+  </si>
+  <si>
+    <t>He might have been considered the most moral in those days but morality, just like technology and many other things, has hopefully evolved with our culture.
+Your view seems to imply that morality is static, or linked to some primal instinct in humans which has not had time to evolve biologically. That could be, but it's up to us to become a better version of our former selves.
+So by the standard of the time he was not a child rapist. Your title specifically says "was a child rapist", I disagree.</t>
+  </si>
+  <si>
+    <t>I mean according to another Hadith she was implied to be 13, some sects say that the marriage was consummated at age 15, some say she married Muhammad at age 6 and they consummated the marriage at 9
+We can’t really judge the societies of 1500 years ago and expect it to really mean anything, they were born in their cultural context so anything outside of that would’ve made little sense
+But what do Muslims of the modern day think? Is pedophilia accepted by Muslims of this day and age? No. In fact, this statement and argument is almost universally regarded as insulting, inflammatory, and bigoted by Muslims.</t>
+  </si>
+  <si>
+    <t>I don't know much about Islam, the little I know is that it's not a monolith and that you can't just handwave away whether or not the hadiths - and which - should be taken into consideration. In fact, my understanding is that this sort of stuff is a huge deal, and the reason why there are different factions of Islam who go to war with eachother (like the Sunnis and the Xiites).
+What I can see is that there's an inherent problem in your claim - namely, that you claim the Prophet is regarded as the Most Moral by Islam, but at the same time you think to understand that there's not a unified perspective on what counts, and what doesn't count, as "true" about Muhammad. Outside of the Q'uran, that is.
+Now, if your premise were "if the hadiths are true, then Muhammad was a child rapist", then I don't see a way out of agreeing with you. But if the veracity of the hadiths is disputed, as you say it is, then you can't use them to make statements of fact about Muhammad, or anything else, as if they are agreed upon by every muslim. You claim they aren't agreed upon, and therefore, the counter to your argument is built into this very premise.
+Finally, my christian-raised mentality would respond that being the "most moral" doesn't mean being perfect, because only God is perfect. In fact, in christianity prophets are anything but perfect - they're people, often deeply flawed, with whom God communicates for some reason. Their word is trusted because they were in communication with God, not because they were impeccable men who did nothing wrong.
+But this is a christian take, I don't imagine a muslim would think similarly</t>
+  </si>
+  <si>
+    <t>There is absolutely evidence that Aisha was 6 when she married Mohammed, there is also evidence that she was an adult when she married him or somewhere in between. Therefore before we get into any accusations about Mohammed we have to satisfy the question of how old she was and here's the problem, we simply don't know.
+This raises the question, why are you adamant that she was only six? Unless you can demonstrate an intellectual argument that is more convincing than the scholars who have examined this question before you it's not reasonable to conclude she was six. If it is not reasonable to draw that conclusion then why have you done it? It could be that you are ignorant of the wider evidence relating to her age, in that case I suggest you read some of the contradictory accounts, a quick internet search found this site:
+https://www.muslim.org/islam/aisha-age.htm
+If you are already familiar with these arguments I ask why do you discount them? Is it because you find them unconvincing? If it is your going to have to make a damn good argument to that end because, if you don't, I'll assume your aim is simply to disparage Mohammed and that you're not particularly concerned about whether your accusations are accurate or not.</t>
+  </si>
+  <si>
+    <t>50-70 years ago you (white in USA) could get a job in manufacturing right out of high school that would pay enough to allow you to start a family and buy a house in the suburbs. After trade normalization with China, those jobs were systematically shipped out to take advantage of the cheap labour. After this, the low education job sector shifted to the service industry. The minimum wage has stagnated for the last 30yr leaving service sector jobs as a dead-end for a life long career option. Then here comes social media and now the same pool of people who would most likely take jobs in the service sector have an opportunity to make real-life building money before even leaving high school. I don't blame them as we as a society forced them into this because they have no other options. This is not to say that the companies are not evil assholes, but the "influencers" are responding to the market in the only way they can.</t>
+  </si>
+  <si>
+    <t>I'll choose to tackle this, by instead providing (many) things I consider to be MUCH worse then social media influencers, to refute that they are 'one of' (weasel word) the worst things.
+Fake news/propaganda outlets, not influencers for the sake of advertising but deliberate false information for pollical reasons.
+Click bait articles drawing attention away from news etc.
+'Always on' connected phones/sites calling back meaning that advertising profiles are being collected from you constantly, (to most) without their understanding or consent.
+Office workplaces expecting you to be 'present' 24/7 in various chats, even when you are supposed to be sleeping or at home, but even at work, when you are supposed to be working not reading what harry had for lunch.
+(Lack of) Cyber security defenses and the amount of companies being hacked / ransomware due to their over reliance of technology without fully understanding or funding it.
+24/7 news cycle, meaning people immediately forget the thing they were just mad about for the next global/international crisis, preventing local change for the better.
+Dwindling attention spans of the average reader, meaning that decent arguments / articles about real issues get a quick reaction without thinking through the deeper effects.
+Facial recognition for automatic detection of minorities so they can be 'retrained' in camps.
+Underpayment and exploitation via globalized Gig economy corporations of lower class workers.
+Monopoly of information services by single entities, Facebook, Google, Amazon, Apple, Twitter
+Cyber-bullying hate sites of various influencers
+That said, I have serious issues with your definition of a Social Media Influencer, in that it's basically a "no true scotsman" argument / fallacy, which you then use as a stereotype to tar them all with the same brush by referring only to the (useless) as 'social media influencers'
+I consider Linus from Linus Tech Tips to be a POSITIVE role model and social media influencer, who was not only successful, but has spun his personal brand away from a company that didn't appreciate it, continued it on his own, and created an entire media group out of it.
+He would immediately fail your definition, as you discount anyone 'doing it as a side profession' or 'the ones just peddling garbage' As he (appears to be) a really down to earth genuine dude with a passion for tech. He does reviews, sponsored bits, secret shopping, and stuff that's simply too absurd to fall under anything but entertainment. But he is a voice of reason in the tech community, a voice of the people, and whilst he is apologetic and empathetic at times to companies (a trait you seem to despise given your arguments) He will still throw companies under the bus for disgraceful behavior to the consumers, his audience.</t>
+  </si>
+  <si>
+    <t>What's your date range on this? Because this could mean from the industrial revolution onward, from the first widespread use of electricity, from the creation of the internet, to the use of the first smartphones, to the near-universal adoption of social media, to anything in-between. The further back you go the sillier your view becomes.
+More generally, using a celebrity to promote a brand has always been a thing. It's arguably the purpose of celebrity. What makes influencers different?</t>
+  </si>
+  <si>
+    <t>Could you point me to some of these infamous influencers? Because, and it may be because I don’t seek out this type of content at all, I’ve never seen “influencers” who JUST serve to advertise. Almost all of the ones I’ve seen has things like travel tips, self care and self love tips, crafts, recipes, tips for self-improvement, many of them has some kind of thing where they’ll offer advice to their followers etc. They serve to inspire. Where should someone go for vacation, how should they decorate their room etc.
+Some are dancers, there are also some who are basically just sex workers.
+They’re like a lifestyle magazine in human form. And, although lifestyle magazines do advertise A LOT, it’s not the only thing they do and although it’s not for me, I understand why someone would like it.
+I think it’s unfair that they earn so much money. I also think it’s unfair that someone can become rich just because their parents happened to be rich. Life is just unfair.</t>
+  </si>
+  <si>
+    <t>The end result of defunding would be abolition. It is an abolitionist slogan.</t>
+  </si>
+  <si>
+    <t>You use the example of South Korea and the UK for police being welcome members of the community, even if you grant this (and it’s not universally true) that is there, and the situation is of course very different in the U.S. The idea of defund is that the police has had countless opportunities to reform, cities like Minneapolis with well intentioned local politicians have tried to make real change only to be stymied by entrenched police culture and institutions like unions. The fact is that the rot in U.S. policing has penetrated all the way to the bone.
+Defund as a movement takes as a starting point the failure of previous attempts at reform, and thus seeks to remove as much agency and control from the police as possible in an effort to change the institution of public safety. Demilitarization won’t mean anything if it’s the same old cops with their entrenched views of acceptable behavior responsible for training and largely determining the culture of police departments. No matter how many reform measures you try to apply to the police, if you aren’t changing the actual people who make up the institution you aren’t changing the culture, and if you aren’t changing the culture you aren’t changing anything.
+Defunds answer to this is to develop alternative systems and institutions, which exist outside of police departments, and use these new institutions to deal with the majority of what police do now. This acts like a hard reset for the culture of public safety. The police have had enough chances to change themselves, they fucked up those chances, if a business did this it would fail and go under. If employees did this they would get fired. The police are our employees, and it’s time to fire them.</t>
+  </si>
+  <si>
+    <t>You're making my point, lol. Think about organizers who are leading campaigns at the very local level in their own communities. They need traction to get people to show up to their events and spread awareness about very specific issues stemming from their PDs. The Defund the Police slogan is nationally known so organizers can use it to promote their own local campaigns on specific policy proposals to local politicians and community members. Because the slogan is known nationally, it can be used as a promotional tool that unites a bunch of different local fights. It connects organizers across the country dealing with all types of different issues. It's non-specificity gives it that power.
+The immediate goal of organizers is NOT to win over opponents! That's just not a good strategy to mobilize turnout. First, you want to focus on reaching those who you can inspire to show up and give support.
+You're assuming that a slogan for a social movement should work as an opening to a debate with detractors. Messaging is used to reach and inspire support from people who are receptive. The debate comes later.</t>
+  </si>
+  <si>
+    <t>People who say “defund the police” do want to restrict police’s access to money in general.
+They don’t want better training; they want the role of police to be significantly rolled back, or even eliminated.
+Police are abusive in South Korea and the UK, too, and discriminatory. The only difference is they have less capacity to kill. The aim is not to make the community terrorizers less dangerous, it is to remove them entirely.
+I am not trying to convince you to support this stance; I am trying to make it clear that defund the police is a legitimate political stance, and many who say it mean exactly that. Police abolitionists are real, and, for those people, “demilitarize the police” does not make more sense as a slogan, because that is not their goal.</t>
+  </si>
+  <si>
+    <t>Slogans are not programs. Slogans are the common denominator for an argument and reducing the arguments behind the slogans is not going to get you anywhere.
+The point of the arguments behind the "defund the police" is due to how badly the structure of policing is in the US, especially in Democratic cities in the middle of Republican states. There's a massive grab of power by police force composed of majority people coming from the red surroundings. For the people in these cities, the police is rotten to the core to a point where there's basically no easy solutions (from the perspective of someone living in Portland).
+For them, demilitarizing the police is not an option, because the police basically has a full control on themselves. The only lever they feel have is to control the money flow.</t>
+  </si>
+  <si>
+    <t>One aspect I like of the "defund" over "demilitarize" wording, is that it has a direct action associated with it: take the money away.
+This is why all the cops are whining, cause their dollars are in jeopardy. What's sad is they are pulling back instead of stepping up. It only reinforces the need to scrap and replace the police. I am fine with the same name, it's the long standing institution that is the problem.
+Demilitarize the police means a lot of things, and I am all for that too. Why do local cops need armored units, fully equipped arsenals, and vests? The only enemy they have is citizens, so this is quite scary. However, people have called for this for many years. But which aspects are police requirements and which are militarization? Ambiguity has led to inaction.
+I have seen you address the question of who replaces the police. This is an excellent question. One we should all be asking ourselves either of the current or new institution. I want to point out, if an armed robbery happens at your home, its unlikely that the cops can help you. So much of the "scary" stuff, is not preventable once in motion (DUIs, larceny, mugging, rape). Once it starts, the chance of police intervention is minimal. So what does our police do? Or what do we want our police to do?
+Most of my answer, doesn't not involve any use of force. And the force that is required, is bringing people into custody. No firearm required. I have more thoughts, but those are my distinction between defund and demilitarize.</t>
+  </si>
+  <si>
+    <t>You are outlining here why one slogan making more sense is fallacious, because both are inappropriate given the current circumstances.
+The slogans fundamentally different things, with different goals. They are not either/or, or interchangeable. I would argue that if the goal is to "defund the police", assuming one means to treat non violent crime without law enforcement, then it would be smart to heavily militarize the remaining police. If it's a smaller force, it had better be a much more effective force as well.
+Demilitarize the police is only related to defund as much as the costs of militarization are concerned.
+The reality, nonviolent crime is intertwined with the potential for violent crime. Take the example of drug possession. You have a user, a dealer, a dealers manager, a distributor, a smuggler, a producer, a financier, a launderer and then all of the cottage industries in between. With the potential exception of the user, each of those people handle large sums of illegal money or contraband. As such, they are armed. The crackhead on the streets? Sure, a therapist may be appropriate. But how do you separate the user who also deals? And how do you stop the dealer from stopping the therapist who is taking their customers?
+Mental breakdowns. Ok, another example where therapists might be more appropriate. Yet, you have a subset of mentally ill people that are immensely violent.
+It makes sense to treat nonviolent offenses as exactly that. However, with an armed populace, there is no certified way the ensure that the nonviolent offender, who is already breaking at least one law or exhibiting dangerous behavior, isn't capable of becoming a violent offender if given the chance. That's why neither slogans make sense.</t>
+  </si>
+  <si>
+    <t>To address the simple idea as best as I could.
+When the majority of people say defund the police, they are referring to cutting the budget of police departments in a way that moves the money to where it is needed. It does not mean the elimination or even crippling their ability to deal with crime. Defending the police means investing in social services to better serve the commenting and reduce the need for cops to take on more roles that would be better addressed in other forms. It does not aim to abolish the police. It in fact aims to help the police in a way by focusing their time on what they should actually address. It removes police from situations where they are not trained to handle and puts someone who is trained for it.</t>
+  </si>
+  <si>
+    <t>Actually the rationale is that police are entirely ineffective at actually preventing crime and tragedy and we therefore don't really need them. The idea is to entirely rethink our methods of keeping people safe and recognize that the current one is ineffective and often actually makes people less safe.</t>
+  </si>
+  <si>
+    <t>Demilitarizing the police is often thought of as removing the equipment that is handed down from the military. What this slogan misses is the rules of engagement, accountability and culture that are prevalent in military units that police could benefit from. The military is able to take an 18 year old kid and train him to handle a multitude of dynamic situations in non-permissive environments with restraint. There are numerous examples of military members not returning fire in a kinetic situation based on the discipline to only engage what leadership considers a threat. Police are taught to treat everyone as a threat, the military to positively determine a threat before acting. The ability to "engage their minds before their trigger fingers" is a military tenant that policing should embrace.
+The situations that both police and military are placed in will create mistakes, be it from poor decisions, poor training or "bad apples". The difference between the two organizations is how it is handled. The police seem to have a culture of cover for your brothers or sisters, no matter what they did. The military, normally, holds it's people accountable for their actions. It is the responsibility of every military member to report misconduct. Knowing about a potential infraction and doing nothing about it puts you in the same level of accountability as the person that committed it. The pride and reputation of the organization is more important than covering for someone. If police were held to the same accountability standards as the military there would be a higher level of trust in their actions.
+I agree that the majority of police do not need to have an armored personnel carrier at their disposal while they walk around kitted out like an Operator. That force protection stance is counter productive to community engagement. This is why you see pictures of military leaders removing protective layers when dealing with community leaders in Iraq or Afghan. What the police do need is the military mindset that breeds people that can act morally and responsibly in chaotic situations.</t>
+  </si>
+  <si>
+    <t>Sadly I can speak directly to this point. My father is an OBGYN, and his case over this set the precident in our state. No one will do a non medically necessary tubal ligation in our state anymore due to this case.
+A young woman of 23 years came into his office, asking for the procedure. No medical reason. Dad said no, you might change your mind. She came back to him over and over, asking for it. Finally, she stated that she wanted to go to Vegas, and she wanted to get the procedure done before going. Dad said ok, what right does he have to impose his will on another? A consent form was signed in the office the day they agreed to the procedure. A continuing consent form was signed due to the length of time between the agreement and the surgery. A consent form was signed the day of the surgery.
+Three years later she came back and sued my dad, saying she was pressured into it, that she was emotionally scared because she now couldn't have kids. They took the case to the largest nearby metropolis, with a scummy lawyer who was known to do this kind of thing (We found out through the course of this that the woman's family was known for suing doctors and we were just the latest.) They took my dad for millions of dollars, which we didn't have. His insurance dropped him. He didn't lost his license, but he also never bothered to get certified on a national level, so even though he can still practice, he can't really because no insurance in our state will take him. We lost everything. I was 18 at the time, the youngest of five. My parents, on the verge of empty nesting, had to give everything of value that they owned to the bank and move back in with my mom's family while they figured things out. He is practicing again now, but it was a very painful time, with a lot of self medicating going on.</t>
+  </si>
+  <si>
+    <t>I am going to make two points.
+Firstly, I am going to agree with you and disagree with the majority of posters here.
+Any answer that includes "because you might change your mind" as a reason is completely and utterly wrong. This view contradicts both moral and ethical stances on body autonomy that most non-regressive people worldwide agree with. It also contradicts age-of-majority laws for many many countries. Once the government in your jurisdiction agrees that you are an independent adult, you have sovereignty over your decisions, as they concern your body.
+Yes, it may be a bad decision. Yes, it may be a decision you regret in the future. But it involves you and you only, and it is absolutely your decision to make.
+The second part will be an echo to many replies here.
+Just because you have a right to make this decision, does not mean you have a right to force someone to assist you in it. This is in the realm of other very nuanced situations, like abortion, gender reassignment, and assisted suicide. So no, I don't think you should be able to compel a physician to perform this procedure against their wishes.
+Having said that, I do believe that the system should be designed such that you should be able to easily find a provider for the service you desire. Study after study has shown that individuals denied professional assistance with these types of procedures will frequently turn to the illegal market, with results that are drastically less safe.</t>
+  </si>
+  <si>
+    <t>You are looking at the medical profession as if it is service industry, that you should be able to ask for something and they should provide it. However, the medical profession is under no obligation to give you what you want, they will treat you with what they believe you need.
+They will consider, do you need a vasectomy? the likely answer is no, very few people do. They will then consider if it's in your best interests to have one and, if they don't think that, they won't do the surgery.
+You will think they are not best placed to decide what's in your best interests, only you can decide that. However you're not best placed, you're a 25 year old man who doesn't need the surgery to achieve what you want (there are safer and cheaper ways of not having children).
+Therefore the doctor is perfectly entitled to say no to you, irregardless of your wishes, they're not there to serve you, just what is medically ethical.</t>
+  </si>
+  <si>
+    <t>You can't force your doctor to perform a procedure of any kind on you, especially if they think it could be dangerous for you. Medical procedures aren't something you can unilaterally demand. A professional has to determine that it is safe as well. There is risk involved with any operation.</t>
+  </si>
+  <si>
+    <t>Although I feel frustrated about this issue myself, I think it's a bad precedent to set to not allow doctors the ability to refuse services for non-life-saving, elective treatments and procedures.
+Take your premise and substitute any number of other things in there:
+Any person the age of 25 or older should not be denied [elective medical procedure] if they request one.
+I am all for bodily autonomy for the patient, but at some point, you'd need the power of the state to enforce that this happens and would be opening the door for other types of legislation in the future to accommodate the myriad [elective medical procedure] chosen above. That may end up compelling at least some number of doctors to perform procedures against their wills and possibly against their medical judgements.
+I'm a 38 year old man who has been married nearly 15 years (since 2006) to the same woman and we don't have any children, but have been denied a vasectomy numerous times already. The main reason I have been denied the procedure is that I have been told that I'll change my mind (or that my wife will as her biological clock starts to yell at her).
+My wife and I (combined) have a PhD, two MBAs, and a MSc. in Computer Science and have decades of experience managing multi-million dollar portfolios / projects ... so it absolutely baffles me when somebody tells us that we either will change our minds or we don't have the capacity to make a decision about our family planning and a low-risk out-patient procedure.
+I say 'low risk' because I'm in generally good health, eat a healthy vegetarian diet, have had excellent blood/urine labs my whole adult life; I run/bike/swim regularly, lift weights regularly, don't have any pre-existing medical conditions, etc... so there's little medical risk associated with my request as far as the statistics go.
+Overall, I think it might be better to lobby for change in the way the physicians assess cases presented to them based on research or something rather than lobbying for what may need to be a piece of legislation that would compel these procedures to be undertaken. For all I know, there may be research already done that suggests that many people who have 'tubes tied' in certain demographic groups regret the decision or suffer from something later on in life (depression, pain, lack of pleasure, etc... this is pure speculation since I'm not a doctor nor have I read any research related to any of this). I would hope that physicians in most countries are already doing what is best for their patients.</t>
+  </si>
+  <si>
+    <t>So at 16 I can begin working. 18 I can be drafted and go murder people across the globe. But you want to wait till 25?</t>
+  </si>
+  <si>
+    <t>Not taking a side either way, just wanted to say there is evidence frontal lobe not totally formed until 30 in some cases:
+https://www.nytimes.com/2016/12/21/science/youre-an-adult-your-brain-not-so-much.html
+And life expectancy for in US is 78.5 (higher for women), so on average you would not have a third of your life behind you.</t>
+  </si>
+  <si>
+    <t>What are your thoughts in parents with obese children? It’s basically the same thing, ignoring medical expertise with a result that is harmful to a child?
+I totally agree with you but I’d extend this that parents with obese children should have their children taken and they should face serious jail time.
+I’d argue this is actually worse than not vaccinating, because one could make a (weak) argument that they don’t know for sure that a vaccine works. But having an obese child is undeniable. It’s in yo ur face every day if your life. It’s a particularly heinous form of child abuse and the monsters who commit crimes like this are in the same category as child molesters.</t>
+  </si>
+  <si>
+    <t>Manslaughter requires direct participation in the person's death, so does murder.
+A more appropriate charge would be criminal negligence. Negligence is the absence of action. You can not convict someone for murder without them actively participating in the death. Unless the parents deliberately infected the child, they took no active part in the death. It was their lack of action which was a contributing factor.
+On the other hand, negligence has been used to punish circumstances where parents refuse medical treatment for their children. These two Canadian parents were found guilty of criminal negligence causing the death of their 14 month old child. They basically refused to take him to hospital, and tried to use various natural remedies, until it was too late. He eventually died of what should have been a treatable infection. They were sentenced to two and a half years in prison.
+Basically, you can't convict someone of murder or manslaughter for being negligent by taking no action. Murder and manslaughter require you to play a direct role in someone's death. Criminal negligence causing death would be the appropriate charge.
+That being said, I don't think refusing vaccination merits a criminal approach like this.
+Edit: For those interested, here is the transcript of the full court judgement for the case mentioned above. Fills in a lot of details. The most pathetic/infuriating part were the searches the parents conducted online: "can cabbage leaves cure gangerene?"
+If you search for that, and dont seek medical care, then you are responsible for what is happening to your child in my mind.</t>
+  </si>
+  <si>
+    <t>Anti-vaxxers are fucking idiots and and recklessly dangerous, BUT they wholeheartedly believe beyond a shadow of a doubt that they are protecting their child. Against a huge conspiracy.
+If you believed that people were coming to kidnap and murder your child, and the police said they didn't believe it and to forget about it, what would you do? You might improve your home security, you might even attack people you didn't know, who were trying to get close (on their way elsewhere walking past your child)
+If you had a mental illness and believed this, your actions would likely be the same. But probably should not go to jail for this.
+People who genuinely are trying to do things which they believe are good, should have a punishment, mitigated by their intent.
+Anti-vaxxers, though dangerous, should be treated as well meaning idiots. Mandatory vaccination, is the right response.</t>
+  </si>
+  <si>
+    <t>Rights and obligations versus freedom of choice.
+In Germany they passed a regulation that obligates parents to vaccinate their children. They can do this because the German government offers their citizens the right on basic healthcare. The German citizens are obligated to pay premiuns and taxes to obtain the right on basic healtcare. So in Germany they could try to take a manslaughter case to court. No idea what a judge wil decide.
+In the USA you don't have a right on basic healtcare. You have the freedom to choose for a health insurance. Therefore you can not bring parents to court for manslaughter as argued by u/Canada_Constitution.
+p.s. i think you owe u/Canada_Constitution a delta for expanding your vieuw on the inner workings of the law.</t>
+  </si>
+  <si>
+    <t>Part of the reason antivaxxers exist is because of the public access of the internet, and the sheer information that exists. Antivaxxers don't just wake up one day and decide they don't want shots anymore. Often they have other conspires they believe.
+The depth and breadth of information means I can almost always find someone who supports my view, and I can tailor my social media feeds to suppress other viewpoints. This puts me in an echo chamber. Inside my echo chamber, the outlier viewpoint (my viewpoint) is the majority opinion.
+When it comes to cases of conspiratorial mindsets, the most common belief structure is:
+The government has lied about A.
+The government has put out a statement about B.
+Therefore, the government's statement on B is likely to be a lie.
+The scientific community agrees with the government's statement on B.
+The scientific community receives government grants.
+Therefore, scientists are "paid off" by the government to lie about B.
+Obviously, statements 3 and 6 are fallacious (genetic fallacy and guilt by association, respectively). But because there is high degree of skepticism, there are question marks surrounding any official government report.
+Given that a conspiratorial-minded parent could fall into a trap like antivaxx, the parent could genuinely believe they are acting in the best interest of their children. Is the parent supposed to recognize that they are in an echo chamber that supports fringe beliefs? Can humans in general recognize when they're in echo chambers?</t>
+  </si>
+  <si>
+    <t>Cathomicism doesn't condone rape, so the bread would have to consent.</t>
+  </si>
+  <si>
+    <t>I don't know who told you this and I'm less clear on why, and compelling though it may be, I don't think they're considered literally married to Christ. I think it's more symbolic. That being said. I don't know of any verse that strictly prohibits artophilia.</t>
+  </si>
+  <si>
+    <t>Your argument isn't wrong, but your premise that nuns fornicating with bread is forbidden is not correct. Nowhere in the rule books is this forbidden.</t>
+  </si>
+  <si>
+    <t>Well bread doesn't have genitals, so technically speaking sex with bread is impossible. However i do believe that a nun penetrating herself with bread would be considered sodomy, which is forbidden. It also sounds like a great way to get a yeast infection.</t>
+  </si>
+  <si>
+    <t>Not only ineffective, but likely counterproductive.
+I also think that the popularization of any lawsuit would only spark more interest in the statements of the perpetrators, making their messages go viral.
+I just don't see how it would help the situation much; I only see reprimanding those with harmful statements as contributing to the power that the messages have.
+Also, if I've changed your view, even a little, you should award a delta.</t>
+  </si>
+  <si>
+    <t>First of all, the article is not obscure it was published in a prominent peer reviewed feminist journal that's been in operation since 1994 with an impact factor similar to other feminist scientific journals.
+Second of all, it is a good faith argument because it is proof by counter example. Peer reviewed studies being retracted do happen not to mention how a lot of studies in psychology and cancer research can't even be reproduced.
+https://www.bbc.com/news/science-environment-39054778
+I'm not sure of the link between peer reviewed studies and half a million deaths?</t>
+  </si>
+  <si>
+    <t>A few narrow categories of speech are not protected from government restrictions. The main such categories are incitement, defamation, fraud, obscenity, child pornography, fighting words, and threats.
+Since none of these apply, the Court would have to approve of a new category.
+The examples you've given are not an incitement of imminent lawless action, although there are examples of threats that I'd support consequences for.
+I think it would be hard to fully demonstrate in a court that her actions are directly tied to anti-vax sentiment, that's the difference here. If we have no metric that demonstrates this, it wouldn't be applied fairly. Clear and present danger was a doctrine adopted by the Supreme Court to determine under what circumstances limits can be placed on First Amendment freedoms of speech, press, or assembly. The test was replaced in 1969 with Brandenburg v. Ohio's "imminent lawless action" test. There is no "imminent lawless action" with anti-vax statements. We generally don't treat adults like children, either.
+I actually think the Patriot Act is overreaching when it comes to privacy in many cases, but I don't think the analogy applies to what we generally allow for freedom of speech.
+Besides, legal consequences after the fact for these fringe theories would probably do more harm than good. The statements would only reach more eyes and ears; the stories would just be overblown by the media. And because misinformation is so hard to define, legal consequences would probably just make these politicians a little more careful with their words and wouldn't dissuade many politicians from putting out anti-vax statements.
+Anyways I’m pretty sure I’m not going to change any minds here.
+This sub is for changing your mind, my man. You're supposed to be awarding deltas for every small change of view, even if it doesn't change your overall stance, just saying. It seems like I have in several cases, but whatever.</t>
+  </si>
+  <si>
+    <t>I don’t think politicians should be giving medical advice at all…with the notable exception of politicians who are medical doctors.</t>
+  </si>
+  <si>
+    <t>It depends how you define it and who is chosen to be the purveyor of “truth.”</t>
+  </si>
+  <si>
+    <t>The issue is science is always evolving. For instance there were studies done on Monsanto, smoking, drinking; and I won’t even get into historical science especially medicine and what was good.
+The best we can ever say is “This is what the data/science says”. Machines are fallible. People are fallible. A cornerstone of science is expanding on work prior, and sometimes that expansion changes the results completely. And this is in a perfect world.
+Insert selective funding, agenda driven research etc and we box ourselves out of questioning research. Which as a pro science society we should always do. Many of the science we take for granted today is built upon challenging the knowledge and status qou of yesterday.</t>
+  </si>
+  <si>
+    <t>Almost any decision any actual policy-maker (which politicians sometimes are, but not always) can be argued as resulting in someone's death. How would you even deal with this? Moreover, if you could hold them accountable for those deaths, who would ever want to do that job?</t>
+  </si>
+  <si>
+    <t>You make the point that accountants and lawyers are regulated by industrial standards and not government. That's true to an extent. Accountants are required by the SEC to follow GAAP when reporting finances of publicly traded companies, and lawyers are required by law to be licensed (albeit by a separate institution) in order to represent someone in court.
+I don't see what restrictions could realistically be imposed. I think it goes without saying that mistakes are allowed to happen, and intentionally lying to cause harm can have consequences in the form of a defamation suit. If your work leads to this kind of retaliation you're getting the boot from your organization. Moreover, in order to prevent this kind of trouble, you will get blacklisted from working for major networks if you outright lie. Nobody who values real news wants to get their news from liars.
+Professional journalists already have standards they need to follow in order to keep their professional standing. Take the National Press Photographers Association for example. Or the Associated Press. Or the Society of Professional Journalists. Try googling a news organization that you trust followed by "code of ethics".
+If you boil it down to more specific cases, like cable providers allowing destructive programming on their channels, then yes, I would be inclined to agree that cable companies should ethically monitor what appears on their channels.
+So, given that it's not a good idea to allow the government to decide who is allowed to distribute information and who is not, what is the next logical step here? Furthermore, given that intentionally spreading lies is a liability, where is the line drawn of what is true and what is not? In 2002, the Boston Globe famously reported on a huge network of pedophilia coverups in the Catholic church, and, frankly, that would have been easy to dismiss offhand as fake and fear mongering, wouldn't it? I'm not trying to dissect whether or not people could verify the Boston Globe's report, the point I'm making is that nobody knows everything. Nobody can truly know if a conspiracy theory has merit or not.
+It is the responsibility of the consumer, in the marketplace of information, to decide for themselves whether they are going to subscribe to a fake media outlet. Some people simply don't care about what is true and what is not, they just like to consume information they want to hear, and that is their right.
+Think of religious faith, for example, it's not about what you can 100% indisputably verify as true or not, it's about what belief system you wish to subscribe to. Some people value ethical standards behind the information they consume, others just want a juicy story. It is my opinion that no amount of regulation short of government control will change this reality.
+My goal is to change your view that information-disseminating organizations as a whole require more restriction. If you seek journalism with restrictions, that already exists as I linked above. If you seek information without restrictions, well, that exists too. I agree that there is a big misinformation problem, but to go after the organizations themselves for putting the word "news" in the title would be barking up the wrong tree. The best thing would be to bolster critical thinking skills among the populous and hold politicians accountable for misleading the public (vote). As soon as people value facts and verification, the "fake news" will no longer be profitable. Oh and also tell your friends to read the damn article before clicking share.</t>
+  </si>
+  <si>
+    <t>A lot of responses seem to be invoking a slippery slope argument, which I think can be a valid approach here, but has not been rigorously treated from what I've read.
+To start, the premise of your argument, that a regulatory body should enforce naming conventions to restrict misrepresentation, actually has a lot of legal precedence and standing. Different states and countries do in fact have laws that regulate acceptable business names. In fact, Georgia, Utah, and Wyoming have specific restrictions on using 'University' in a business name, requiring additional approval through the Sec of State's office or the Department of Education.
+In this case, Prager University was incorporated as a non-profit in the State of California. Therefore their name must be pursuant to Title 2, Division 7, Chapter 8.5, of the California Code of Regulations -- Business Entity Name Regulations.
+Section 21005 seems relevant to the grievance you've raised, that Prager University's name is misleading. However, the law is primarily concerned with the misrepresentation of a business's regulatory compliance. California's code illustrates this by mentioning healthcare and insurance providers. Both industries must comply to a strict set of laws and regulations that protect their client, so it is obvious why misrepresenting that status to acquire customers is illegal. In other words, you can use words like Doctor in a business name as long as you do not benefit from selling goods or services from offering medical advice. Supplement and alternative medicine companies will often clarify that their statements are not actual medical advice.
+I will elaborate later, but this is different from forcing an "educational" content creator like PragerU from disclosing their lack of accreditation, etc. as universities do not have exclusive rights to educational speech as doctors do with medical advice. This 'power' granted to doctors is tempered by the liability they assume, while Universities and content creators alike are usually not legally liable for the veracity of their statements.
+Moving on, although California's code does not explicitly restrict the use of the word 'University,' Utah's legal code directly mentions the requirements to retain that name. While the law is different in both states, Utah's explanation might help clarify California's stance and the relevance of the healthcare/insurance example. Title 13, Chapter 34, Part 1, Section 105 of Utah's State Code defines Institutions that are exempt from Utah's naming restriction with subsection (f) being the critical clause in the code.
+As you can see, the central issue here is the conference of educational credentials. As you stated, Prager University avoids that transactional exchange. In the eyes of the law, 'University' is not leveraged for an unauthorized, fraudulent benefit as defined by the statute. This matches the healthcare restriction in California as the focus is on misrepresentation of a regulated function.
+While PragerU undoubtedly attracts an audience and gains credibility because of its name, legally it does not act on false pretenses. Changing the law is possible but would be very dangerous, as I hope my previous examples illustrated. Enforcement of laws should be strictly constrained to domains that are regulated by other laws. To use an example you provided, firefighters are strictly regulated, yet Firehouse Subs is allowed to use its name because it does not benefit from nor falsify authority from those laws. At the same time, its name benefits from association with firefighters, but it shouldn't be illegal for them to profit from that name choice. If they started parking food trucks in fire lanes, they would be in big legal trouble (ridiculous example, I know).
+While PragerU seems to thread the needle on this distinction, Universities and regulated academic institutions do not control or have authority over the dissemination of knowledge or information. As their legal status pertains to things like federal funding, degree conferment, and others as defined in State and Federal codes, it would be disastrous to include speech and educational content as well. As it stands, even though PragerU mimics the veneer of a credible academic institution, it does so without exploiting the legal privileges of those entities.</t>
+  </si>
+  <si>
+    <t>Dude do you even speak English? This is horribly written literally inchomprehansable.</t>
+  </si>
+  <si>
+    <t>There are certainly civilian firefighting organizations. Volunteer fire departments do not necessarily require much (or any, in some states) specific training.</t>
+  </si>
+  <si>
+    <t>Is college an ok term to use instead? What about institute of fact or knowledge? University isnt the only word that would have to be censored if this became a thing and at some point you would have to draw a line. Heres a few loophole titles they could use
+Prager college of facts
+Prager genius association
+Prager school of thought
+Prager institute of scholars
+Any of those names can trick people into believing they are a upright institute that is equivilent to a university</t>
+  </si>
+  <si>
+    <t>You can’t make something that literally lasts forever. Some component will eventually fail, right? It makes some sense to literally then plan for and time all your components to likely fail at around the same time (you wouldn’t make a screen to last 80 years on a phone that only lasts 10).
+On the opposite side, I think I like the idea of them telling me how long they expect each component and the whole thing to last. They have that data, they should be open and honest and share it with consumers</t>
+  </si>
+  <si>
+    <t>If I make a fence cheaper by using lower quality wood and it happens to break more, is that planned obsolescence or reducing overhead?
+Let's assume it is deliberately calculated. Don't you think that's fairly easy to cover up using the above logic?</t>
+  </si>
+  <si>
+    <t>So two things here - firstly, consumer disclosure isn’t really the best way to ensure the knowledge is disseminated. Would you, for instance, be okay with a small line in the user manual of a PC somewhere saying “the date of PO is 3 years from X”? It would probably go unread or unnoticed by the majority of consumers. Better, as the European governments are doing, to take punitive actions against companies that engage in the practise.
+But I think more critically, planned obsolescence can be so much more than just selling a defective product and manifests in very insidious ways that make a timeframe a poor way of communicating lifespan to a consumer. With technology it might be simpler, where you explain that certain features may grow outdated at such and such time, but outdated is not the same as obsolete, so where do we draw the line? Likewise, fashion industries use planned obsolescence by rule - why else have seasonal catalogues except to arbitrarily restrict when a product is considered “functional”. That timespan is clearly announced, and I doubt anyone would consider selling clothes that go out of fashion to be the same as a defective article. It is a topic that I think is far more difficult to be categorical on than a timespan disclosure would require.</t>
+  </si>
+  <si>
+    <t>I really want to agree with you, but planned obsolescence does not actually follow the logic of "this phone must break in 2 years". It follows the logic of "we don't care if this phone only lasts 2 years". They don't intentionally design it to fail by a certain date (that's actually illegal), they just don't design it to last beyond a certain date and if it does, it's just a happy coincidence. They also ignore critical design flaws from time to time.
+Planned obscelescence also revolves around making products difficult or prohibitively expensive to repair. For example, sealing the phone with glue, "no user servicable parts", "warranty void if removed"(also illegal but never really enforced), serializing chips, requiring custom proprietary tools for repairs, and only making parts/software available to OEM manufacturers. The legality of all this is currently being debated(look up louis rossman on Youtube).</t>
+  </si>
+  <si>
+    <t>I have a more direct suggestion, which I think would achieve the same goal of consumers being empowered, which is right to repair.
+Planned obsolescence and their disclosures or lack thereof wouldn’t be a problem (or as much of a problem) if the ability to affordably repair the product in a timely manner was possible and supported.
+Apple throttling older phone’s performances in the name of preserving battery life wouldn’t be an issue if the batteries were easily replaceable.
+If Apple went back to the removable battery like their older MacBook Pros, I wouldn’t have to plan out 3 weeks of time where I wouldn’t be able to use my laptop because I had to ship it off to get the battery replaced.
+And so on and so forth. Even if companies had to disclose planned obsolescence, that would only help consumers realize when they need to replace their product. One could argue that this might indirectly lead to companies developing products with longer service lives to be competitive, but I don’t really think that would happen because of perceived obsolescence. Instead, the ability to easily repair something that doesn’t cost almost as much as totally replacing it would be much better for the life of the product, the user, and the environment.</t>
+  </si>
+  <si>
+    <t>I think you're trying to draw a clear line where none exists. Apart from lightbulbs, I've never heard of any company using anything remotely that specific. But that doesn't mean a company might not choose a particular part that might work solidly for anywhere from 6 months to 2 years and then fail suddenly in some percent of cases even if that part is more expensive. Its not just cost savings. Its considering the failure curve and trying to target something that works well for just enough time but then starts to break down. That doesn't mean the amount of time is specific and known though. Or that they'll all fail. Or that it'll always be the same part that causes the failure. What about a non-critical part failing, such as the car radio or the AC or something which doesn't make it unusable.
+The only way I can think of to really capture that for the consumer would be to require the company to do a lifespan analysis of each part of the device or machine and provide average lifespans for all of those. Which is extremely hard to do in cases like a brand new type of thing that maybe hasn't been out for 5 years yet, so they really have no idea how many of them might make it to 10 years.</t>
+  </si>
+  <si>
+    <t>If you can accept that alot of people don't actually care whether you've had sex and that you can still be respected without having sex than you are on your way to becoming a "man".</t>
+  </si>
+  <si>
+    <t>You know I appreciate you taking the time to make this post. That said, you're 18 which is comparatively young. I'm a guy who didn't get laid til college. Saw plenty of friends hook up with girls in high school, suppose I felt a sense of jealousy. No reason to bring anger into this situation. If you are feeling angry it is likely a misplaced emotion. Ask yourself if there's anything else in your life that you should be angry about but aren't?
+The only advice I can give you is that being bitter and toxic will only keep you further and further away from forming meaningful relationships with anyone at all. The world owes you nothing, women owe you nothing, you are in this on your own. Get comfortable with that notion and comfortable with the idea of not blaming anybody else for your shortcomings. Despite any shortcomings you may have there will still be many people who will love and be attracted to you if you cultivate a good attitude.
+In short, all good things in all good time. You're young, you have your whole life ahead of you, and I'd hate to see you stifle all of that with your current attitude. Be optimistic but don't spend all of your time focusing on what you don't have. Focus on cultivating the positive qualities and skills that you do have. Focus on bettering yourself. If you do that, in time, a partner will come. The most important thing in life is making sure that you are well and healthy and it's only through this that you will attract anybody at all.
+Best of luck, man. I'd have gone harder on you if you weren't so young, but you still have time to turn it around. Any specific questions feel free to ask and if I'm awake I'll be more than happy to answer.</t>
+  </si>
+  <si>
+    <t>First off, props for recognizing your toxic feelings and wanting to change. And for what it’s worth, i sympathize with you—there’s a lot of bullshit out there from virgin jokes, to small dick jokes, to shitty marketing campaigns that is genuinely hurtful, and propagates this idea that having more sex == being more of a man and being of higher value
+Getting out of the incel/NiceGuyTM mindset takes time, and i can’t do it all in one post, but if there’s one thing i want to say, it’s: please, please, please stay away from this “sexual marketplace” mindset, where everyone has a quantifiable sexual worth, and you can rank everyone on an absolute scale. I’m not going to pretend like there aren’t qualities that are generally perceived as more attractive than others (like height, for example), but obsessing in this mindset will drive you CRAZY, because it doesn’t actually exist. You’ll be super bitter because “it’s unfair that only rich/tall/big dick/successful/(insert whatever quality here) guys can get laid”, and then you’ll be bitter again when you see guys “of lower worth” getting laid, because that’s even more unfair
+All the while, you’re directing all of your attention outward, and projecting your toxic mindset onto everyone else (whose thoughts you absolutely do not know), while ignoring what will actually help you develop relationships with other people, which is working on yourself, and how you express yourself to others.
+Look, women are people too. They get horny just like you, and are attracted to attractive people just like you, and are scared of rejection just like you. And they can 100% pick up on the fact that, instead of treating them like complicated, flawed people with their own desires, you’re treating them like a puzzle to unlock, or some game, where there’s a checklist that you just have to figure out and complete to get the prize. And their danger sense will drive them faaaar away whenever they get that sense.
+But there’s also this false binary that incels believe in—either you’re a douchebag pickup artist who’s super pushy for sex, or you go 100% in the other direction and pretend that you’re not interested at all. And then you feel like you’re a good person who didn’t make a move, so you deserve them to make the move for you, which is equally as toxic
+There’s a 3rd option, where you treat women as equals, and respect them as equals. You’re honest and clearly communicate that you’re interested, but in a way that’s more of an invitation to a party, than asking for a favor. Don’t ask a girl if she’ll let you have sex with her, instead say “hey, i’m attracted to you. Are you also attacted to me?”
+Look, someone ultimately has to make a move, and most people are afraid of rejection and want the other person to be the vulnerable one. But you can still do it in a way where you’re on equal footing—nobody likes to feel like they’re dating down, so don’t imply it with the way you ask someone out.
+You are a man. You have worth. Carry yourself with some respect.
+But also understand that women are the same. So when you inevitably get rejected (because spoiler, everyone does), handle it with grace. Because your worth isn’t determined by who will or won’t sleep with you—you were a kickass person before you asked someone out, and you’ll be a kickass person after you asked them out. Only the next time won’t seem as scary
+Because that’s the secret about all the “ugly guys” you see getting laid. They’re just confident people who are confident enough to be okay with being rejected. And once you have enough self-esteem to not be terrified of being rejected, then you can finally participate in a vast world of women who want to date/have sex with men. And confidence is fucking sexy</t>
+  </si>
+  <si>
+    <t>I'll challenge this premise. You want to have sex because you feel that's the case, not because it actually is the case. I work with people who are in their late 20s and have never had sex, and are wildly successful ( &gt;300k earners ).
+Don't tie your worth to how other people feel about you. People aren't out-fucking you because they're more successful or desirable, they're doing so because they do other things better than you do, and you have to expect that.
+Again, being virgin doesn't mean no one wants to sleep with you. It means you haven't slept with someone. That's mostly because you haven't created situations where this is possible. That could be a combination of you, your surroundings, your social circle, etc.
+I mean, you're not really putting much effort into understanding why people have sex if that's your observation, and in fact is contrary to maybe the way you feel about women. You were claiming you felt inferior to other people because they had sex and seemingly were more successful, but now you're saying they're not and that's what makes you upset.
+The inconsistency between those arguments shows the true consistency here: people are doing something different that you are not, and you should figure out what that is ( I'll cover this at the end ).
+I mean, he did what you didn't. He took a shot, he flirted, he was convincing enough and she was receptive enough to his flattery that they took the risk. You're upset about someone doing something you were too scared to do, which seems silly to me IMO. Apply this to everywhere else in life. Are you upset at kids who show up and take tests and gets As, and you decided to stay home and got an F?
+Yes, you did, because this person did absolutely nothing to you. People have committed suicide over this type of stuff, and your inability to control yourself in this regard could have directly resulted in the death of someone. When would you have stopped? What if this person had a religious family and you leaked this stuff to their parents to hurt them, or something?
+Your instincts are dangerous here, as is your anger, and I'm happy you're seeking professional help because you need it.
+This is a good goal, IMO.
+Now for my thoughts on this freeform:
+Sex, like most things, is about human connection.
+It's about vulnerability, is it's the natural inclination for us to stay clothed. We willingly take our clothes off and be in a vulnerable state with others when we have sex.
+It's about attraction, there is something in the other person that draws us to them. This could be looks, money, intelligence, etc. It's different per person.
+It's about the need to be around and interact with people.
+It's worth noting here, based on those 3 things I said above, that none of them were represented in your perceptions about why people have sex with people. You only talked about how ugly someone was, or how successful someone was. There is not one "thing" that makes someone fuckable. So there is no "one shoe fits all" type thing going on here.
+So, I guess based on the above, maybe my EXACT recommendations to you are:
+Keep going to therapy. I think you really do need it, and it's going to serve you well for the rest of your lives.
+Your communication style, at least online, is relatively poor. Your arguments are fragmented, your explanations are too long winded. When you were explaining your desire to hack, you needed MANY less words than the ones you gave. This is a communication style that turns many people off. People want clear, concise, and fluid conversation, and based on the above, you seem like someone that "talks at people" rather than talks with them.
+Focus on platonic relationships first. Learn to develop good, meaningful ones that you enjoy. Don't look for "quick tricks to have sex". The people you have sex with are people too, and even if your desire to start a relationship with them is to have sex with them ( which is fine between two consenting adults ), you still have to learn how to create relationships. This is not an easy thing, it's actually difficult.
+Look for women you respect, either at school or other places, and try to start a platonic relationship. Learn to value women for more than their ability to have sex with you. Find women who are better at you than something, and learn from them. If you're looking for a mentor, look for a woman. Anything that can demonstrate to you that the value women provide to this world is much more than sex, and you can develop that perspective through gratitude for the things they teach you.
+I'm happy you recognize it's a problem, and happy you're trying to get better. Don't just make this post empty words. It's going to take work to get you to where you want to be, and there won't be shortcuts. Start tomorrow.</t>
+  </si>
+  <si>
+    <t>No woman has ever rejected a man for being too nice. The majority of my friends are woman. That's never come out of anyone's mouth. In fact, women reject men who are too pliable, who are clearly trying to placate, because they seem "fake". Being "too nice" is not a reason women reject men.
+Being nice and respectful is the BARE MINIMUM for maintaining a conversation. The rest is other stuff. Guys who are "assertive and douchey" doesn't mean they're not "nice and respectful". You don't know the personal convos, or what happens in texts and such because you're not involved in those.</t>
+  </si>
+  <si>
+    <t>Being “nice and respectful” is the bare minimum of people. People (men or women) are generally not attracted to someone just for being “nice and respectful”.
+The dudes they went after were not you. Maybe they had some qualities that you just did not see? Maybe they made her laugh, maybe they had better social skills, maybe they had shared interests, he was a good storyteller and conversationalist, maybe they were more to HER PERSONAL TASTES. You have to understand that women have different individual tastes.
+Quick question: what did you do to these women that was “nice and respectful”? How did you interact with them? Because sometimes men being “nice and respectful” to women just comes off as being desperate and creepy</t>
+  </si>
+  <si>
+    <t>Its fine if you are a virgin bro. Lot of people both boys and girls are virgins at your age and beyond, if you wanna remedy this, focus on you, Focus on looking good for you, sleep right, eat right, be confident on who you are, don't be messuring yourself based on how many people wanna have sex with you, but on how you feel about yourself, that on its own projects confidence, which is one of the keys to a successful life on all fronts. And remmember, don't hate the players, hate the game, hating women isn't gonna get you the victory you want. Also don't spend so much time on this cesspool called social media so much, go out with your boys, have a beer, go hiking, spend your time coding and honing your craft, eventualy you might get picked up by a tech company, there you meet people, maybe a cute girl, you ask her out and see where it goes. You have a lot of things ahead of you, don't just focus on the sex, unsuccessful people have sex too, so that doesnt matter, its only like adding spicy sauce to your KFC, does it taste better? Sure, but you aint gonna die from a lack of booty. So relax my friend, enjoy life and eventualy you will get on theright track to accomplish all your dreams</t>
+  </si>
+  <si>
+    <t>You need to stop identifying as someone who isn't having sex. Start by cultivating an identity that is positive. What do you want to do with your life? Do you have a social life? Do you have a community? What are your hobbies and interests?
+I'm a 22 y/o man who has never had much luck with the opposite sex either. But I don't care. Why? Because I'm in college and I have much greater things to worry about than getting laid. You're in high school and the next few years are probably some of the most important in your life as what you do with them will most likely affect your career and your livelihood in the future. Don't waste it worrying about sex. You need to let go of this idea (often perpetuated by movies and TV) that you HAVE to get laid or else you're missing out on this "awesome, life changing experience".
+The average age where a man loses his virginity in the US is 18. It's the same age for girls. Which means that of all the people you know in your age group, around half of them are virgins like you. If they are not letting this fact get to them, why are you?
+Because getting laid is harder for men than for women, there is an understandable male tendency to look up to and/or envy men who have sex with lots of women (assuming they didn't pay for them), because in a way it is an "achievement". But you must understand that, in the grand scheme of things, it is a pretty minor "achievement", on the same level as being to solve a 4X4 Rubiks cube or being able to juggle. It may make for good conversation material but it's really not a big deal. These men who you are jealous of who have sex with lots of women probably don't even see it as much of a achievement themselves.
+Quit porn, and stop following that girl on Reddit. Stop watching sexually explicit material.</t>
+  </si>
+  <si>
+    <t>Think of it this way: women want to feel good. A nice, respectful man makes a woman feel good. That is why women want to be with nice, respectful men. The solution? Be a nice, respectful man.
+The things that women want are not the same things that men champion as masculine. Trying to be a macho man will not get you women. Nice guys actually often do better – if they really are nice guys. Many guys think they’re nice but don’t actually understand a woman’s perspective very well, and in fact don’t come across to women as nice. They don’t do well.
+Another thing: men who are less experienced are more desirable today than they used to be – sometimes they’re more desirable than very experienced men. What really matters is whether you watch porn. If you’re an inexperienced man who doesn’t watch porn, then many women would rather have you than a man who is coming to the table with ideas about what sex is – ideas that run contrary to a woman’s positive experience.
+The solution? Avoid watching porn to avoid developing bad ideas about sex, and make yourself into a nice respectful man. At the same time, work out and work on your style, try to improve your general appearance. And you’ll do much better on the dating market.
+Know this: sex is a very different thing for women and men (I’m a trans man, so I know this). The vaginal canal has very few nerve endings and very little sensation (because it is a birth canal, evolution has guaranteed this, otherwise birth would be excruciatingly painful and women would work harder avoid it). The clitoris has a ton of nerve endings in a very small location, making it extremely sensitive and hard to stimulate in a way that is pleasurable instead of painful or uncomfortable, and it is also tucked away in a location that makes it physically harder to access. To top it off, the clitoris doesn’t naturally maintain erections the way a penis does, which makes maintaining arousal harder for women. Within a single sexual encounter, a woman’s arousal typically increases and decreases multiple times before an orgasm is finally achieved – it takes women a greater amount of focus to maintain arousal; arousal easily disappears (as blood drains out of the clitoris) when, for example, her male partner says or does something that produces any kind of negative emotion – if he seems uncaring, selfish, disrespectful, egotistic, etc. Female orgasms/orgasms on estrogen are also a little different than those of men (as a trans man, I’ve experienced both). It’s commonly said that women’s orgasms are more “whole body” based, but it goes beyond that – women’s orgasms hinge crucially on whole body and emotional feelings of goodness – being comfortable, feeling safe, and often, feeling desired in a loving as well as a sexual way.
+One sad truth of today is that porn is ruining men’s brains. Adaptation and habituation to porn are literally making men unable to orgasm except to very extreme stuff – even cumming on a woman’s face of deepthroating or anal sex are very uncomfortable and unenjoyable for women. (If you doubt me, try sticking a cucumber down your throat and see how far you can get before experiencing the terrible sensation of choking to death; try also putting a cucumber in your butt. It’s terribly painful). This can all work to your advantage. Men who don’t watch porn – men who come to the table with an open mind about what sex can be – are extremely desirable to women today. I know this not only because I lived as a woman for 33 years but also because the vast majority of my friends are still women. Women struggle to find men with whom they can enjoy intimacy – because today’s men are ruined by the porn they’re watching (and to a lesser extent, by their prior experiences).
+So let your virginity be an asset. Avoid watching porn and be ready to come to the table with an open mind. I would even consider advertising on your dating applications that you don’t watch porn and have zero expectations about what sex should be (trust me, that will appeal to women). You don’t have to mention that you’re a virgin. Just say you want to learn what they like and take things slowly. That will explain away your “lack of experience” once you get in the bedroom, and starting from this fresh perspective, you will probably actually outdo the vast majority of men coming to the bedroom with experience today.</t>
+  </si>
+  <si>
+    <t>You can sleep with your friends you know. Get rid of the "friendzone" mentality. From 17 to 20 I maintained a personal rule of absolutely no female friends. Women were for sex and being friends with them was seen, to me at the time, as a sign of weakness and a very beta thing to do. Now I'm 24 and nearly all of my friends are women some of which I've banged as FWB, some have had friends they've put me on to, others, well we're strictly platonic. If they wanna be your friend then you are getting somewhere.</t>
+  </si>
+  <si>
+    <t>You're 18 and this is the perfect age to improve your mind and life. It's never too late.
+I'm 30 and didn't fuck until I was 20 even though lots of girls really liked me and I never had to try to get a girl. Girls just liked me. Idk why. I had debilitating social anxiety even though I had a relatively large group of friends. I was a video game geek. I was fucking LAME.
+Google the company Real Social Dynamics. They are a self help company geared toward helping loser guys become the best version of themselves. Guess what that means? Your best self is a hell of a lot cooler and comfortable in their skin than you are at present.
+The gist of it is this: Your personality has most likely developed automatically. This involuntary development has led you to become someone today who can still improve in several key areas.
+Social skills? Get a job where you interact with a lot of people. This is the main one.
+Start setting goals on how to be more successful in all ways.
+Pressure makes diamonds. You need to do difficult things that will improve your self concept. Make you feel more macho and badass. Lift some fucking weights. Try some dangerous activities. Don't die but try to be more reckless. Please dont buy a motorcycle though, that will make you look like a loser.
+Guys who have a negative mentality are REPULSIVE to people in general and especially to women. Change your mentality through new experiences and an improved concept of how you see yourself.
+You're story kinda hits close to home because I too was fucking useless in my youth. It does get ALOT better but only through effort.</t>
+  </si>
+  <si>
+    <t>Said literally no woman ever.
+Here's something worth knowing: being a raging ball of hormones and insecurities actually doesnt make for very good sex.
+You're giving vaginas too much power. Putting your dick in one wont magically make you more worthy. It wont change anything about you. It wont give you respect or power. It won't mean that your are attractive ir smart or interesting. It certainly wont make you a man.
+You hate women because you dont like yourself, not because women dont like you. You dont change when you go from a virgin or not-a-virgin. You can put your dick into a baker's dozen of vagina and you will still feel unworthy and ugly and disrespected and overlooked and underappreciated. Because all of those feelings are coming from you - theyre internal, not external.
+Once you learn to love yourself and derive your self esteem from the things you do and the person you are, it won't matter if a bit of you has been inside a bit of someone else.
+This experience
+Should have helped you realize that all the things you want and value (good looks, wealth, manliness, respect, power) arent actually what everyone else values. Dude was nice to her and respected her and that led to them connecting and then having sex.
+You cant hate women and blame them and belittle them and see them as a means to an end and expect to get the same result.</t>
+  </si>
+  <si>
+    <t>First and foremost. Sex is between two consenting adults. You don’t “earn” sex from a woman. You don’t have “X” amount of cars, or money, or awards and that earns you sex. You don’t earn sex by being attractive or funny or personable. Sex is a mutual experience between two people.
+With that being said, you need to start with your mindset. Stop making everything about sex. Also stop blaming and hating on others because you’re not having it. No one is out to stop you or stand in your way. The only person that does that is yourself.
+Second, work on yourself. Focus on building solid friendships/ relationships with others that are like minded. Value them. Don’t expect things from them. Be there for them. Take up new hobbies. Find new passions. Step outside your comfort zone.
+Third, you are young. Men don’t stop maturing until they are 25 years old. It’s not unorthodox or weird that you haven’t had sex yet. The harder you try to make it happen and the more you worry about it, the longer it will be. It will come naturally once you meet a person you trust that trusts you. At its core, sex is about intimacy and trust. You are willing to give the entirety of yourself to someone else, and them the same to you.
+Lastly, sex doesn’t deteriorate with age lol. You may be hornier and have more rampant hormones as a young adult, but sex honestly gets better with age because it’s more often than not with someone you care about and love.
+I think the most important thing for you to change is blaming others. It won’t get you anywhere and will just perpetuate your loneliness and anger. Look at it this way. The longer you stay angry at others and project hate and misogyny, the longer you will keep yourself isolated from intimacy and connection with others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi there, I'm a psychotherapist, but I'm not your psychotherapist, and nothing I say here establishes a patient-therapist relationship. In fact, I suggest you print it, and your OP, out to give to your therapist.
+I've wondered a bunch of things about incels for a while, and reading your post here, I had an epiphany – for which I thank you, and for which I will attempt to return the favor.
+There is something in your post – or rather something missing in your post – that sticks out like a big sore thumb.
+There's absolutely nothing about your post which suggests you like or desire sex.
+You almost exclusively talk about sex as something you want for the status it would confer upon you among men. You are absolutely preoccupied with this instrumental use of sex.
+That's not how it usually works. For most people, overwhelmingly, sex is all about pleasure. That's the draw. Most people, most especially most 18 year olds, are super into sex because they find that fucking feels amazing. They love sex for its own sake. They crave it, and that craving is called horniness and lust.
+You don't self-describe as horny. There's nothing of pleasure or need in your post. You don't use the standard euphemisms to express a longing for sex, not even the language of "love" or "intimacy". You describe masturbating to someone's picture, and that's as close as you get to expressing lust – but it's arousal at looking at a picture, and given the dearth of expression of sexuality in your post, I'm not going to make the assumption that that's the same thing as actually desiring to get it on with an actual person.
+The only place you discuss your horniness is situated in a hypothetical future looking back, with this amazing assertion:
+Those aren't the words of someone who likes sex or anticipates sex being enjoyable. It boils down to "if I were any less horny than I am right now, sex wouldn't be enjoyable enough to bother with", which suggest you are so not horny, you don't really see how you could be any less horny.
+What this all sounds like from here, and I know I'm going way out on a limb, is that you're someone who doesn't experience sexual attraction. You experience sexual arousal – you get hard and can get yourself off – but you never look at someone and think "I want to do that person". Sexual attraction is when you want to have sex with a specific person. And your account, above, sounds like that of someone who doesn't experience sexual attraction and is trying to force himself into having a sex life anyways.
+And of course, it can't work. One of the things that women who are attracted to men are into is being sexually desired. If you don't display sexual attraction to a woman, she's never going to entertain the idea of having sex with you, if she's at all normal, sexually.
+Is that what "nice" really means to you? Does it mean "I don't have unchaste thoughts about women?" Do you think that's what the "bad" men are guilty of – lust – whom women prefer?
+Is what the "involuntary" part of "incel" really means to you is that you didn't chose to be this way, but find you are? That it's not that you can't find a sexual partner, but that you can't find in yourself desire for one? Just the societal demand that you have one?
+That would explain why your anger is so much about social status, in such an exaggerated way. If you believe society requires functioning as a sexually desiring person as a criterion for manliness, then being undesiring means never being a man in the eyes of society.
+If this is what is going on, and the battle that's raging in your heart: there's a name for this. It's asexuality. And you have a people and a movement waiting for you.
+The modern asexual movement defines asexuality not as an absence of sexual response or libido, but – by parallel construction to "homosexual" and "heterosexual" – someone who isn't sexually attracted to people. Some ace people are sex-repulsed; others have high libidos but don't care to have sex with others; some engage in sex to please partners. It's a spectrum. And within asexuality there are people who are not sexually attracted, but who are romantically or sensually attracted.
+The asexual movement stands up for the dignity and worth of asexual people. It insists they are no less men and women and enbies and adults because of their sexuality.
+If what's going on here is that you don't actually want to have sex with a woman (or anyone), but you think you have to to fit in in society, I recommend you go find the asexual movement. They will be an enormous source of comfort and support to you.
+Consent matters. And that includes your own consent. Please don't force yourself to engage in a sexual behavior you don't want to just to impress others. Please don't violate your own consent. You absolutely do not have to engage in sex you don't want to. Please do not let anyone convince you otherwise.</t>
+  </si>
+  <si>
+    <t>So, if I can change your view along a different angle. Cities absolutely should contribute to stadiums and sports teams but they should also own a portion of those things. These teams bring in lots of taxable revenue and are generally good for the city to have and as you note they generate lots of money.
+There is no reason the City of Atlanta can't own a percentage of the Braves. In fact the fact that no city has any ownership of any of it's sports teams (caveat Packers? not a sports ball person) is somewhat astonishing.
+That money would offset the tax burden on the people of the city. Ownership would spur attendance at games. And it would prevent teams from leaving the city holding the bag on that stadium.</t>
+  </si>
+  <si>
+    <t>Stadiums and arenas are usually multipurpose buildings. These buildings also bring in other big events that creates tax revenue, contributes to the happiness of the citizens, and elevates the city’s stature in the region/country.
+While it might make sense for the main tenant to pay for a new building or improvements to the current one, the city will also benefit.
+In Oklahoma City, we built a new arena in hopes of attracting an NBA basketball team and it has worked well for us.
+I do know that other cities have been given ultimatums by teams to build a new facility and I believe that is a terrible decision. Owners should work with their communities to fund the projects together. The owners can pay for a certain % and have free rent of the place for X years, but the city owns the building and can use it during the off season.
+Unfortunately, like in Seattle and San Diego, a new building is a way for a team to weasel out off a city. If the city refuses to pay for it, then you can say that a move is justified. Of course you can also argue that the community isn’t coming to games or that the product on the court/field isn’t good enough, but that’s a whole different issue.</t>
+  </si>
+  <si>
+    <t>What about when taxpayers and the general public want to?
+I get that Reddit hates sports but there are millions of Americans who don't and are happy to see a very slight increase in taxes to keep or bring a sports franchise to their city. Moreover, the most common way cities pay for these franchises is to effectively raise taxes on people out of town. Generally, these are funded by increases to hotel and car rental taxes.</t>
+  </si>
+  <si>
+    <t>Is it? typically a team generates revenue for the local economy, lets say it costs 1B to build a stadium, but it generates 3-4B over the next few years, how would that be irresponsible?
+Well are you sure? typically another city just offers a better deal to get them</t>
+  </si>
+  <si>
+    <t>I think one element that is missing from your analysis is defensive labeling. There is an element of American culture that glorifies successful criminals. This is easily seen in our media. The change in view comes when a person fails at a crime or gets caught. At that point they become a negative stereotype. People then try to divorce themselves by dehumanizing that person so they don’t have to address any similarities between themselves and the pariah. Compassion for the person high on meth running naked from the cops and getting tased requires that you see yourself potentially in that situation. That is uncomfortable for most people in the US and the diversity of people and incomes allows for easier mental separation from the person for many people.</t>
+  </si>
+  <si>
+    <t>I think it's good to have compassion. But I think your post contains a correlation problem. Other countries may have compassion for criminals and also less police brutality, but that doesn't mean the former directly correlates to the latter. It's possible to have compassion for criminals as a society, and yet some police to not join in and still be brutal.</t>
+  </si>
+  <si>
+    <t>I don’t approve of crime or police brutality. Compassion for criminals though? If it’s victimless crimes then we should give compassion. Why in the world would you show compassion for someone who “rapes your wife” as you stated in a response. That’s called self defense. I am a libertarian, I believe everyone has unalienable rights. I understand your argument that criminals have rights, but if you have to choose between saving your loved ones or letting a criminal do whatever they want, you should save your loved ones. We have a right to defend ourself, our family, and our property. It is a natural deterrence of crime. When criminals see that the price of a crime is death, I think that will help end crime.
+Just to clarify, I’m not saying police brutality is justified. I’m saying Americans defending their own stuff is. That’s why we have the 2nd amendment.
+In the terms of police,
+I’ve already seen cities that have compassion for rioters and looters and they are burning right now. Police are defending property of the citizens that live there. That’s where our tax money goes! If those rioters attack officers, the officers have the right to defend themselves.
+Long story short, Criminals break laws that are intended to preserve every citizens rights. Your argument is saying have compassion for someone pushing others around. Why not push them back? We have to hold individuals accountable for their actions. Giving Criminals compassion isn’t going to show them what they did was wrong, it will only tell them that it’s acceptable. Don’t want to have your rights violated, don’t violate others rights.</t>
+  </si>
+  <si>
+    <t>I agree that compassion for criminals is a good step, but applying that mindset to the US is hard.
+Its a big country, made up of people from all across the world. Unfortunately this makes it difficult to empathize, because community is harder to achieve.
+In many of the countries where rehabilitation is used they are smaller countries with less diverse people. This allows the people who live there to be more of a community. When they see a crime committed, its like a member of the community committed that crime. When a crime is committed in the states, its like an alien committed the crime; certainly not a member of the community.
+For example: if you see someone who has different ethnic origins, follows a different religion, and/or lives multiple states away its easy to dismiss them as "not one of us".
+So to modify your view: Because of Americas unique country make-up community is less of a focus, and that makes empathy harder to achieve.</t>
+  </si>
+  <si>
+    <t>What do you consider police brutality and how are you also comparing it to other places? What you really are comparing is the news coverage of said incidences. Looking at things like police shootings are much easier to compare since it’s a recorded statistic. I think if you look at the number of police shooting (even justified ones...people shooting at police or have a firearm or posing a deadly threat) you will find that the number of those incidents are extremely low compared to other factors, such as population and other forms of shootings and crime.
+Not saying that it doesn’t exist, and we always need to strive to be better, however it’s hard to really fairly compare, since in America it’s media driven.
+And I think you are wrong, people do have compassion for criminals. Look at the more resent incidents of police involved shooting or deaths, most all of the suspects were past criminals, and every single one of them were either resisting arrest or trying to cause harm. People who have robbed, raped and hurt people in the past are being plastered on t-shirts, posters and tv being idolized as the next MLK, when In reality they were criminals.
+And again, not saying racism doesn’t exist, not saying there aren’t bad cops out there. And no one deserves to die or get treated poorly by anyone, just putting things into perspective
+This will get down voted and that’s fine because this is the internet and who cares. I’m open to any civil conversation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I think the only legit reason for them is that when they made these movies as cartoons, they didn’t have the cgi ability to do a live action. And perhaps they always wanted to or intended to do a live action remake once the technology was sophisticated enough</t>
+  </si>
+  <si>
+    <t>Is it Disney's fault that people want to pay money to watch the movies? They are a publicly traded company and have a responsibility to their shareholders. Their options are make these movies and profit, or don't make these movies and lose money. Why should they choose the option where they lose money?</t>
+  </si>
+  <si>
+    <t>So here's a perspective from someone who massively dislikes the expansionist nature of, but is very hyped for the next year of, Disney films.
+Disney is dangerously close to being a monopoly for some, but I refuse to believe that they aren't already one.
+I was born in the early 90's and was very emotionally attached to The Lion King. It checked every box I ever could've wanted as a kid and I own like 5 different copies of the film. I still have my Lion King toddler blanket. Suffice to say, it was a big piece of my childhood. The problem is that it wasn't made for me. It was made for the kids who came just before me. I got a movie theatre experience only because of a technicality a few years back and have been hoping for this recent announcement for years. Now, the reason for this is because I do believe that a lot of the disney classics are truly timeless. I could watch many of the original disney films on repeat for days. And I love seeing the creative differences and liberties taken when a movie is redone. Are they all great films? Hell no. Some are embarrassingly bad. But this is exciting for me because it is the rebirth of a classic that is basically made for the kid in me and shows that Disney is thinking about us adult fans as well. People have been begging disney for this for a long time.
+Secondly, this craze of live action film is a strange phenomenon because it is taking an existing IP and breathing new life into it and re-envisioning how we see the movie. For those of us emotionally connected to the original, it either love it or hate it. And the market has generally loved it. Hence profit. To say that Disney's honoring the wishes of the fans because they want to do that is foolish to not assume they see the dollar signs all over it. The Jungle Book was so fucking good, that now we have Mowgli too. Its money. And for me, its the terrifying anticipation of having to mourn the more realistic death of Mufasa. Spoilers btw.
+In short, for some of us this is an emotional rollercoaster that we have been begging for. There are people who write disney all the time asking for this kind of stuff. And Lion King, Dumbo, Aladdin, The Jungle Book, etc just shows that there's profit and interest in the project. Im more hyped for live action Lion King than I have been for about 98% of all other movie experiences I have ever had. And my wallet has been telling Disney this for years with all my Lion King purchases/paraphernalia. Hope this helps</t>
+  </si>
+  <si>
+    <t>I'll start by saying that the belief in ghosts is far far more normalized than the belief in vampires and werewolves. There's a good deal of overlap especially in Christianity between God-believers and ghost-believers. So I'm only going to argue God vs Werewolves/Vampires.
+Note: I am agnostic.
+This answers your question. The belief in the existence of God or some non-Christian/Jewish/Islamic deity or deities has been normalized in society over hundreds to thousands of years. Whereas belief in vampires and werewolves is very very niche and was really only a thing in more superstitious dark-ages-like times in Europe, for example. It's a numbers game, and it's a social norms game.
+I think the flaw in your view is that you seem to discount social normalization as a valid reason for a view being seen as reasonable or acceptable. But humans are social creatures and not perfectly logical, so what others think is important to us.</t>
+  </si>
+  <si>
+    <t>Absolutely, so I think one crucial aspect your missing is theologies heavy lean into culture and tradition; many Jews and Hindus I know are more “passive” about their beliefs, but are exceptionally active in the family (and community) traditions brought along with them as well as the historical significance.
+And that’s where it gets complicated, is that ‘belief’ itself is far more on a spectrum then people who argue on the internet care to admit. Hell, many Christian denominations teach the Old Testament differently, with many viewing the early passages of it as stories to be read for the moral as opposed to step-by-step truths.
+Something similar can be said with the concept of alien life or UFO’s; there’s an absolute massive slider in regards to “level of belief or certainty,” even without the cultural traditions behind them.</t>
+  </si>
+  <si>
+    <t>But then your opinion must also be that if it's OK for people to believe in ghosts, werewolves and vampires, then it's also OK for them to believe in god. And I can assure you that if that post had been the other way round and OP was talking about the effects God had on their life, they'd be being mocked just as much as for talking about ghosts. So, to rebuke your opinion - this is a faulty premise because, at least amongst the people who want to mock people for believing unproven things, it's not OK for people to believe in God.
+And I don't know where you're looking, but it is very much OK for us to make fun of people for believing in God. We do it all the time, pretty much everywhere. Even people who believe in God mock people for believing in God, if the God those people believe in is different to the one they believe in themselves.</t>
+  </si>
+  <si>
+    <t>..But that's the thing... people have believed in god(s) for many centuries. It was and still is a normal thing. You can't suddenly just change the concept of religion to make it more like mythological creatures like vampires and werewolves... Do churches suddenly no longer exist? Are Bibles no longer the most sold book in history? Are we supposed to forget the development of our legal system and so much policy was written from a religion-derived morality?
+People do call religious people crazy. Google crazy Christians, crazy religious, crazy Muslims, you'll always get hits. Ask any religious person if they've ever been crazy for their beliefs and they'll probably say yes.</t>
+  </si>
+  <si>
+    <t>Plenty of highly educated, thoughtful people (Aquinas, Leibniz, Descartes, Craig, etc) have been laying out serious philosophical arguments for God for centuries. And it continues today, adjusting to new evidence, such as cosmic fine-tuning. In fact, there are so many arguments that Wikipedia has an entire page dedicated to listing them. Now, you may or may not agree with such arguments, just as you may or may not agree with string theory. But you couldn't you point me to a similar list of arguments for werewolves, vampires, or ghosts. It would appear, then, that belief in God has a much stronger scholarly basis than a belief in your other supernatural occurrences.</t>
+  </si>
+  <si>
+    <t>There would be no way to avoid being a freerider when it comes to protection from foreign invaders. The state's army would protect you along with all the other people as long as you lived within its borders.</t>
+  </si>
+  <si>
+    <t>"Society" and "taxes" are not synonymous. Say 10 other people join you in your scenario. You now live in a society and are not paying taxes.</t>
+  </si>
+  <si>
+    <t>It becomes theft when I have no say in its use.
+Congress can legally raise their own salary, without citizen consent.
+And it's every week it seems like some elected or appointed official is being caught misusing funds to fly places, party, and waste our money.
+I should not have had to pay for Mike Pence to fly from DC to a football game, just to get up and leave as a political stunt.</t>
+  </si>
+  <si>
+    <t>I think a more nuanced view is applicable here.
+Surely, not ALL taxes are theft. I would agree that reasonable level of taxes imposed by democratically elected government and spend for betterment of all society - is not theft.
+However as you start taking away these conditions, things change
+Consider Nazi government that taxes Jews at 100% level, and spends that money to further prosecute Jews. Surely, such tax is nothing but theft.
+I would argue that there in between cases between these two extremes as well which are in the gray area.</t>
+  </si>
+  <si>
+    <t>There are 2 things: taxation is theft and taxation is immoral.
+If I clean your car and then take money from your purse without your explicit or implicit agreement about the transaction, it is still theft. The fact that I really did clean your car and that the price is reasonable cannot change that.
+However, I think you could make the argument that there is no other option if we want to live in a functioning society, therefore some level of taxation (theft) is necessary. I'd say it's a variant on the trolley problems - all options are bad, this is 'the least bad', and that could be a moral justification.
+The problem is that you cannot. See discussion around charter cities where you would have to strike some agreement with some government first and that's extremely difficult.
+No, this is very appropriate thing for discussion; if you consider taxation moral based on the idea that it is necessary for society, spending money on things that are not necessary would imply that such part of taxation is immoral.</t>
+  </si>
+  <si>
+    <t>Do you own the land you're doing all than on? If you do, you'll (probably, depending on where you live) be taxed for that, and you'll have to produce some money. If not, you could be forced to move away. And for good reason - you're foregoing things like roads and running water, but not protection against foreign armies, forest fires, pollution, etc.
+I think "taxation is theft" isn't really and argument, but mostly a slogan people use to express their dissatisfaction with high taxes, but the government needs money to operate, and the way it gets it is by forcefully collecting any amount of it from anyone it sees fit.
+'Theft' is the wrong word, because it's done legally, but because the government also makes the laws, it is effectively arbitrary forced collection of funds. Depending on your point of view, that collection scheme can be "fair" or "good" (but so can theft - see Robin Hood), or not, but that's what it is in its core.</t>
+  </si>
+  <si>
+    <t>Honestly, people from all groups and all walks of life can say something out of anger. Saying something out of anger is not an excuse but I believe it is important to understand. If your friend gets shot and you make a comment about the identity of the person who shot him/her that is still a prejudiced statement but understandable in the context.
+My problem is when people criticize a group of people when they intend to criticize a culture. Criticizing a culture is fine. The statement “fuck men” is bigoted, but “fuck the patriarchal power structure in our society” is not. What you see people saying online is wrong and I agree with you on that, but some of their underlying messages are fine just ill communicated.
+Honestly what I am trying to say is people fuck up and say a bad thing out of anger or trying to make a joke. That statement is wrong and bigoted, but that doesn’t automatically make the person a bigot. Everyone when talking about a group in general should focus on the social culture surrounding the group not the group themselves. Such as “fuck the community which allows police to get away with crime out of brotherhood” totally legitimate and understandable. “Fuck the police” is counter productive and not right. If your friend was unjustly shot by the police and you start yelling that we can all understand but it does not make the statement right nor does it make you an asshole.
+Punching up and punching down is all still punching. Punch at a culture or social climate not a group.
+Edit: I am not saying that throwing the word culture in a statement negates racism. I am saying that a legitimate disagreement with something in a culture is fine, but saying you hate the culture or hate the race is not. Example: I disagree with how women are treated in the majority of Saudia Arabia’s culture. VS. I hate middle easterners because they are all sexist.</t>
+  </si>
+  <si>
+    <t>So I recently made a post about “men being trash” and got a lot of hate for it. I’m going to speak anecdotally here, but I hope it can provide some perspective.
+After making that post I spoke with a lot of friends, both male and female, about the phrase “men are trash” specifically, and there were a few things that came up:
+for nearly all my female friends (and myself), they don’t actually hate men. At all. They do however get frustrated when they have had a bad series of interactions with men. Ex: a friend recently had a guy she dated for about 3 weeks start stalking her. I mean, he showed up outside her apartment building, outside her work, at the coffee shop she frequents, despite the fact that he lives and works on the opposite side of the city. Ex2: a group of friends and myself were at a nearly empty bar and had a guy who would not stop harassing us. I mean following us as we went to the restroom, sitting right beside us despite the entire bar being open, trying to hit on all of us, and then following my friend outside when she was catching a cab. The bartender eventually had to kick him out because it was readily apparent that he was behaving really creepily. These are just TWO interactions we had. But it’s unsettling, and in frustration we said “men are trash!” We didn’t actually mean all men are trash, and yes we generalized, but that doesn’t mean we were being malicious. We were scared and frustrated.
+while the phrase “men are trash” gets a lot of attention right now, there are equivalents that men say. “Women are crazy” is the one that came up when I was talking to my friends. I’ve heard that who knows how many times. And it’s usually understood that when a guy says that he doesn’t actually mean “all women are crazy.” It’s usually after a particularly bad date, or bad interaction that he says this. I will say that usually follow up information/context are needed to get a full picture.
+I do not, at all, believe gender and race are comparable. When speaking to my friends the best was I found to describe my thoughts was this: there are different bars for what is considered “hateful” or “wrong” based on what you are talking about, and where you are in the world. As I live in the United States, I used this example. I explained it like this: let’s say we have a scale of 0-100. If a statement you say rates a 0 it’s completely neutral, if it rates a 100 it’s universally hateful/ offensive. Okay but where in this scale from 0-100 do you go from “okay” to “not okay?” Well it’s different for different things. When talking about gender, let’s say the “not okay” begins in the 70’s, but then you break it down further for men and women. Both are still in the 70s but let’s say for women the “not okay” begins at 75 and for men it begins at 72. When we talk about race, the “not okay” begins generally in the 30s, but again, let’s say for African Americans the “not okay” begins at a 32, and for white people it begins at a 39. This is taking into account the systematic discrimination certain groups have faced but still recognizing that you are talking about two very different things, ie: gender and race, which are opposite ends of the scale.
+Again my 0-100 scale was just a tool I used to explain this, and I literally pulled numbers out of my ass, but I think it gets the point across. It’s important to context into account here. For example, let’s say we are talking about women in Saudi Arabia. I don’t think it’s reasonable to compare the lives of women there to the lives of women in the United States. So this will change the level of “not okay.”</t>
+  </si>
+  <si>
+    <t>I’d have to disagree with your allowability scale. I’m a straight, cisgender, white, male, and those first three adjectives really don’t compare to being male. There are literally no downsides to being straight and cis, and the only minor downside I can think of for being a white American is a lack of connection to culture, but other than that there are literally no downsides at all. I’m fine with white people being made fun of and straight people and cis people, it really doesn’t offend me. But that really isn’t the same as being male. There are a lot of downsides to being male, and although I doubt there are as many as being female, it’s not the same as other privileged groups that don’t have any. I’ve struggled with gender rolls and expectations, as well as having a complex relationship with my feelings. I’ve struggled with separating my maleness from traditional masculinity, and anytime someone compares those things as the exact same it feels like a punch to the gut. It’s hard trying to be male but also not falling prey to toxic masculinity, and when people say those things are one and the same it really does feel offensive to me.</t>
+  </si>
+  <si>
+    <t>While I agree I don't even think men and white people are comparaable in terms of oppression. There is no systematic oppression for being white, not saying plenty of bad shit can't happen, but there is systematic oppression for being male such as genital mutilation being legal, only men having to sign up for selective service if they want to work for the government or get financial aid, men getting more jail time for the same crime, and so forth. Not saying generalizations about white people aren't bad, but I would argue generalizations about men are worse just because the privilege dynamics are not even close to the same</t>
+  </si>
+  <si>
+    <t>This thread is full of white people circlejerking over how black people getting mad at us - because, as a group, we treat them Like Shit - is so racist and wrong and can’t black people consider our feelings for even a moment?
+My dudes. Seriously. Whiteness was literally invented as a pretext to enslave, colonise and murder non-white people, particularly black people. Pale skin is an objective trait, but whiteness is a specifically racist tool and it’s one that we’re all constantly benefiting from. White people have systematically disenfranchised black people through slavery, through Jim Crow, through redlining, employment discrimination, housing discrimination, racist violence, policy, and then we’ve coddled ourselves by selectively forgetting what ‘white’ actually means in a political sense. Black people basically have to constantly tiptoe around us because we apparently can’t fucking deal with the word ‘white’ even being mentioned. Literally, in my country, TV presenters have had to nationally apologise for saying the term ‘white people’ or ‘racism.’
+This discrimination is continuing now, it never stopped, but now the in-vogue white thing to do is to be ignorant of that history and of present racism, and to get incredibly defensive and self-righteous when any black person dares to express anger at the murderously unfair state of things. Yeah, black people have to fear getting murdered by the police, and face constant incomprehension from white people about their struggles (or even those white people trying to justify/minimise the racism they don’t experience), but the second a black person goes ‘fuck white people’ they’re Causing Division, they’re the Real Racists, they’re Literally Hitler. But frustrated black people can never have the same impact as an entire rigged system.
+What you have to understand is that black people are not ‘causing division’. WE are, by systematically treating black people badly and wilfully remaining blind to that because we’re the good ones, we don’t have slaves, how dare you liken me to people who had slaves! (Pro-tip: ‘I don’t have slaves and I don’t yell the n-word at people’ is less than the bare minimum.) Whiteness benefits us in so many ways that we can’t really see because we’re wrapped up in them, and yes, that outweighs that time a black person was Unreasonable towards you. But we don’t put the onus on ourselves to be better to black people and to listen to why they’re mad at us; we put the onus on black people to soften their tone and make sure we’re 100% comfortable at all times (a courtesy we absolutely do not grant to them).
+This discussion is just a Trojan horse for ‘I can’t deal with white feelings not being centred for one damn minute’ and I’m sick of it.</t>
+  </si>
+  <si>
+    <t>It honestly depends on the context, and phrases like these originate in specific closed groups, with backgrounds, but then become mainstream on twitter or Tumblr, from where the context is removed and it gets posted around on the internet.
+For example, "All Men are Trash" is in a specific context where women are told there exists a perfect man for her, and that she should either wait for the perfect man, or keep focussing on relationships one after another in the hope of finding "The Man", who isn't like those other guys.
+The saying, in this context means - You can't rely on men. You need to look after yourself. No one is gonna magically drop from heaven and fix your problems.
+In the same way, "Ask not what your country can do for you but what you can do for your country" - is not about enslaving citizens to sacrifice themselves for an authoritarian government (even though it can be misinterpreted that way). It means, as citizens, we all must co-operate with each other to bring the country back up, instead of waiting for miracles to happen.
+With regards to lesbian women, I think the context is that a lot of people think lesbian women just haven't been with the "right man" yet, who will turn them straight.
+Having said that, even within in-circles, you often have sayings that become more and more extreme like a game of telephone. it is important for people to ensure social justice movements don't get hijacked by those with louder voices but lesser understanding of contexts and ideas.</t>
+  </si>
+  <si>
+    <t>I have a lesbian friend who always make jokes like this about straight white males such as myself. Its everyday on social media and in real life and it was such annoying and hurtful words I was considering confronting her about it yesterday. I decided not to and felt so much better later for it.
+It turned out her brother had been making sexist and homophobic jokes about her every day and they really bother her. Even at school she says she knows people don't like her for being gay because she dated a really popular guy and hated the sex. (Long story I don't understand the details).
+Point is for these people it may be a coping mechanism to the world around them albeit a real shitty one. It's really hurtful to listen to and many people call her out for it but I have decided not to because I know she is just upset with the world around her and just wants to strike back. I honestly don't think she means it since I'm her best friend and she loves other striaghtbl white guys like Jhon Mulaney.</t>
+  </si>
+  <si>
+    <t>We agree on what’s important. I don’t think it does no harm. I think it’s not comparable harm. I think it’s harmful to compare “men are trash” vs “women are trash” because the damage aren’t the same and it’s implicitly assuming that the playing field is leveled. It’s really not. I have followed the men’s rights movement. I think they have a point. I think the arguments are much more nuanced. But then again, saying “not all men” and “all lives matter” completely dismiss the issue that “the majority of men in the patriarchal society cause immeasurable pain, loss, and death of women” and “black lives are dying at the racism of white supremacy”. There is value in a white person and a male presenting person understanding that they are no longer assumed to be the default. They aren’t assumed good and knightly and savior. They are assumed deviant, like the rest of humankind. They must earn trust, like everyone else.</t>
+  </si>
+  <si>
+    <t>Sure, actually oppressing currently privileged groups, would be wrong.
+But also, the context of how you can be successfully joking around about them, is very different, because jokes are all about perceived intent.
+Minorities have an easier time talking shit about the majority, and instantly signaling that they are not making serious threats, in the same way as a midget talking about how he is going to beat your ass, has an easier way of getting it across that he is just messing with you, than a 7 feet tall bodybuilder does.
+Theoretically, it should be possible to make a joke where you perform a racist statement against minorities, but from the context everyone knows that you don't mean it.
+But the bar is higher, because if you just reverse the way a minority would do it, and ignore the context, you will end up with a statement that sounds a lot like straightforward old-fashioned racist values that are still popular in society and that continue to have institutional consequences.</t>
+  </si>
+  <si>
+    <t>I am trans and pansexual. I never say "fuck cis, straight people" because I don't feel that way about cis hetero people.
+I will say that the comparisons to Hitler and Nazism are so tiring. These are not the same. You can't ignore all context of social issues and expect people to take your position seriously.
+When people compare minor infractions (which these are) to slavery, oppression and genocide, it is extremely frustrating. It really highlights privilege if you feel "fuck cis people" is akin to Nazism or any real oppression. They're not the same, even if you don't like both.
+I think there's a lot of discussion to be had, and I am never going to say "fuck cis people" but please stop comparing this stuff to Nazism.</t>
+  </si>
+  <si>
+    <t>This is an unintended consequence of the trans athlete debate.
+There has to be some delineation between the competitors in the male and female divisions. If the limiting factor isn't going to be sex, then some other limit must be set.
+Testosterone was selected because it allowed for trans athletes to compete in their preferred divisions as testosterone can be medically adjusted.
+That being said, I'd much rather see the Namibians compete than Laurel Hubbard.</t>
+  </si>
+  <si>
+    <t>Consider the case of Caster Semenya. She lived and was raised female and presents as female with external genetalia, but when the Olympics shifted from the "pull down your pants" method of sex testing for elligibility in female only competitions to DNA testing, she learned she was XXY, and had a gene that's associated with higher testosterone levels. She was subsequently suspended. At the moment, the testing process for testosterone is the ratio of testosterone to epitestosterone, and she failed that test. What determines a normal level of testosterone? How does one distinguish between a naturally high testosterone to epitestosterone ratio from an enhanced ratio? For natural competition, there must be a line somewhere, so how do you determine where that line is and the edge case of a natural athlete being past that line?</t>
+  </si>
+  <si>
+    <t>The separation between men and women in sport exist to allow half the humanity (give or take a few percent) to have a competition they can compete with opponent with roughly the same predispositions and champions they can identify this. So the first question is: do you understand why it exists and agree that it's required in sport?
+If you understand and do agree that men and women needs separate categories, then a line must be drawn somewhere. Now I don't know if you have a better suggestions but a testosterone limit makes a lot of sense because testosterone is a hell of performance booster.
+Finally it's true that it might feel unfair for women with hyperandrogenism or different condition that boost testosterone but the comparison with Michael Phelps doesn't work because there's no risk of clone of Phelps dominate sports because: (a) he's more like a one in a billion exception (b) he's made for swimming and not for other sports. Women with higher testosterone level are (a) not one in a billion exceptions but more like 1% (b) testosterone boost performance in all sport and cannot be anticipated by competitors. In other words: high testosterone level is too frequent and powerful in all sports to be ignored.</t>
+  </si>
+  <si>
+    <t>One could argue the whole reason for having men's vs women's sports was to level the playing field for the anabolic and strength advantages of testosterone.
+Perhaps it is outdated to use gender and the two groups can be defined by T levels. If you have a natural advantage then it's fair to compete with others with the same advantage; so people born without the advantage have a shot.
+Just like most combat sports where weight is an advantage. You can only compete within your own weight class.</t>
+  </si>
+  <si>
+    <t>Unfortunately you have to set a limit, especially with women. It's nothing personal, they simply went over that limit</t>
+  </si>
+  <si>
+    <t>I think you are missing the point that many people have tried to put across. People with high testosterone are not banned from sport, they are denied entry into a special category of people with a low level of T. Tall basketballers, big lungs and Phelps are irrelevant. If society cannot agree sensible rules to define fair female only competition , the female only category will disappear completely and men will win everything. Compare your arguments to weight categories in all fighting sports: It’s not fair that this heavyweight competitor can’t enter the lightweight completion. It doesn’t give them an advantage, they aren’t heavy on purpose, it’s just who they are… it’s all nonsense.</t>
+  </si>
+  <si>
+    <t>The Olympic Committee sets down a range of T levels that it considers to be normal for human males amd females because it wants to level the playing field and discourage doping. But testosterone levels can be manipulated by means other than getting injections.
+As a gross example, if an athlete with a high t level lives in an area that has environmental conditions that promote production of testosterone (something in the water), and their identical twin with a low t level does not and who lives elsewhere it can be argued that the first athlete's t level is artificial.
+Modern athletics are pushing up against the theoretical limits of human performance. Runners are not going to get any faster. A baseline for what constitutes "normal" has to be set somewhere.</t>
+  </si>
 </sst>
 </file>
 
@@ -1006,11 +2825,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1259,10 +3078,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1270,10 +3089,10 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1281,10 +3100,10 @@
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1292,10 +3111,10 @@
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1303,10 +3122,10 @@
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1314,1606 +3133,5126 @@
       <c r="A6" s="1">
         <v>1.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="A63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="A64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="A71" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="A72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="A73" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="A75" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="A101" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="A102" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="A106" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="A107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="A108" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="A110" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="A111" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="A112" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="A113" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="A114" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="A115" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="A116" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="A118" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="A119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="A120" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="A121" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="A122" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="A123" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="A124" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="A125" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="A126" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="A127" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="A128" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="A129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="A130" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="A131" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="A132" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="A133" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="A134" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="A135" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="A136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="A137" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="A138" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="A139" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="A140" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="A141" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="A142" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="A143" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="A145" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="A146" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="A147" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="A148" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="A149" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="A151" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
